--- a/config/PacManMap【吃豆人地图配置】.xlsx
+++ b/config/PacManMap【吃豆人地图配置】.xlsx
@@ -1177,9 +1177,9 @@
   <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I403" sqref="I403"/>
+      <selection pane="bottomLeft" activeCell="H836" sqref="H836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1341,9 +1341,7 @@
       <c r="G6" s="1">
         <v>90</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
     </row>
@@ -1360,9 +1358,6 @@
       <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
     </row>
@@ -1379,9 +1374,6 @@
       <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
     </row>
@@ -1398,9 +1390,6 @@
       <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
     </row>
@@ -1417,9 +1406,6 @@
       <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
     </row>
@@ -1436,9 +1422,6 @@
       <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
     </row>
@@ -1455,9 +1438,6 @@
       <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
     </row>
@@ -1474,9 +1454,6 @@
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
     </row>
@@ -1493,9 +1470,6 @@
       <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
     </row>
@@ -1512,9 +1486,6 @@
       <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
     </row>
@@ -1531,9 +1502,6 @@
       <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
     </row>
@@ -1550,9 +1518,6 @@
       <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
     </row>
@@ -1569,9 +1534,6 @@
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
     </row>
@@ -1594,9 +1556,7 @@
       <c r="G19" s="1">
         <v>90</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
     </row>
@@ -1616,9 +1576,7 @@
       <c r="G20" s="1">
         <v>90</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
     </row>
@@ -1635,9 +1593,6 @@
       <c r="D21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
     </row>
@@ -1654,9 +1609,6 @@
       <c r="D22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
     </row>
@@ -1673,9 +1625,6 @@
       <c r="D23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
     </row>
@@ -1692,9 +1641,6 @@
       <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
     </row>
@@ -1711,9 +1657,6 @@
       <c r="D25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
     </row>
@@ -1730,9 +1673,6 @@
       <c r="D26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
     </row>
@@ -1749,9 +1689,6 @@
       <c r="D27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
     </row>
@@ -1768,9 +1705,6 @@
       <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
     </row>
@@ -1787,9 +1721,6 @@
       <c r="D29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
     </row>
@@ -1806,9 +1737,6 @@
       <c r="D30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
     </row>
@@ -1825,9 +1753,6 @@
       <c r="D31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
     </row>
@@ -1844,9 +1769,6 @@
       <c r="D32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
       <c r="I32" s="15"/>
       <c r="J32" s="16"/>
     </row>
@@ -1863,9 +1785,6 @@
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
     </row>
@@ -1885,9 +1804,7 @@
       <c r="G34" s="2">
         <v>90</v>
       </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
     </row>
@@ -1902,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="18"/>
@@ -1918,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
@@ -1934,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="18"/>
@@ -1950,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
@@ -1966,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
@@ -1982,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
@@ -1998,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
@@ -2014,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
@@ -2030,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="18"/>
@@ -2046,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
@@ -2062,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="18"/>
@@ -2078,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
@@ -2099,9 +2016,7 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
+      <c r="H47" s="1"/>
       <c r="I47" s="17"/>
       <c r="J47" s="18"/>
     </row>
@@ -2121,9 +2036,7 @@
       <c r="G48" s="2">
         <v>-180</v>
       </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
     </row>
@@ -2138,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="18"/>
@@ -2154,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="18"/>
@@ -2170,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
@@ -2186,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="18"/>
@@ -2202,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="18"/>
@@ -2218,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="18"/>
@@ -2234,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="18"/>
@@ -2250,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="18"/>
@@ -2266,7 +2179,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="18"/>
@@ -2282,7 +2195,7 @@
         <v>24</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="18"/>
@@ -2298,7 +2211,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="18"/>
@@ -2314,7 +2227,7 @@
         <v>26</v>
       </c>
       <c r="H60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="18"/>
@@ -2335,9 +2248,7 @@
       <c r="G61" s="2">
         <v>270</v>
       </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
+      <c r="H61" s="1"/>
       <c r="I61" s="17"/>
       <c r="J61" s="18"/>
     </row>
@@ -2357,9 +2268,7 @@
       <c r="G62" s="3">
         <v>90</v>
       </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
+      <c r="H62" s="1"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
@@ -2374,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
@@ -2395,9 +2304,7 @@
       <c r="G64" s="3">
         <v>90</v>
       </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
+      <c r="H64" s="1"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
@@ -2417,9 +2324,7 @@
       <c r="G65" s="3">
         <v>-90</v>
       </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
+      <c r="H65" s="1"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
@@ -2439,9 +2344,7 @@
       <c r="G66" s="3">
         <v>-90</v>
       </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
+      <c r="H66" s="1"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
@@ -2458,9 +2361,7 @@
       <c r="D67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H67" s="1">
-        <v>1</v>
-      </c>
+      <c r="H67" s="1"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
@@ -2475,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="H68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
@@ -2496,9 +2397,7 @@
       <c r="G69" s="3">
         <v>90</v>
       </c>
-      <c r="H69" s="1">
-        <v>1</v>
-      </c>
+      <c r="H69" s="1"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
@@ -2518,9 +2417,7 @@
       <c r="G70" s="3">
         <v>-90</v>
       </c>
-      <c r="H70" s="1">
-        <v>1</v>
-      </c>
+      <c r="H70" s="1"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
@@ -2540,9 +2437,7 @@
       <c r="G71" s="3">
         <v>-90</v>
       </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
+      <c r="H71" s="1"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
@@ -2562,9 +2457,7 @@
       <c r="G72" s="3">
         <v>-90</v>
       </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
@@ -2581,9 +2474,7 @@
       <c r="D73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
+      <c r="H73" s="1"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
@@ -2598,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="H74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
@@ -2619,9 +2510,7 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-      <c r="H75" s="1">
-        <v>1</v>
-      </c>
+      <c r="H75" s="1"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
@@ -2641,9 +2530,7 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="1">
-        <v>1</v>
-      </c>
+      <c r="H76" s="1"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
@@ -2658,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="H77" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
@@ -2679,9 +2566,7 @@
       <c r="G78" s="3">
         <v>90</v>
       </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
+      <c r="H78" s="1"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
@@ -2701,9 +2586,7 @@
       <c r="G79" s="3">
         <v>-90</v>
       </c>
-      <c r="H79" s="1">
-        <v>1</v>
-      </c>
+      <c r="H79" s="1"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
@@ -2723,9 +2606,7 @@
       <c r="G80" s="3">
         <v>-90</v>
       </c>
-      <c r="H80" s="1">
-        <v>1</v>
-      </c>
+      <c r="H80" s="1"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
@@ -2745,9 +2626,7 @@
       <c r="G81" s="3">
         <v>-90</v>
       </c>
-      <c r="H81" s="1">
-        <v>1</v>
-      </c>
+      <c r="H81" s="1"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
@@ -2764,9 +2643,7 @@
       <c r="D82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="1">
-        <v>1</v>
-      </c>
+      <c r="H82" s="1"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
@@ -2781,7 +2658,7 @@
         <v>21</v>
       </c>
       <c r="H83" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
@@ -2802,9 +2679,7 @@
       <c r="G84" s="3">
         <v>90</v>
       </c>
-      <c r="H84" s="1">
-        <v>1</v>
-      </c>
+      <c r="H84" s="1"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
@@ -2824,9 +2699,7 @@
       <c r="G85" s="3">
         <v>-90</v>
       </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
+      <c r="H85" s="1"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
@@ -2846,9 +2719,7 @@
       <c r="G86" s="3">
         <v>-90</v>
       </c>
-      <c r="H86" s="1">
-        <v>1</v>
-      </c>
+      <c r="H86" s="1"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
@@ -2865,9 +2736,7 @@
       <c r="D87" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H87" s="1">
-        <v>1</v>
-      </c>
+      <c r="H87" s="1"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
@@ -2882,7 +2751,7 @@
         <v>26</v>
       </c>
       <c r="H88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
@@ -2903,9 +2772,7 @@
       <c r="G89" s="2">
         <v>270</v>
       </c>
-      <c r="H89" s="1">
-        <v>1</v>
-      </c>
+      <c r="H89" s="1"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
@@ -2925,9 +2792,7 @@
       <c r="G90" s="4">
         <v>90</v>
       </c>
-      <c r="H90" s="1">
-        <v>1</v>
-      </c>
+      <c r="H90" s="1"/>
       <c r="I90" s="23"/>
       <c r="J90" s="24"/>
     </row>
@@ -2942,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I91" s="23"/>
       <c r="J91" s="24"/>
@@ -2959,9 +2824,6 @@
       </c>
       <c r="D92" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H92" s="4">
-        <v>1</v>
       </c>
       <c r="I92" s="23"/>
       <c r="J92" s="24"/>
@@ -3010,9 +2872,7 @@
       <c r="G95" s="4">
         <v>-180</v>
       </c>
-      <c r="H95" s="4">
-        <v>1</v>
-      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="23"/>
       <c r="J95" s="24"/>
     </row>
@@ -3027,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="H96" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="24"/>
@@ -3048,9 +2908,7 @@
       <c r="G97" s="4">
         <v>0</v>
       </c>
-      <c r="H97" s="4">
-        <v>1</v>
-      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="23"/>
       <c r="J97" s="24"/>
     </row>
@@ -3112,9 +2970,7 @@
       <c r="G101" s="4">
         <v>-180</v>
       </c>
-      <c r="H101" s="4">
-        <v>1</v>
-      </c>
+      <c r="H101" s="4"/>
       <c r="I101" s="23"/>
       <c r="J101" s="24"/>
     </row>
@@ -3129,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="H102" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" s="23"/>
       <c r="J102" s="24"/>
@@ -3150,9 +3006,7 @@
       <c r="G103" s="4">
         <v>0</v>
       </c>
-      <c r="H103" s="4">
-        <v>1</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="I103" s="23"/>
       <c r="J103" s="24"/>
     </row>
@@ -3172,9 +3026,7 @@
       <c r="G104" s="4">
         <v>180</v>
       </c>
-      <c r="H104" s="4">
-        <v>1</v>
-      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="23"/>
       <c r="J104" s="24"/>
     </row>
@@ -3189,7 +3041,7 @@
         <v>15</v>
       </c>
       <c r="H105" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105" s="23"/>
       <c r="J105" s="24"/>
@@ -3210,9 +3062,7 @@
       <c r="G106" s="4">
         <v>180</v>
       </c>
-      <c r="H106" s="4">
-        <v>1</v>
-      </c>
+      <c r="H106" s="4"/>
       <c r="I106" s="23"/>
       <c r="J106" s="24"/>
     </row>
@@ -3274,9 +3124,7 @@
       <c r="G110" s="4">
         <v>0</v>
       </c>
-      <c r="H110" s="4">
-        <v>1</v>
-      </c>
+      <c r="H110" s="4"/>
       <c r="I110" s="23"/>
       <c r="J110" s="24"/>
     </row>
@@ -3291,7 +3139,7 @@
         <v>21</v>
       </c>
       <c r="H111" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111" s="23"/>
       <c r="J111" s="24"/>
@@ -3308,9 +3156,6 @@
       </c>
       <c r="D112" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1</v>
       </c>
       <c r="I112" s="23"/>
       <c r="J112" s="24"/>
@@ -3359,9 +3204,7 @@
       <c r="G115" s="4">
         <v>-180</v>
       </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
+      <c r="H115" s="4"/>
       <c r="I115" s="23"/>
       <c r="J115" s="24"/>
     </row>
@@ -3376,7 +3219,7 @@
         <v>26</v>
       </c>
       <c r="H116" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I116" s="23"/>
       <c r="J116" s="24"/>
@@ -3397,9 +3240,7 @@
       <c r="G117" s="4">
         <v>270</v>
       </c>
-      <c r="H117" s="4">
-        <v>1</v>
-      </c>
+      <c r="H117" s="4"/>
       <c r="I117" s="23"/>
       <c r="J117" s="24"/>
     </row>
@@ -3419,9 +3260,7 @@
       <c r="G118" s="3">
         <v>90</v>
       </c>
-      <c r="H118" s="4">
-        <v>1</v>
-      </c>
+      <c r="H118" s="4"/>
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
@@ -3436,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
@@ -3457,9 +3296,7 @@
       <c r="G120" s="3">
         <v>180</v>
       </c>
-      <c r="H120" s="4">
-        <v>1</v>
-      </c>
+      <c r="H120" s="4"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
@@ -3479,9 +3316,7 @@
       <c r="G121" s="3">
         <v>-90</v>
       </c>
-      <c r="H121" s="4">
-        <v>1</v>
-      </c>
+      <c r="H121" s="4"/>
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
@@ -3501,9 +3336,7 @@
       <c r="G122" s="3">
         <v>-90</v>
       </c>
-      <c r="H122" s="4">
-        <v>1</v>
-      </c>
+      <c r="H122" s="4"/>
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
@@ -3523,9 +3356,7 @@
       <c r="G123" s="3">
         <v>-90</v>
       </c>
-      <c r="H123" s="4">
-        <v>1</v>
-      </c>
+      <c r="H123" s="4"/>
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
@@ -3540,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="H124" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
@@ -3561,9 +3392,7 @@
       <c r="G125" s="3">
         <v>180</v>
       </c>
-      <c r="H125" s="4">
-        <v>1</v>
-      </c>
+      <c r="H125" s="4"/>
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
@@ -3583,9 +3412,7 @@
       <c r="G126" s="3">
         <v>-90</v>
       </c>
-      <c r="H126" s="4">
-        <v>1</v>
-      </c>
+      <c r="H126" s="4"/>
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
@@ -3605,9 +3432,7 @@
       <c r="G127" s="3">
         <v>-90</v>
       </c>
-      <c r="H127" s="4">
-        <v>1</v>
-      </c>
+      <c r="H127" s="4"/>
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
@@ -3627,9 +3452,7 @@
       <c r="G128" s="3">
         <v>-90</v>
       </c>
-      <c r="H128" s="4">
-        <v>1</v>
-      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
@@ -3649,9 +3472,7 @@
       <c r="G129" s="3">
         <v>-90</v>
       </c>
-      <c r="H129" s="4">
-        <v>1</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
@@ -3666,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="H130" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
@@ -3687,9 +3508,7 @@
       <c r="G131" s="3">
         <v>180</v>
       </c>
-      <c r="H131" s="4">
-        <v>1</v>
-      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
@@ -3709,9 +3528,7 @@
       <c r="G132" s="3">
         <v>-90</v>
       </c>
-      <c r="H132" s="4">
-        <v>1</v>
-      </c>
+      <c r="H132" s="4"/>
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
@@ -3726,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="H133" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
@@ -3747,9 +3564,7 @@
       <c r="G134" s="3">
         <v>180</v>
       </c>
-      <c r="H134" s="4">
-        <v>1</v>
-      </c>
+      <c r="H134" s="4"/>
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
@@ -3769,9 +3584,7 @@
       <c r="G135" s="3">
         <v>-90</v>
       </c>
-      <c r="H135" s="4">
-        <v>1</v>
-      </c>
+      <c r="H135" s="4"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
@@ -3791,9 +3604,7 @@
       <c r="G136" s="3">
         <v>-90</v>
       </c>
-      <c r="H136" s="4">
-        <v>1</v>
-      </c>
+      <c r="H136" s="4"/>
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
@@ -3813,9 +3624,7 @@
       <c r="G137" s="3">
         <v>-90</v>
       </c>
-      <c r="H137" s="4">
-        <v>1</v>
-      </c>
+      <c r="H137" s="4"/>
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
@@ -3835,9 +3644,7 @@
       <c r="G138" s="3">
         <v>-90</v>
       </c>
-      <c r="H138" s="4">
-        <v>1</v>
-      </c>
+      <c r="H138" s="4"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
@@ -3852,7 +3659,7 @@
         <v>21</v>
       </c>
       <c r="H139" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
@@ -3873,9 +3680,7 @@
       <c r="G140" s="3">
         <v>180</v>
       </c>
-      <c r="H140" s="4">
-        <v>1</v>
-      </c>
+      <c r="H140" s="4"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
@@ -3895,9 +3700,7 @@
       <c r="G141" s="3">
         <v>-90</v>
       </c>
-      <c r="H141" s="4">
-        <v>1</v>
-      </c>
+      <c r="H141" s="4"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
@@ -3917,9 +3720,7 @@
       <c r="G142" s="3">
         <v>-90</v>
       </c>
-      <c r="H142" s="4">
-        <v>1</v>
-      </c>
+      <c r="H142" s="4"/>
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
@@ -3939,9 +3740,7 @@
       <c r="G143" s="3">
         <v>-90</v>
       </c>
-      <c r="H143" s="4">
-        <v>1</v>
-      </c>
+      <c r="H143" s="4"/>
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
@@ -3956,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="H144" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
@@ -3977,9 +3776,7 @@
       <c r="G145" s="2">
         <v>270</v>
       </c>
-      <c r="H145" s="3">
-        <v>1</v>
-      </c>
+      <c r="H145" s="3"/>
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
@@ -4001,9 +3798,7 @@
       <c r="G146" s="3">
         <v>90</v>
       </c>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
+      <c r="H146" s="3"/>
       <c r="I146" s="23"/>
       <c r="J146" s="24"/>
     </row>
@@ -4018,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147" s="23"/>
       <c r="J147" s="24"/>
@@ -4034,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" s="24"/>
@@ -4050,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="H149" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149" s="23"/>
       <c r="J149" s="24"/>
@@ -4066,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="H150" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150" s="23"/>
       <c r="J150" s="24"/>
@@ -4082,7 +3877,7 @@
         <v>5</v>
       </c>
       <c r="H151" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151" s="23"/>
       <c r="J151" s="24"/>
@@ -4098,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="H152" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152" s="23"/>
       <c r="J152" s="24"/>
@@ -4114,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="H153" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153" s="23"/>
       <c r="J153" s="24"/>
@@ -4130,7 +3925,7 @@
         <v>8</v>
       </c>
       <c r="H154" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154" s="23"/>
       <c r="J154" s="24"/>
@@ -4146,7 +3941,7 @@
         <v>9</v>
       </c>
       <c r="H155" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155" s="23"/>
       <c r="J155" s="24"/>
@@ -4162,7 +3957,7 @@
         <v>10</v>
       </c>
       <c r="H156" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I156" s="23"/>
       <c r="J156" s="24"/>
@@ -4178,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="H157" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I157" s="23"/>
       <c r="J157" s="24"/>
@@ -4194,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="H158" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I158" s="23"/>
       <c r="J158" s="24"/>
@@ -4210,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="H159" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I159" s="23"/>
       <c r="J159" s="24"/>
@@ -4226,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="H160" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I160" s="23"/>
       <c r="J160" s="24"/>
@@ -4242,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="H161" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I161" s="23"/>
       <c r="J161" s="24"/>
@@ -4258,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="H162" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I162" s="23"/>
       <c r="J162" s="24"/>
@@ -4274,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="H163" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I163" s="23"/>
       <c r="J163" s="24"/>
@@ -4289,8 +4084,8 @@
       <c r="C164" s="21">
         <v>18</v>
       </c>
-      <c r="H164" s="4">
-        <v>1</v>
+      <c r="H164" s="3">
+        <v>3</v>
       </c>
       <c r="I164" s="23"/>
       <c r="J164" s="24"/>
@@ -4305,8 +4100,8 @@
       <c r="C165" s="21">
         <v>19</v>
       </c>
-      <c r="H165" s="4">
-        <v>1</v>
+      <c r="H165" s="3">
+        <v>3</v>
       </c>
       <c r="I165" s="23"/>
       <c r="J165" s="24"/>
@@ -4321,8 +4116,8 @@
       <c r="C166" s="21">
         <v>20</v>
       </c>
-      <c r="H166" s="4">
-        <v>1</v>
+      <c r="H166" s="3">
+        <v>3</v>
       </c>
       <c r="I166" s="23"/>
       <c r="J166" s="24"/>
@@ -4337,8 +4132,8 @@
       <c r="C167" s="21">
         <v>21</v>
       </c>
-      <c r="H167" s="4">
-        <v>1</v>
+      <c r="H167" s="3">
+        <v>3</v>
       </c>
       <c r="I167" s="23"/>
       <c r="J167" s="24"/>
@@ -4353,8 +4148,8 @@
       <c r="C168" s="21">
         <v>22</v>
       </c>
-      <c r="H168" s="4">
-        <v>1</v>
+      <c r="H168" s="3">
+        <v>3</v>
       </c>
       <c r="I168" s="23"/>
       <c r="J168" s="24"/>
@@ -4369,8 +4164,8 @@
       <c r="C169" s="21">
         <v>23</v>
       </c>
-      <c r="H169" s="4">
-        <v>1</v>
+      <c r="H169" s="3">
+        <v>3</v>
       </c>
       <c r="I169" s="23"/>
       <c r="J169" s="24"/>
@@ -4385,8 +4180,8 @@
       <c r="C170" s="21">
         <v>24</v>
       </c>
-      <c r="H170" s="4">
-        <v>1</v>
+      <c r="H170" s="3">
+        <v>3</v>
       </c>
       <c r="I170" s="23"/>
       <c r="J170" s="24"/>
@@ -4401,8 +4196,8 @@
       <c r="C171" s="21">
         <v>25</v>
       </c>
-      <c r="H171" s="4">
-        <v>1</v>
+      <c r="H171" s="3">
+        <v>3</v>
       </c>
       <c r="I171" s="23"/>
       <c r="J171" s="24"/>
@@ -4417,8 +4212,8 @@
       <c r="C172" s="21">
         <v>26</v>
       </c>
-      <c r="H172" s="4">
-        <v>1</v>
+      <c r="H172" s="3">
+        <v>3</v>
       </c>
       <c r="I172" s="23"/>
       <c r="J172" s="24"/>
@@ -4441,9 +4236,7 @@
       <c r="G173" s="2">
         <v>270</v>
       </c>
-      <c r="H173" s="4">
-        <v>1</v>
-      </c>
+      <c r="H173" s="4"/>
       <c r="I173" s="23"/>
       <c r="J173" s="24"/>
     </row>
@@ -4463,9 +4256,7 @@
       <c r="G174" s="3">
         <v>90</v>
       </c>
-      <c r="H174" s="4">
-        <v>1</v>
-      </c>
+      <c r="H174" s="4"/>
       <c r="I174" s="19"/>
       <c r="J174" s="20"/>
     </row>
@@ -4480,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175" s="19"/>
       <c r="J175" s="20"/>
@@ -4501,9 +4292,7 @@
       <c r="G176" s="3">
         <v>90</v>
       </c>
-      <c r="H176" s="4">
-        <v>1</v>
-      </c>
+      <c r="H176" s="4"/>
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
@@ -4523,9 +4312,7 @@
       <c r="G177" s="3">
         <v>-90</v>
       </c>
-      <c r="H177" s="4">
-        <v>1</v>
-      </c>
+      <c r="H177" s="4"/>
       <c r="I177" s="19"/>
       <c r="J177" s="20"/>
     </row>
@@ -4545,9 +4332,7 @@
       <c r="G178" s="3">
         <v>-90</v>
       </c>
-      <c r="H178" s="4">
-        <v>1</v>
-      </c>
+      <c r="H178" s="4"/>
       <c r="I178" s="19"/>
       <c r="J178" s="20"/>
     </row>
@@ -4564,9 +4349,7 @@
       <c r="D179" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H179" s="4">
-        <v>1</v>
-      </c>
+      <c r="H179" s="4"/>
       <c r="I179" s="19"/>
       <c r="J179" s="20"/>
     </row>
@@ -4581,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="H180" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180" s="19"/>
       <c r="J180" s="20"/>
@@ -4602,9 +4385,7 @@
       <c r="G181" s="3">
         <v>90</v>
       </c>
-      <c r="H181" s="4">
-        <v>1</v>
-      </c>
+      <c r="H181" s="4"/>
       <c r="I181" s="19"/>
       <c r="J181" s="20"/>
     </row>
@@ -4621,9 +4402,7 @@
       <c r="D182" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H182" s="4">
-        <v>1</v>
-      </c>
+      <c r="H182" s="4"/>
       <c r="I182" s="19"/>
       <c r="J182" s="20"/>
     </row>
@@ -4638,7 +4417,7 @@
         <v>9</v>
       </c>
       <c r="H183" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
@@ -4659,9 +4438,7 @@
       <c r="G184" s="3">
         <v>90</v>
       </c>
-      <c r="H184" s="4">
-        <v>1</v>
-      </c>
+      <c r="H184" s="4"/>
       <c r="I184" s="19"/>
       <c r="J184" s="20"/>
     </row>
@@ -4681,9 +4458,7 @@
       <c r="G185" s="3">
         <v>-90</v>
       </c>
-      <c r="H185" s="4">
-        <v>1</v>
-      </c>
+      <c r="H185" s="4"/>
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
@@ -4703,9 +4478,7 @@
       <c r="G186" s="3">
         <v>-90</v>
       </c>
-      <c r="H186" s="4">
-        <v>1</v>
-      </c>
+      <c r="H186" s="4"/>
       <c r="I186" s="19"/>
       <c r="J186" s="20"/>
     </row>
@@ -4725,9 +4498,7 @@
       <c r="G187" s="3">
         <v>-90</v>
       </c>
-      <c r="H187" s="4">
-        <v>1</v>
-      </c>
+      <c r="H187" s="4"/>
       <c r="I187" s="19"/>
       <c r="J187" s="20"/>
     </row>
@@ -4747,9 +4518,7 @@
       <c r="G188" s="3">
         <v>-90</v>
       </c>
-      <c r="H188" s="4">
-        <v>1</v>
-      </c>
+      <c r="H188" s="4"/>
       <c r="I188" s="19"/>
       <c r="J188" s="20"/>
     </row>
@@ -4769,9 +4538,7 @@
       <c r="G189" s="3">
         <v>-90</v>
       </c>
-      <c r="H189" s="4">
-        <v>1</v>
-      </c>
+      <c r="H189" s="4"/>
       <c r="I189" s="19"/>
       <c r="J189" s="20"/>
     </row>
@@ -4791,9 +4558,7 @@
       <c r="G190" s="3">
         <v>-90</v>
       </c>
-      <c r="H190" s="4">
-        <v>1</v>
-      </c>
+      <c r="H190" s="4"/>
       <c r="I190" s="19"/>
       <c r="J190" s="20"/>
     </row>
@@ -4810,9 +4575,7 @@
       <c r="D191" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H191" s="4">
-        <v>1</v>
-      </c>
+      <c r="H191" s="4"/>
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
@@ -4827,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="H192" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="20"/>
@@ -4848,9 +4611,7 @@
       <c r="G193" s="3">
         <v>90</v>
       </c>
-      <c r="H193" s="4">
-        <v>1</v>
-      </c>
+      <c r="H193" s="4"/>
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
@@ -4867,9 +4628,7 @@
       <c r="D194" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H194" s="4">
-        <v>1</v>
-      </c>
+      <c r="H194" s="4"/>
       <c r="I194" s="19"/>
       <c r="J194" s="20"/>
     </row>
@@ -4884,7 +4643,7 @@
         <v>21</v>
       </c>
       <c r="H195" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="20"/>
@@ -4905,9 +4664,7 @@
       <c r="G196" s="3">
         <v>90</v>
       </c>
-      <c r="H196" s="4">
-        <v>1</v>
-      </c>
+      <c r="H196" s="4"/>
       <c r="I196" s="19"/>
       <c r="J196" s="20"/>
     </row>
@@ -4927,9 +4684,7 @@
       <c r="G197" s="3">
         <v>-90</v>
       </c>
-      <c r="H197" s="4">
-        <v>1</v>
-      </c>
+      <c r="H197" s="4"/>
       <c r="I197" s="19"/>
       <c r="J197" s="20"/>
     </row>
@@ -4949,9 +4704,7 @@
       <c r="G198" s="3">
         <v>-90</v>
       </c>
-      <c r="H198" s="4">
-        <v>1</v>
-      </c>
+      <c r="H198" s="4"/>
       <c r="I198" s="19"/>
       <c r="J198" s="20"/>
     </row>
@@ -4968,9 +4721,7 @@
       <c r="D199" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H199" s="4">
-        <v>1</v>
-      </c>
+      <c r="H199" s="4"/>
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
@@ -4985,7 +4736,7 @@
         <v>26</v>
       </c>
       <c r="H200" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I200" s="19"/>
       <c r="J200" s="20"/>
@@ -5006,9 +4757,7 @@
       <c r="G201" s="3">
         <v>270</v>
       </c>
-      <c r="H201" s="4">
-        <v>1</v>
-      </c>
+      <c r="H201" s="4"/>
       <c r="I201" s="19"/>
       <c r="J201" s="20"/>
     </row>
@@ -5028,9 +4777,7 @@
       <c r="G202" s="2">
         <v>90</v>
       </c>
-      <c r="H202" s="4">
-        <v>1</v>
-      </c>
+      <c r="H202" s="4"/>
       <c r="I202" s="17"/>
       <c r="J202" s="18"/>
     </row>
@@ -5045,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="H203" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="18"/>
@@ -5066,9 +4813,7 @@
       <c r="G204" s="2">
         <v>180</v>
       </c>
-      <c r="H204" s="4">
-        <v>1</v>
-      </c>
+      <c r="H204" s="4"/>
       <c r="I204" s="17"/>
       <c r="J204" s="18"/>
     </row>
@@ -5088,9 +4833,7 @@
       <c r="G205" s="2">
         <v>-90</v>
       </c>
-      <c r="H205" s="4">
-        <v>1</v>
-      </c>
+      <c r="H205" s="4"/>
       <c r="I205" s="17"/>
       <c r="J205" s="18"/>
     </row>
@@ -5110,9 +4853,7 @@
       <c r="G206" s="2">
         <v>-90</v>
       </c>
-      <c r="H206" s="4">
-        <v>1</v>
-      </c>
+      <c r="H206" s="4"/>
       <c r="I206" s="17"/>
       <c r="J206" s="18"/>
     </row>
@@ -5132,9 +4873,7 @@
       <c r="G207" s="2">
         <v>-90</v>
       </c>
-      <c r="H207" s="4">
-        <v>1</v>
-      </c>
+      <c r="H207" s="4"/>
       <c r="I207" s="17"/>
       <c r="J207" s="18"/>
     </row>
@@ -5149,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="H208" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="18"/>
@@ -5167,9 +4906,7 @@
       <c r="D209" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H209" s="4">
-        <v>1</v>
-      </c>
+      <c r="H209" s="4"/>
       <c r="I209" s="17"/>
       <c r="J209" s="18"/>
     </row>
@@ -5189,9 +4926,7 @@
       <c r="G210" s="2">
         <v>180</v>
       </c>
-      <c r="H210" s="4">
-        <v>1</v>
-      </c>
+      <c r="H210" s="4"/>
       <c r="I210" s="17"/>
       <c r="J210" s="18"/>
     </row>
@@ -5206,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="H211" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211" s="17"/>
       <c r="J211" s="18"/>
@@ -5227,9 +4962,7 @@
       <c r="G212" s="2">
         <v>180</v>
       </c>
-      <c r="H212" s="4">
-        <v>1</v>
-      </c>
+      <c r="H212" s="4"/>
       <c r="I212" s="17"/>
       <c r="J212" s="18"/>
     </row>
@@ -5249,9 +4982,7 @@
       <c r="G213" s="2">
         <v>-90</v>
       </c>
-      <c r="H213" s="4">
-        <v>1</v>
-      </c>
+      <c r="H213" s="4"/>
       <c r="I213" s="17"/>
       <c r="J213" s="18"/>
     </row>
@@ -5271,9 +5002,7 @@
       <c r="G214" s="2">
         <v>-90</v>
       </c>
-      <c r="H214" s="4">
-        <v>1</v>
-      </c>
+      <c r="H214" s="4"/>
       <c r="I214" s="17"/>
       <c r="J214" s="18"/>
     </row>
@@ -5291,7 +5020,7 @@
         <v>25</v>
       </c>
       <c r="H215" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I215" s="17"/>
       <c r="J215" s="18"/>
@@ -5312,9 +5041,7 @@
       <c r="G216" s="2">
         <v>90</v>
       </c>
-      <c r="H216" s="4">
-        <v>1</v>
-      </c>
+      <c r="H216" s="4"/>
       <c r="I216" s="17"/>
       <c r="J216" s="18"/>
     </row>
@@ -5334,9 +5061,7 @@
       <c r="G217" s="2">
         <v>-90</v>
       </c>
-      <c r="H217" s="4">
-        <v>1</v>
-      </c>
+      <c r="H217" s="4"/>
       <c r="I217" s="17"/>
       <c r="J217" s="18"/>
     </row>
@@ -5356,9 +5081,7 @@
       <c r="G218" s="2">
         <v>-90</v>
       </c>
-      <c r="H218" s="4">
-        <v>1</v>
-      </c>
+      <c r="H218" s="4"/>
       <c r="I218" s="17"/>
       <c r="J218" s="18"/>
     </row>
@@ -5378,9 +5101,7 @@
       <c r="G219" s="2">
         <v>-90</v>
       </c>
-      <c r="H219" s="4">
-        <v>1</v>
-      </c>
+      <c r="H219" s="4"/>
       <c r="I219" s="17"/>
       <c r="J219" s="18"/>
     </row>
@@ -5395,7 +5116,7 @@
         <v>18</v>
       </c>
       <c r="H220" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="18"/>
@@ -5416,9 +5137,7 @@
       <c r="G221" s="2">
         <v>0</v>
       </c>
-      <c r="H221" s="4">
-        <v>1</v>
-      </c>
+      <c r="H221" s="4"/>
       <c r="I221" s="17"/>
       <c r="J221" s="18"/>
     </row>
@@ -5438,9 +5157,7 @@
       <c r="G222" s="2">
         <v>180</v>
       </c>
-      <c r="H222" s="4">
-        <v>1</v>
-      </c>
+      <c r="H222" s="4"/>
       <c r="I222" s="17"/>
       <c r="J222" s="18"/>
     </row>
@@ -5455,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="H223" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I223" s="17"/>
       <c r="J223" s="18"/>
@@ -5476,9 +5193,7 @@
       <c r="G224" s="2">
         <v>180</v>
       </c>
-      <c r="H224" s="4">
-        <v>1</v>
-      </c>
+      <c r="H224" s="4"/>
       <c r="I224" s="17"/>
       <c r="J224" s="18"/>
     </row>
@@ -5498,9 +5213,7 @@
       <c r="G225" s="2">
         <v>-90</v>
       </c>
-      <c r="H225" s="4">
-        <v>1</v>
-      </c>
+      <c r="H225" s="4"/>
       <c r="I225" s="17"/>
       <c r="J225" s="18"/>
     </row>
@@ -5520,9 +5233,7 @@
       <c r="G226" s="2">
         <v>-90</v>
       </c>
-      <c r="H226" s="4">
-        <v>1</v>
-      </c>
+      <c r="H226" s="4"/>
       <c r="I226" s="17"/>
       <c r="J226" s="18"/>
     </row>
@@ -5542,9 +5253,7 @@
       <c r="G227" s="2">
         <v>-90</v>
       </c>
-      <c r="H227" s="4">
-        <v>1</v>
-      </c>
+      <c r="H227" s="4"/>
       <c r="I227" s="17"/>
       <c r="J227" s="18"/>
     </row>
@@ -5559,7 +5268,7 @@
         <v>26</v>
       </c>
       <c r="H228" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I228" s="17"/>
       <c r="J228" s="18"/>
@@ -5580,9 +5289,7 @@
       <c r="G229" s="2">
         <v>270</v>
       </c>
-      <c r="H229" s="4">
-        <v>1</v>
-      </c>
+      <c r="H229" s="4"/>
       <c r="I229" s="17"/>
       <c r="J229" s="18"/>
     </row>
@@ -5602,9 +5309,7 @@
       <c r="G230" s="1">
         <v>90</v>
       </c>
-      <c r="H230" s="4">
-        <v>1</v>
-      </c>
+      <c r="H230" s="4"/>
       <c r="I230" s="15"/>
       <c r="J230" s="16"/>
     </row>
@@ -5619,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="H231" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="16"/>
@@ -5635,7 +5340,7 @@
         <v>2</v>
       </c>
       <c r="H232" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I232" s="15"/>
       <c r="J232" s="16"/>
@@ -5651,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="H233" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I233" s="15"/>
       <c r="J233" s="16"/>
@@ -5667,7 +5372,7 @@
         <v>4</v>
       </c>
       <c r="H234" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="16"/>
@@ -5683,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="H235" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235" s="15"/>
       <c r="J235" s="16"/>
@@ -5699,7 +5404,7 @@
         <v>6</v>
       </c>
       <c r="H236" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="16"/>
@@ -5717,9 +5422,7 @@
       <c r="D237" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H237" s="4">
-        <v>1</v>
-      </c>
+      <c r="H237" s="4"/>
       <c r="I237" s="15"/>
       <c r="J237" s="16"/>
     </row>
@@ -5739,9 +5442,7 @@
       <c r="G238" s="1">
         <v>180</v>
       </c>
-      <c r="H238" s="4">
-        <v>1</v>
-      </c>
+      <c r="H238" s="4"/>
       <c r="I238" s="15"/>
       <c r="J238" s="16"/>
     </row>
@@ -5756,7 +5457,7 @@
         <v>9</v>
       </c>
       <c r="H239" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="16"/>
@@ -5772,7 +5473,7 @@
         <v>10</v>
       </c>
       <c r="H240" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240" s="15"/>
       <c r="J240" s="16"/>
@@ -5788,7 +5489,7 @@
         <v>11</v>
       </c>
       <c r="H241" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241" s="15"/>
       <c r="J241" s="16"/>
@@ -5804,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="H242" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242" s="15"/>
       <c r="J242" s="16"/>
@@ -5822,9 +5523,7 @@
       <c r="D243" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="4">
-        <v>1</v>
-      </c>
+      <c r="H243" s="4"/>
       <c r="I243" s="15"/>
       <c r="J243" s="16"/>
     </row>
@@ -5841,9 +5540,7 @@
       <c r="D244" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H244" s="4">
-        <v>1</v>
-      </c>
+      <c r="H244" s="4"/>
       <c r="I244" s="15"/>
       <c r="J244" s="16"/>
     </row>
@@ -5858,7 +5555,7 @@
         <v>15</v>
       </c>
       <c r="H245" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="16"/>
@@ -5874,7 +5571,7 @@
         <v>16</v>
       </c>
       <c r="H246" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I246" s="15"/>
       <c r="J246" s="16"/>
@@ -5890,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="H247" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I247" s="15"/>
       <c r="J247" s="16"/>
@@ -5906,7 +5603,7 @@
         <v>18</v>
       </c>
       <c r="H248" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I248" s="15"/>
       <c r="J248" s="16"/>
@@ -5924,9 +5621,7 @@
       <c r="D249" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H249" s="4">
-        <v>1</v>
-      </c>
+      <c r="H249" s="4"/>
       <c r="I249" s="15"/>
       <c r="J249" s="16"/>
     </row>
@@ -5943,9 +5638,7 @@
       <c r="D250" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H250" s="4">
-        <v>1</v>
-      </c>
+      <c r="H250" s="4"/>
       <c r="I250" s="15"/>
       <c r="J250" s="16"/>
     </row>
@@ -5960,7 +5653,7 @@
         <v>21</v>
       </c>
       <c r="H251" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251" s="15"/>
       <c r="J251" s="16"/>
@@ -5976,7 +5669,7 @@
         <v>22</v>
       </c>
       <c r="H252" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="16"/>
@@ -5992,7 +5685,7 @@
         <v>23</v>
       </c>
       <c r="H253" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="16"/>
@@ -6008,7 +5701,7 @@
         <v>24</v>
       </c>
       <c r="H254" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I254" s="15"/>
       <c r="J254" s="16"/>
@@ -6024,7 +5717,7 @@
         <v>25</v>
       </c>
       <c r="H255" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I255" s="15"/>
       <c r="J255" s="16"/>
@@ -6040,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="H256" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I256" s="15"/>
       <c r="J256" s="16"/>
@@ -6061,9 +5754,7 @@
       <c r="G257" s="1">
         <v>270</v>
       </c>
-      <c r="H257" s="4">
-        <v>1</v>
-      </c>
+      <c r="H257" s="4"/>
       <c r="I257" s="15"/>
       <c r="J257" s="16"/>
     </row>
@@ -6083,9 +5774,7 @@
       <c r="G258" s="2">
         <v>-180</v>
       </c>
-      <c r="H258" s="4">
-        <v>1</v>
-      </c>
+      <c r="H258" s="4"/>
       <c r="I258" s="17"/>
       <c r="J258" s="18"/>
     </row>
@@ -6105,9 +5794,7 @@
       <c r="G259" s="2">
         <v>180</v>
       </c>
-      <c r="H259" s="4">
-        <v>1</v>
-      </c>
+      <c r="H259" s="4"/>
       <c r="I259" s="17"/>
       <c r="J259" s="18"/>
     </row>
@@ -6127,9 +5814,7 @@
       <c r="G260" s="2">
         <v>180</v>
       </c>
-      <c r="H260" s="4">
-        <v>1</v>
-      </c>
+      <c r="H260" s="4"/>
       <c r="I260" s="17"/>
       <c r="J260" s="18"/>
     </row>
@@ -6149,9 +5834,7 @@
       <c r="G261" s="2">
         <v>180</v>
       </c>
-      <c r="H261" s="4">
-        <v>1</v>
-      </c>
+      <c r="H261" s="4"/>
       <c r="I261" s="17"/>
       <c r="J261" s="18"/>
     </row>
@@ -6171,9 +5854,7 @@
       <c r="G262" s="2">
         <v>180</v>
       </c>
-      <c r="H262" s="4">
-        <v>1</v>
-      </c>
+      <c r="H262" s="4"/>
       <c r="I262" s="17"/>
       <c r="J262" s="18"/>
     </row>
@@ -6193,9 +5874,7 @@
       <c r="G263" s="2">
         <v>-90</v>
       </c>
-      <c r="H263" s="4">
-        <v>1</v>
-      </c>
+      <c r="H263" s="4"/>
       <c r="I263" s="17"/>
       <c r="J263" s="18"/>
     </row>
@@ -6210,7 +5889,7 @@
         <v>6</v>
       </c>
       <c r="H264" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264" s="17"/>
       <c r="J264" s="18"/>
@@ -6228,9 +5907,7 @@
       <c r="D265" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H265" s="4">
-        <v>1</v>
-      </c>
+      <c r="H265" s="4"/>
       <c r="I265" s="17"/>
       <c r="J265" s="18"/>
     </row>
@@ -6250,9 +5927,7 @@
       <c r="G266" s="2">
         <v>180</v>
       </c>
-      <c r="H266" s="4">
-        <v>1</v>
-      </c>
+      <c r="H266" s="4"/>
       <c r="I266" s="17"/>
       <c r="J266" s="18"/>
     </row>
@@ -6272,9 +5947,7 @@
       <c r="G267" s="2">
         <v>90</v>
       </c>
-      <c r="H267" s="4">
-        <v>1</v>
-      </c>
+      <c r="H267" s="4"/>
       <c r="I267" s="17"/>
       <c r="J267" s="18"/>
     </row>
@@ -6294,9 +5967,7 @@
       <c r="G268" s="2">
         <v>90</v>
       </c>
-      <c r="H268" s="4">
-        <v>1</v>
-      </c>
+      <c r="H268" s="4"/>
       <c r="I268" s="17"/>
       <c r="J268" s="18"/>
     </row>
@@ -6313,9 +5984,7 @@
       <c r="D269" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H269" s="4">
-        <v>1</v>
-      </c>
+      <c r="H269" s="4"/>
       <c r="I269" s="17"/>
       <c r="J269" s="18"/>
     </row>
@@ -6346,9 +6015,7 @@
       <c r="D271" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H271" s="4">
-        <v>1</v>
-      </c>
+      <c r="H271" s="4"/>
       <c r="I271" s="17"/>
       <c r="J271" s="18"/>
     </row>
@@ -6365,9 +6032,7 @@
       <c r="D272" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H272" s="4">
-        <v>1</v>
-      </c>
+      <c r="H272" s="4"/>
       <c r="I272" s="17"/>
       <c r="J272" s="18"/>
     </row>
@@ -6401,9 +6066,7 @@
       <c r="G274" s="2">
         <v>90</v>
       </c>
-      <c r="H274" s="2">
-        <v>1</v>
-      </c>
+      <c r="H274" s="2"/>
       <c r="I274" s="17"/>
       <c r="J274" s="18"/>
     </row>
@@ -6423,9 +6086,7 @@
       <c r="G275" s="2">
         <v>90</v>
       </c>
-      <c r="H275" s="2">
-        <v>1</v>
-      </c>
+      <c r="H275" s="2"/>
       <c r="I275" s="17"/>
       <c r="J275" s="18"/>
     </row>
@@ -6445,9 +6106,7 @@
       <c r="G276" s="2">
         <v>90</v>
       </c>
-      <c r="H276" s="2">
-        <v>1</v>
-      </c>
+      <c r="H276" s="2"/>
       <c r="I276" s="17"/>
       <c r="J276" s="18"/>
     </row>
@@ -6467,9 +6126,7 @@
       <c r="G277" s="2">
         <v>-90</v>
       </c>
-      <c r="H277" s="2">
-        <v>1</v>
-      </c>
+      <c r="H277" s="2"/>
       <c r="I277" s="17"/>
       <c r="J277" s="18"/>
     </row>
@@ -6486,9 +6143,6 @@
       <c r="D278" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H278" s="2">
-        <v>1</v>
-      </c>
       <c r="I278" s="17"/>
       <c r="J278" s="18"/>
     </row>
@@ -6503,7 +6157,7 @@
         <v>21</v>
       </c>
       <c r="H279" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I279" s="17"/>
       <c r="J279" s="18"/>
@@ -6521,9 +6175,6 @@
       <c r="D280" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H280" s="2">
-        <v>1</v>
-      </c>
       <c r="I280" s="17"/>
       <c r="J280" s="18"/>
     </row>
@@ -6543,9 +6194,7 @@
       <c r="G281" s="2">
         <v>180</v>
       </c>
-      <c r="H281" s="2">
-        <v>1</v>
-      </c>
+      <c r="H281" s="2"/>
       <c r="I281" s="17"/>
       <c r="J281" s="18"/>
     </row>
@@ -6565,9 +6214,7 @@
       <c r="G282" s="2">
         <v>180</v>
       </c>
-      <c r="H282" s="2">
-        <v>1</v>
-      </c>
+      <c r="H282" s="2"/>
       <c r="I282" s="17"/>
       <c r="J282" s="18"/>
     </row>
@@ -6587,9 +6234,7 @@
       <c r="G283" s="2">
         <v>180</v>
       </c>
-      <c r="H283" s="2">
-        <v>1</v>
-      </c>
+      <c r="H283" s="2"/>
       <c r="I283" s="17"/>
       <c r="J283" s="18"/>
     </row>
@@ -6609,9 +6254,7 @@
       <c r="G284" s="2">
         <v>180</v>
       </c>
-      <c r="H284" s="2">
-        <v>1</v>
-      </c>
+      <c r="H284" s="2"/>
       <c r="I284" s="17"/>
       <c r="J284" s="18"/>
     </row>
@@ -6631,9 +6274,7 @@
       <c r="G285" s="2">
         <v>-90</v>
       </c>
-      <c r="H285" s="2">
-        <v>1</v>
-      </c>
+      <c r="H285" s="2"/>
       <c r="I285" s="17"/>
       <c r="J285" s="18"/>
     </row>
@@ -6718,9 +6359,7 @@
       <c r="G291" s="3">
         <v>90</v>
       </c>
-      <c r="H291" s="3">
-        <v>1</v>
-      </c>
+      <c r="H291" s="3"/>
       <c r="I291" s="19"/>
       <c r="J291" s="20"/>
     </row>
@@ -6735,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="H292" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I292" s="19"/>
       <c r="J292" s="20"/>
@@ -6753,9 +6392,6 @@
       <c r="D293" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="3">
-        <v>1</v>
-      </c>
       <c r="I293" s="19"/>
       <c r="J293" s="20"/>
     </row>
@@ -6775,9 +6411,7 @@
       <c r="G294" s="3">
         <v>90</v>
       </c>
-      <c r="H294" s="3">
-        <v>1</v>
-      </c>
+      <c r="H294" s="3"/>
       <c r="I294" s="19"/>
       <c r="J294" s="20"/>
     </row>
@@ -6797,9 +6431,7 @@
       <c r="G295" s="3">
         <v>90</v>
       </c>
-      <c r="H295" s="3">
-        <v>1</v>
-      </c>
+      <c r="H295" s="3"/>
       <c r="I295" s="19"/>
       <c r="J295" s="20"/>
     </row>
@@ -6819,9 +6451,7 @@
       <c r="G296" s="3">
         <v>90</v>
       </c>
-      <c r="H296" s="3">
-        <v>1</v>
-      </c>
+      <c r="H296" s="3"/>
       <c r="I296" s="19"/>
       <c r="J296" s="20"/>
     </row>
@@ -6841,9 +6471,7 @@
       <c r="G297" s="3">
         <v>-90</v>
       </c>
-      <c r="H297" s="3">
-        <v>1</v>
-      </c>
+      <c r="H297" s="3"/>
       <c r="I297" s="19"/>
       <c r="J297" s="20"/>
     </row>
@@ -6876,9 +6504,7 @@
       <c r="G299" s="3">
         <v>-180</v>
       </c>
-      <c r="H299" s="3">
-        <v>1</v>
-      </c>
+      <c r="H299" s="3"/>
       <c r="I299" s="19"/>
       <c r="J299" s="20"/>
     </row>
@@ -6898,9 +6524,7 @@
       <c r="G300" s="3">
         <v>-90</v>
       </c>
-      <c r="H300" s="3">
-        <v>1</v>
-      </c>
+      <c r="H300" s="3"/>
       <c r="I300" s="19"/>
       <c r="J300" s="20"/>
     </row>
@@ -6933,9 +6557,7 @@
       <c r="G302" s="3">
         <v>180</v>
       </c>
-      <c r="H302" s="3">
-        <v>1</v>
-      </c>
+      <c r="H302" s="3"/>
       <c r="I302" s="19"/>
       <c r="J302" s="20"/>
     </row>
@@ -6955,9 +6577,7 @@
       <c r="G303" s="3">
         <v>90</v>
       </c>
-      <c r="H303" s="3">
-        <v>1</v>
-      </c>
+      <c r="H303" s="3"/>
       <c r="I303" s="19"/>
       <c r="J303" s="20"/>
     </row>
@@ -6977,9 +6597,7 @@
       <c r="G304" s="3">
         <v>90</v>
       </c>
-      <c r="H304" s="3">
-        <v>1</v>
-      </c>
+      <c r="H304" s="3"/>
       <c r="I304" s="19"/>
       <c r="J304" s="20"/>
     </row>
@@ -6996,9 +6614,6 @@
       <c r="D305" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H305" s="3">
-        <v>1</v>
-      </c>
       <c r="I305" s="19"/>
       <c r="J305" s="20"/>
     </row>
@@ -7015,9 +6630,6 @@
       <c r="D306" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H306" s="3">
-        <v>1</v>
-      </c>
       <c r="I306" s="19"/>
       <c r="J306" s="20"/>
     </row>
@@ -7032,7 +6644,7 @@
         <v>21</v>
       </c>
       <c r="H307" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I307" s="19"/>
       <c r="J307" s="20"/>
@@ -7053,9 +6665,7 @@
       <c r="G308" s="3">
         <v>-90</v>
       </c>
-      <c r="H308" s="3">
-        <v>1</v>
-      </c>
+      <c r="H308" s="3"/>
       <c r="I308" s="19"/>
       <c r="J308" s="20"/>
     </row>
@@ -7210,9 +6820,7 @@
       <c r="G319" s="4">
         <v>90</v>
       </c>
-      <c r="H319" s="4">
-        <v>1</v>
-      </c>
+      <c r="H319" s="4"/>
       <c r="I319" s="23"/>
       <c r="J319" s="24"/>
     </row>
@@ -7227,7 +6835,7 @@
         <v>6</v>
       </c>
       <c r="H320" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I320" s="23"/>
       <c r="J320" s="24"/>
@@ -7245,9 +6853,6 @@
       <c r="D321" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H321" s="4">
-        <v>1</v>
-      </c>
       <c r="I321" s="23"/>
       <c r="J321" s="24"/>
     </row>
@@ -7263,9 +6868,6 @@
       </c>
       <c r="D322" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H322" s="4">
-        <v>1</v>
       </c>
       <c r="I322" s="23"/>
       <c r="J322" s="24"/>
@@ -7336,9 +6938,6 @@
       <c r="C327" s="4">
         <v>13</v>
       </c>
-      <c r="H327" s="4">
-        <v>32</v>
-      </c>
       <c r="I327" s="23"/>
       <c r="J327" s="24"/>
     </row>
@@ -7425,9 +7024,6 @@
       <c r="D333" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H333" s="4">
-        <v>1</v>
-      </c>
       <c r="I333" s="23"/>
       <c r="J333" s="24"/>
     </row>
@@ -7444,9 +7040,6 @@
       <c r="D334" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H334" s="4">
-        <v>1</v>
-      </c>
       <c r="I334" s="23"/>
       <c r="J334" s="24"/>
     </row>
@@ -7461,7 +7054,7 @@
         <v>21</v>
       </c>
       <c r="H335" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I335" s="23"/>
       <c r="J335" s="24"/>
@@ -7482,9 +7075,7 @@
       <c r="G336" s="4">
         <v>-90</v>
       </c>
-      <c r="H336" s="4">
-        <v>1</v>
-      </c>
+      <c r="H336" s="4"/>
       <c r="I336" s="23"/>
       <c r="J336" s="24"/>
     </row>
@@ -7644,9 +7235,7 @@
       <c r="G347" s="4">
         <v>90</v>
       </c>
-      <c r="H347" s="4">
-        <v>1</v>
-      </c>
+      <c r="H347" s="4"/>
       <c r="I347" s="23"/>
       <c r="J347" s="24"/>
     </row>
@@ -7661,7 +7250,7 @@
         <v>6</v>
       </c>
       <c r="H348" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I348" s="23"/>
       <c r="J348" s="24"/>
@@ -7679,9 +7268,6 @@
       <c r="D349" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H349" s="4">
-        <v>1</v>
-      </c>
       <c r="I349" s="23"/>
       <c r="J349" s="24"/>
     </row>
@@ -7697,9 +7283,6 @@
       </c>
       <c r="D350" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H350" s="4">
-        <v>1</v>
       </c>
       <c r="I350" s="23"/>
       <c r="J350" s="24"/>
@@ -7734,9 +7317,7 @@
       <c r="G352" s="4">
         <v>90</v>
       </c>
-      <c r="H352" s="4">
-        <v>1</v>
-      </c>
+      <c r="H352" s="4"/>
       <c r="I352" s="23"/>
       <c r="J352" s="24"/>
     </row>
@@ -7756,9 +7337,7 @@
       <c r="G353" s="4">
         <v>180</v>
       </c>
-      <c r="H353" s="4">
-        <v>1</v>
-      </c>
+      <c r="H353" s="4"/>
       <c r="I353" s="23"/>
       <c r="J353" s="24"/>
     </row>
@@ -7778,9 +7357,7 @@
       <c r="G354" s="4">
         <v>180</v>
       </c>
-      <c r="H354" s="4">
-        <v>1</v>
-      </c>
+      <c r="H354" s="4"/>
       <c r="I354" s="23"/>
       <c r="J354" s="24"/>
     </row>
@@ -7800,9 +7377,7 @@
       <c r="G355" s="4">
         <v>90</v>
       </c>
-      <c r="H355" s="4">
-        <v>1</v>
-      </c>
+      <c r="H355" s="4"/>
       <c r="I355" s="23"/>
       <c r="J355" s="24"/>
     </row>
@@ -7822,9 +7397,7 @@
       <c r="G356" s="4">
         <v>90</v>
       </c>
-      <c r="H356" s="4">
-        <v>1</v>
-      </c>
+      <c r="H356" s="4"/>
       <c r="I356" s="23"/>
       <c r="J356" s="24"/>
     </row>
@@ -7844,9 +7417,7 @@
       <c r="G357" s="4">
         <v>180</v>
       </c>
-      <c r="H357" s="4">
-        <v>1</v>
-      </c>
+      <c r="H357" s="4"/>
       <c r="I357" s="23"/>
       <c r="J357" s="24"/>
     </row>
@@ -7866,9 +7437,7 @@
       <c r="G358" s="4">
         <v>180</v>
       </c>
-      <c r="H358" s="4">
-        <v>1</v>
-      </c>
+      <c r="H358" s="4"/>
       <c r="I358" s="23"/>
       <c r="J358" s="24"/>
     </row>
@@ -7884,9 +7453,6 @@
       </c>
       <c r="D359" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H359" s="4">
-        <v>1</v>
       </c>
       <c r="I359" s="23"/>
       <c r="J359" s="24"/>
@@ -7918,9 +7484,6 @@
       <c r="D361" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H361" s="4">
-        <v>1</v>
-      </c>
       <c r="I361" s="23"/>
       <c r="J361" s="24"/>
     </row>
@@ -7937,9 +7500,6 @@
       <c r="D362" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H362" s="4">
-        <v>1</v>
-      </c>
       <c r="I362" s="23"/>
       <c r="J362" s="24"/>
     </row>
@@ -7954,7 +7514,7 @@
         <v>21</v>
       </c>
       <c r="H363" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I363" s="23"/>
       <c r="J363" s="24"/>
@@ -7975,9 +7535,7 @@
       <c r="G364" s="4">
         <v>-90</v>
       </c>
-      <c r="H364" s="4">
-        <v>1</v>
-      </c>
+      <c r="H364" s="4"/>
       <c r="I364" s="23"/>
       <c r="J364" s="24"/>
     </row>
@@ -8064,9 +7622,7 @@
       <c r="D370" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H370" s="4">
-        <v>1</v>
-      </c>
+      <c r="H370" s="4"/>
       <c r="I370" s="19"/>
       <c r="J370" s="20"/>
     </row>
@@ -8083,9 +7639,7 @@
       <c r="D371" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H371" s="4">
-        <v>1</v>
-      </c>
+      <c r="H371" s="4"/>
       <c r="I371" s="19"/>
       <c r="J371" s="20"/>
     </row>
@@ -8102,9 +7656,7 @@
       <c r="D372" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H372" s="4">
-        <v>1</v>
-      </c>
+      <c r="H372" s="4"/>
       <c r="I372" s="19"/>
       <c r="J372" s="20"/>
     </row>
@@ -8121,9 +7673,7 @@
       <c r="D373" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H373" s="4">
-        <v>1</v>
-      </c>
+      <c r="H373" s="4"/>
       <c r="I373" s="19"/>
       <c r="J373" s="20"/>
     </row>
@@ -8140,9 +7690,7 @@
       <c r="D374" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H374" s="4">
-        <v>1</v>
-      </c>
+      <c r="H374" s="4"/>
       <c r="I374" s="19"/>
       <c r="J374" s="20"/>
     </row>
@@ -8162,9 +7710,7 @@
       <c r="G375" s="3">
         <v>180</v>
       </c>
-      <c r="H375" s="3">
-        <v>1</v>
-      </c>
+      <c r="H375" s="3"/>
       <c r="I375" s="19"/>
       <c r="J375" s="20"/>
     </row>
@@ -8179,7 +7725,7 @@
         <v>6</v>
       </c>
       <c r="H376" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I376" s="19"/>
       <c r="J376" s="20"/>
@@ -8200,9 +7746,7 @@
       <c r="G377" s="3">
         <v>180</v>
       </c>
-      <c r="H377" s="3">
-        <v>1</v>
-      </c>
+      <c r="H377" s="3"/>
       <c r="I377" s="19"/>
       <c r="J377" s="20"/>
     </row>
@@ -8222,9 +7766,7 @@
       <c r="G378" s="3">
         <v>-90</v>
       </c>
-      <c r="H378" s="3">
-        <v>1</v>
-      </c>
+      <c r="H378" s="3"/>
       <c r="I378" s="19"/>
       <c r="J378" s="20"/>
     </row>
@@ -8258,9 +7800,7 @@
       <c r="G380" s="3">
         <v>-90</v>
       </c>
-      <c r="H380" s="3">
-        <v>1</v>
-      </c>
+      <c r="H380" s="3"/>
       <c r="I380" s="19"/>
       <c r="J380" s="20"/>
     </row>
@@ -8358,9 +7898,7 @@
       <c r="G387" s="3">
         <v>90</v>
       </c>
-      <c r="H387" s="3">
-        <v>1</v>
-      </c>
+      <c r="H387" s="3"/>
       <c r="I387" s="19"/>
       <c r="J387" s="20"/>
     </row>
@@ -8394,9 +7932,7 @@
       <c r="G389" s="3">
         <v>180</v>
       </c>
-      <c r="H389" s="3">
-        <v>1</v>
-      </c>
+      <c r="H389" s="3"/>
       <c r="I389" s="19"/>
       <c r="J389" s="20"/>
     </row>
@@ -8416,9 +7952,7 @@
       <c r="G390" s="3">
         <v>-90</v>
       </c>
-      <c r="H390" s="3">
-        <v>1</v>
-      </c>
+      <c r="H390" s="3"/>
       <c r="I390" s="19"/>
       <c r="J390" s="20"/>
     </row>
@@ -8433,7 +7967,7 @@
         <v>21</v>
       </c>
       <c r="H391" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I391" s="19"/>
       <c r="J391" s="20"/>
@@ -8454,9 +7988,7 @@
       <c r="G392" s="3">
         <v>90</v>
       </c>
-      <c r="H392" s="3">
-        <v>1</v>
-      </c>
+      <c r="H392" s="3"/>
       <c r="I392" s="19"/>
       <c r="J392" s="20"/>
     </row>
@@ -8473,9 +8005,6 @@
       <c r="D393" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H393" s="3">
-        <v>1</v>
-      </c>
       <c r="I393" s="19"/>
       <c r="J393" s="20"/>
     </row>
@@ -8492,9 +8021,6 @@
       <c r="D394" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H394" s="3">
-        <v>1</v>
-      </c>
       <c r="I394" s="19"/>
       <c r="J394" s="20"/>
     </row>
@@ -8511,9 +8037,6 @@
       <c r="D395" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H395" s="3">
-        <v>1</v>
-      </c>
       <c r="I395" s="19"/>
       <c r="J395" s="20"/>
     </row>
@@ -8530,9 +8053,6 @@
       <c r="D396" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H396" s="3">
-        <v>1</v>
-      </c>
       <c r="I396" s="19"/>
       <c r="J396" s="20"/>
     </row>
@@ -8549,9 +8069,6 @@
       <c r="D397" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H397" s="3">
-        <v>1</v>
-      </c>
       <c r="I397" s="19"/>
       <c r="J397" s="20"/>
     </row>
@@ -8566,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="H398" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I398" s="23"/>
       <c r="J398" s="24"/>
@@ -8582,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="H399" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I399" s="23"/>
       <c r="J399" s="24"/>
@@ -8598,7 +8115,7 @@
         <v>2</v>
       </c>
       <c r="H400" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I400" s="23"/>
       <c r="J400" s="24"/>
@@ -8614,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="H401" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I401" s="23"/>
       <c r="J401" s="24"/>
@@ -8630,7 +8147,7 @@
         <v>4</v>
       </c>
       <c r="H402" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I402" s="23"/>
       <c r="J402" s="24"/>
@@ -8646,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="H403" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I403" s="23"/>
       <c r="J403" s="24"/>
@@ -8662,7 +8179,7 @@
         <v>6</v>
       </c>
       <c r="H404" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404" s="23"/>
       <c r="J404" s="24"/>
@@ -8724,9 +8241,7 @@
       <c r="G408" s="4">
         <v>-90</v>
       </c>
-      <c r="H408" s="3">
-        <v>1</v>
-      </c>
+      <c r="H408" s="3"/>
       <c r="I408" s="23"/>
       <c r="J408" s="24"/>
     </row>
@@ -8830,9 +8345,7 @@
       <c r="G415" s="4">
         <v>90</v>
       </c>
-      <c r="H415" s="3">
-        <v>1</v>
-      </c>
+      <c r="H415" s="3"/>
       <c r="I415" s="23"/>
       <c r="J415" s="24"/>
     </row>
@@ -8888,7 +8401,7 @@
         <v>21</v>
       </c>
       <c r="H419" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I419" s="23"/>
       <c r="J419" s="24"/>
@@ -8904,7 +8417,7 @@
         <v>22</v>
       </c>
       <c r="H420" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I420" s="23"/>
       <c r="J420" s="24"/>
@@ -8920,7 +8433,7 @@
         <v>23</v>
       </c>
       <c r="H421" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I421" s="23"/>
       <c r="J421" s="24"/>
@@ -8936,7 +8449,7 @@
         <v>24</v>
       </c>
       <c r="H422" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I422" s="23"/>
       <c r="J422" s="24"/>
@@ -8952,7 +8465,7 @@
         <v>25</v>
       </c>
       <c r="H423" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I423" s="23"/>
       <c r="J423" s="24"/>
@@ -8968,7 +8481,7 @@
         <v>26</v>
       </c>
       <c r="H424" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I424" s="23"/>
       <c r="J424" s="24"/>
@@ -8984,7 +8497,7 @@
         <v>27</v>
       </c>
       <c r="H425" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I425" s="23"/>
       <c r="J425" s="24"/>
@@ -9005,9 +8518,7 @@
       <c r="G426" s="3">
         <v>180</v>
       </c>
-      <c r="H426" s="3">
-        <v>1</v>
-      </c>
+      <c r="H426" s="3"/>
       <c r="I426" s="19"/>
       <c r="J426" s="20"/>
     </row>
@@ -9027,9 +8538,7 @@
       <c r="G427" s="3">
         <v>180</v>
       </c>
-      <c r="H427" s="3">
-        <v>1</v>
-      </c>
+      <c r="H427" s="3"/>
       <c r="I427" s="19"/>
       <c r="J427" s="20"/>
     </row>
@@ -9049,9 +8558,7 @@
       <c r="G428" s="3">
         <v>180</v>
       </c>
-      <c r="H428" s="3">
-        <v>1</v>
-      </c>
+      <c r="H428" s="3"/>
       <c r="I428" s="19"/>
       <c r="J428" s="20"/>
     </row>
@@ -9071,9 +8578,7 @@
       <c r="G429" s="3">
         <v>180</v>
       </c>
-      <c r="H429" s="3">
-        <v>1</v>
-      </c>
+      <c r="H429" s="3"/>
       <c r="I429" s="19"/>
       <c r="J429" s="20"/>
     </row>
@@ -9093,9 +8598,7 @@
       <c r="G430" s="3">
         <v>180</v>
       </c>
-      <c r="H430" s="3">
-        <v>1</v>
-      </c>
+      <c r="H430" s="3"/>
       <c r="I430" s="19"/>
       <c r="J430" s="20"/>
     </row>
@@ -9115,9 +8618,7 @@
       <c r="G431" s="3">
         <v>-90</v>
       </c>
-      <c r="H431" s="3">
-        <v>1</v>
-      </c>
+      <c r="H431" s="3"/>
       <c r="I431" s="19"/>
       <c r="J431" s="20"/>
     </row>
@@ -9132,7 +8633,7 @@
         <v>6</v>
       </c>
       <c r="H432" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I432" s="19"/>
       <c r="J432" s="20"/>
@@ -9153,9 +8654,7 @@
       <c r="G433" s="3">
         <v>90</v>
       </c>
-      <c r="H433" s="3">
-        <v>1</v>
-      </c>
+      <c r="H433" s="3"/>
       <c r="I433" s="19"/>
       <c r="J433" s="20"/>
     </row>
@@ -9171,9 +8670,6 @@
       </c>
       <c r="D434" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H434" s="3">
-        <v>1</v>
       </c>
       <c r="I434" s="19"/>
       <c r="J434" s="20"/>
@@ -9208,7 +8704,6 @@
       <c r="G436" s="3">
         <v>-90</v>
       </c>
-      <c r="H436" s="3"/>
       <c r="I436" s="19"/>
       <c r="J436" s="20"/>
     </row>
@@ -9306,9 +8801,7 @@
       <c r="G443" s="3">
         <v>90</v>
       </c>
-      <c r="H443" s="3">
-        <v>1</v>
-      </c>
+      <c r="H443" s="3"/>
       <c r="I443" s="19"/>
       <c r="J443" s="20"/>
     </row>
@@ -9342,9 +8835,7 @@
       <c r="G445" s="3">
         <v>90</v>
       </c>
-      <c r="H445" s="3">
-        <v>1</v>
-      </c>
+      <c r="H445" s="3"/>
       <c r="I445" s="19"/>
       <c r="J445" s="20"/>
     </row>
@@ -9361,9 +8852,6 @@
       <c r="D446" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H446" s="3">
-        <v>1</v>
-      </c>
       <c r="I446" s="19"/>
       <c r="J446" s="20"/>
     </row>
@@ -9378,7 +8866,7 @@
         <v>21</v>
       </c>
       <c r="H447" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I447" s="19"/>
       <c r="J447" s="20"/>
@@ -9396,9 +8884,6 @@
       <c r="D448" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H448" s="3">
-        <v>1</v>
-      </c>
       <c r="I448" s="19"/>
       <c r="J448" s="20"/>
     </row>
@@ -9418,9 +8903,7 @@
       <c r="G449" s="3">
         <v>180</v>
       </c>
-      <c r="H449" s="3">
-        <v>1</v>
-      </c>
+      <c r="H449" s="3"/>
       <c r="I449" s="19"/>
       <c r="J449" s="20"/>
     </row>
@@ -9440,9 +8923,7 @@
       <c r="G450" s="3">
         <v>180</v>
       </c>
-      <c r="H450" s="3">
-        <v>1</v>
-      </c>
+      <c r="H450" s="3"/>
       <c r="I450" s="19"/>
       <c r="J450" s="20"/>
     </row>
@@ -9462,9 +8943,7 @@
       <c r="G451" s="3">
         <v>180</v>
       </c>
-      <c r="H451" s="3">
-        <v>1</v>
-      </c>
+      <c r="H451" s="3"/>
       <c r="I451" s="19"/>
       <c r="J451" s="20"/>
     </row>
@@ -9484,9 +8963,7 @@
       <c r="G452" s="3">
         <v>180</v>
       </c>
-      <c r="H452" s="3">
-        <v>1</v>
-      </c>
+      <c r="H452" s="3"/>
       <c r="I452" s="19"/>
       <c r="J452" s="20"/>
     </row>
@@ -9506,9 +8983,7 @@
       <c r="G453" s="3">
         <v>180</v>
       </c>
-      <c r="H453" s="3">
-        <v>1</v>
-      </c>
+      <c r="H453" s="3"/>
       <c r="I453" s="19"/>
       <c r="J453" s="20"/>
     </row>
@@ -9598,9 +9073,7 @@
       <c r="G459" s="4">
         <v>90</v>
       </c>
-      <c r="H459" s="3">
-        <v>1</v>
-      </c>
+      <c r="H459" s="3"/>
       <c r="I459" s="23"/>
       <c r="J459" s="24"/>
     </row>
@@ -9615,7 +9088,7 @@
         <v>6</v>
       </c>
       <c r="H460" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I460" s="23"/>
       <c r="J460" s="24"/>
@@ -9633,9 +9106,7 @@
       <c r="D461" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H461" s="3">
-        <v>1</v>
-      </c>
+      <c r="H461" s="3"/>
       <c r="I461" s="23"/>
       <c r="J461" s="24"/>
     </row>
@@ -9652,9 +9123,7 @@
       <c r="D462" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H462" s="3">
-        <v>1</v>
-      </c>
+      <c r="H462" s="3"/>
       <c r="I462" s="23"/>
       <c r="J462" s="24"/>
     </row>
@@ -9687,9 +9156,7 @@
       <c r="G464" s="4">
         <v>180</v>
       </c>
-      <c r="H464" s="3">
-        <v>1</v>
-      </c>
+      <c r="H464" s="3"/>
       <c r="I464" s="23"/>
       <c r="J464" s="24"/>
     </row>
@@ -9706,9 +9173,7 @@
       <c r="D465" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H465" s="3">
-        <v>1</v>
-      </c>
+      <c r="H465" s="3"/>
       <c r="I465" s="23"/>
       <c r="J465" s="24"/>
     </row>
@@ -9725,9 +9190,7 @@
       <c r="D466" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H466" s="3">
-        <v>1</v>
-      </c>
+      <c r="H466" s="3"/>
       <c r="I466" s="23"/>
       <c r="J466" s="24"/>
     </row>
@@ -9744,9 +9207,7 @@
       <c r="D467" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H467" s="3">
-        <v>1</v>
-      </c>
+      <c r="H467" s="3"/>
       <c r="I467" s="23"/>
       <c r="J467" s="24"/>
     </row>
@@ -9763,9 +9224,7 @@
       <c r="D468" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H468" s="3">
-        <v>1</v>
-      </c>
+      <c r="H468" s="3"/>
       <c r="I468" s="23"/>
       <c r="J468" s="24"/>
     </row>
@@ -9782,9 +9241,7 @@
       <c r="D469" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H469" s="3">
-        <v>1</v>
-      </c>
+      <c r="H469" s="3"/>
       <c r="I469" s="23"/>
       <c r="J469" s="24"/>
     </row>
@@ -9801,9 +9258,7 @@
       <c r="D470" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H470" s="3">
-        <v>1</v>
-      </c>
+      <c r="H470" s="3"/>
       <c r="I470" s="23"/>
       <c r="J470" s="24"/>
     </row>
@@ -9823,9 +9278,7 @@
       <c r="G471" s="4">
         <v>-90</v>
       </c>
-      <c r="H471" s="3">
-        <v>1</v>
-      </c>
+      <c r="H471" s="3"/>
       <c r="I471" s="23"/>
       <c r="J471" s="24"/>
     </row>
@@ -9855,9 +9308,7 @@
       <c r="D473" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H473" s="3">
-        <v>1</v>
-      </c>
+      <c r="H473" s="3"/>
       <c r="I473" s="23"/>
       <c r="J473" s="24"/>
     </row>
@@ -9874,9 +9325,7 @@
       <c r="D474" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H474" s="3">
-        <v>1</v>
-      </c>
+      <c r="H474" s="3"/>
       <c r="I474" s="23"/>
       <c r="J474" s="24"/>
     </row>
@@ -9891,7 +9340,7 @@
         <v>21</v>
       </c>
       <c r="H475" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I475" s="23"/>
       <c r="J475" s="24"/>
@@ -9912,9 +9361,7 @@
       <c r="G476" s="4">
         <v>-90</v>
       </c>
-      <c r="H476" s="3">
-        <v>1</v>
-      </c>
+      <c r="H476" s="3"/>
       <c r="I476" s="23"/>
       <c r="J476" s="24"/>
     </row>
@@ -10069,9 +9516,7 @@
       <c r="G487" s="3">
         <v>90</v>
       </c>
-      <c r="H487" s="3">
-        <v>1</v>
-      </c>
+      <c r="H487" s="3"/>
       <c r="I487" s="19"/>
       <c r="J487" s="20"/>
     </row>
@@ -10086,7 +9531,7 @@
         <v>6</v>
       </c>
       <c r="H488" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I488" s="19"/>
       <c r="J488" s="20"/>
@@ -10104,9 +9549,6 @@
       <c r="D489" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H489" s="3">
-        <v>1</v>
-      </c>
       <c r="I489" s="19"/>
       <c r="J489" s="20"/>
     </row>
@@ -10122,9 +9564,6 @@
       </c>
       <c r="D490" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H490" s="3">
-        <v>1</v>
       </c>
       <c r="I490" s="19"/>
       <c r="J490" s="20"/>
@@ -10282,9 +9721,6 @@
       <c r="D501" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H501" s="3">
-        <v>1</v>
-      </c>
       <c r="I501" s="19"/>
       <c r="J501" s="20"/>
     </row>
@@ -10301,9 +9737,6 @@
       <c r="D502" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H502" s="3">
-        <v>1</v>
-      </c>
       <c r="I502" s="19"/>
       <c r="J502" s="20"/>
     </row>
@@ -10318,7 +9751,7 @@
         <v>21</v>
       </c>
       <c r="H503" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I503" s="19"/>
       <c r="J503" s="20"/>
@@ -10339,9 +9772,7 @@
       <c r="G504" s="3">
         <v>-90</v>
       </c>
-      <c r="H504" s="3">
-        <v>1</v>
-      </c>
+      <c r="H504" s="3"/>
       <c r="I504" s="19"/>
       <c r="J504" s="20"/>
     </row>
@@ -10496,9 +9927,7 @@
       <c r="G515" s="4">
         <v>90</v>
       </c>
-      <c r="H515" s="3">
-        <v>1</v>
-      </c>
+      <c r="H515" s="3"/>
       <c r="I515" s="23"/>
       <c r="J515" s="24"/>
     </row>
@@ -10513,7 +9942,7 @@
         <v>6</v>
       </c>
       <c r="H516" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I516" s="23"/>
       <c r="J516" s="24"/>
@@ -10531,9 +9960,7 @@
       <c r="D517" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H517" s="3">
-        <v>1</v>
-      </c>
+      <c r="H517" s="3"/>
       <c r="I517" s="23"/>
       <c r="J517" s="24"/>
     </row>
@@ -10550,9 +9977,7 @@
       <c r="D518" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H518" s="3">
-        <v>1</v>
-      </c>
+      <c r="H518" s="3"/>
       <c r="I518" s="23"/>
       <c r="J518" s="24"/>
     </row>
@@ -10586,9 +10011,7 @@
       <c r="G520" s="4">
         <v>90</v>
       </c>
-      <c r="H520" s="3">
-        <v>1</v>
-      </c>
+      <c r="H520" s="3"/>
       <c r="I520" s="23"/>
       <c r="J520" s="24"/>
     </row>
@@ -10608,9 +10031,7 @@
       <c r="G521" s="4">
         <v>90</v>
       </c>
-      <c r="H521" s="3">
-        <v>1</v>
-      </c>
+      <c r="H521" s="3"/>
       <c r="I521" s="23"/>
       <c r="J521" s="24"/>
     </row>
@@ -10630,9 +10051,7 @@
       <c r="G522" s="4">
         <v>90</v>
       </c>
-      <c r="H522" s="3">
-        <v>1</v>
-      </c>
+      <c r="H522" s="3"/>
       <c r="I522" s="23"/>
       <c r="J522" s="24"/>
     </row>
@@ -10652,9 +10071,7 @@
       <c r="G523" s="4">
         <v>90</v>
       </c>
-      <c r="H523" s="3">
-        <v>1</v>
-      </c>
+      <c r="H523" s="3"/>
       <c r="I523" s="23"/>
       <c r="J523" s="24"/>
     </row>
@@ -10674,9 +10091,7 @@
       <c r="G524" s="4">
         <v>90</v>
       </c>
-      <c r="H524" s="3">
-        <v>1</v>
-      </c>
+      <c r="H524" s="3"/>
       <c r="I524" s="23"/>
       <c r="J524" s="24"/>
     </row>
@@ -10696,9 +10111,7 @@
       <c r="G525" s="4">
         <v>90</v>
       </c>
-      <c r="H525" s="3">
-        <v>1</v>
-      </c>
+      <c r="H525" s="3"/>
       <c r="I525" s="23"/>
       <c r="J525" s="24"/>
     </row>
@@ -10718,9 +10131,7 @@
       <c r="G526" s="4">
         <v>90</v>
       </c>
-      <c r="H526" s="3">
-        <v>1</v>
-      </c>
+      <c r="H526" s="3"/>
       <c r="I526" s="23"/>
       <c r="J526" s="24"/>
     </row>
@@ -10737,9 +10148,7 @@
       <c r="D527" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H527" s="3">
-        <v>1</v>
-      </c>
+      <c r="H527" s="3"/>
       <c r="I527" s="23"/>
       <c r="J527" s="24"/>
     </row>
@@ -10770,9 +10179,7 @@
       <c r="D529" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H529" s="3">
-        <v>1</v>
-      </c>
+      <c r="H529" s="3"/>
       <c r="I529" s="23"/>
       <c r="J529" s="24"/>
     </row>
@@ -10789,9 +10196,7 @@
       <c r="D530" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H530" s="3">
-        <v>1</v>
-      </c>
+      <c r="H530" s="3"/>
       <c r="I530" s="23"/>
       <c r="J530" s="24"/>
     </row>
@@ -10806,7 +10211,7 @@
         <v>21</v>
       </c>
       <c r="H531" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I531" s="23"/>
       <c r="J531" s="24"/>
@@ -10827,9 +10232,7 @@
       <c r="G532" s="4">
         <v>-90</v>
       </c>
-      <c r="H532" s="3">
-        <v>1</v>
-      </c>
+      <c r="H532" s="3"/>
       <c r="I532" s="23"/>
       <c r="J532" s="24"/>
     </row>
@@ -10919,9 +10322,7 @@
       <c r="G538" s="3">
         <v>90</v>
       </c>
-      <c r="H538" s="3">
-        <v>1</v>
-      </c>
+      <c r="H538" s="3"/>
       <c r="I538" s="19"/>
       <c r="J538" s="20"/>
     </row>
@@ -10938,9 +10339,6 @@
       <c r="D539" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H539" s="3">
-        <v>1</v>
-      </c>
       <c r="I539" s="19"/>
       <c r="J539" s="20"/>
     </row>
@@ -10957,9 +10355,6 @@
       <c r="D540" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H540" s="3">
-        <v>1</v>
-      </c>
       <c r="I540" s="19"/>
       <c r="J540" s="20"/>
     </row>
@@ -10976,9 +10371,6 @@
       <c r="D541" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H541" s="3">
-        <v>1</v>
-      </c>
       <c r="I541" s="19"/>
       <c r="J541" s="20"/>
     </row>
@@ -10995,9 +10387,6 @@
       <c r="D542" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H542" s="3">
-        <v>1</v>
-      </c>
       <c r="I542" s="19"/>
       <c r="J542" s="20"/>
     </row>
@@ -11017,9 +10406,7 @@
       <c r="G543" s="3">
         <v>-180</v>
       </c>
-      <c r="H543" s="3">
-        <v>1</v>
-      </c>
+      <c r="H543" s="3"/>
       <c r="I543" s="19"/>
       <c r="J543" s="20"/>
     </row>
@@ -11034,7 +10421,7 @@
         <v>6</v>
       </c>
       <c r="H544" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I544" s="19"/>
       <c r="J544" s="20"/>
@@ -11055,9 +10442,7 @@
       <c r="G545" s="3">
         <v>180</v>
       </c>
-      <c r="H545" s="3">
-        <v>1</v>
-      </c>
+      <c r="H545" s="3"/>
       <c r="I545" s="19"/>
       <c r="J545" s="20"/>
     </row>
@@ -11077,9 +10462,7 @@
       <c r="G546" s="3">
         <v>-90</v>
       </c>
-      <c r="H546" s="3">
-        <v>1</v>
-      </c>
+      <c r="H546" s="3"/>
       <c r="I546" s="19"/>
       <c r="J546" s="20"/>
     </row>
@@ -11112,9 +10495,7 @@
       <c r="G548" s="3">
         <v>-180</v>
       </c>
-      <c r="H548" s="3">
-        <v>1</v>
-      </c>
+      <c r="H548" s="3"/>
       <c r="I548" s="19"/>
       <c r="J548" s="20"/>
     </row>
@@ -11134,9 +10515,7 @@
       <c r="G549" s="3">
         <v>90</v>
       </c>
-      <c r="H549" s="3">
-        <v>1</v>
-      </c>
+      <c r="H549" s="3"/>
       <c r="I549" s="19"/>
       <c r="J549" s="20"/>
     </row>
@@ -11156,9 +10535,7 @@
       <c r="G550" s="3">
         <v>90</v>
       </c>
-      <c r="H550" s="3">
-        <v>1</v>
-      </c>
+      <c r="H550" s="3"/>
       <c r="I550" s="19"/>
       <c r="J550" s="20"/>
     </row>
@@ -11176,7 +10553,7 @@
         <v>25</v>
       </c>
       <c r="H551" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I551" s="19"/>
       <c r="J551" s="20"/>
@@ -11197,9 +10574,7 @@
       <c r="G552" s="3">
         <v>90</v>
       </c>
-      <c r="H552" s="3">
-        <v>1</v>
-      </c>
+      <c r="H552" s="3"/>
       <c r="I552" s="19"/>
       <c r="J552" s="20"/>
     </row>
@@ -11219,9 +10594,7 @@
       <c r="G553" s="3">
         <v>90</v>
       </c>
-      <c r="H553" s="3">
-        <v>1</v>
-      </c>
+      <c r="H553" s="3"/>
       <c r="I553" s="19"/>
       <c r="J553" s="20"/>
     </row>
@@ -11241,9 +10614,7 @@
       <c r="G554" s="3">
         <v>90</v>
       </c>
-      <c r="H554" s="3">
-        <v>1</v>
-      </c>
+      <c r="H554" s="3"/>
       <c r="I554" s="19"/>
       <c r="J554" s="20"/>
     </row>
@@ -11263,9 +10634,7 @@
       <c r="G555" s="3">
         <v>-90</v>
       </c>
-      <c r="H555" s="3">
-        <v>1</v>
-      </c>
+      <c r="H555" s="3"/>
       <c r="I555" s="19"/>
       <c r="J555" s="20"/>
     </row>
@@ -11298,9 +10667,7 @@
       <c r="G557" s="3">
         <v>180</v>
       </c>
-      <c r="H557" s="3">
-        <v>1</v>
-      </c>
+      <c r="H557" s="3"/>
       <c r="I557" s="19"/>
       <c r="J557" s="20"/>
     </row>
@@ -11320,9 +10687,7 @@
       <c r="G558" s="3">
         <v>-90</v>
       </c>
-      <c r="H558" s="3">
-        <v>1</v>
-      </c>
+      <c r="H558" s="3"/>
       <c r="I558" s="19"/>
       <c r="J558" s="20"/>
     </row>
@@ -11337,7 +10702,7 @@
         <v>21</v>
       </c>
       <c r="H559" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I559" s="19"/>
       <c r="J559" s="20"/>
@@ -11358,9 +10723,7 @@
       <c r="G560" s="3">
         <v>90</v>
       </c>
-      <c r="H560" s="3">
-        <v>1</v>
-      </c>
+      <c r="H560" s="3"/>
       <c r="I560" s="19"/>
       <c r="J560" s="20"/>
     </row>
@@ -11377,9 +10740,6 @@
       <c r="D561" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H561" s="3">
-        <v>1</v>
-      </c>
       <c r="I561" s="19"/>
       <c r="J561" s="20"/>
     </row>
@@ -11396,9 +10756,6 @@
       <c r="D562" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H562" s="3">
-        <v>1</v>
-      </c>
       <c r="I562" s="19"/>
       <c r="J562" s="20"/>
     </row>
@@ -11415,9 +10772,6 @@
       <c r="D563" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H563" s="3">
-        <v>1</v>
-      </c>
       <c r="I563" s="19"/>
       <c r="J563" s="20"/>
     </row>
@@ -11434,9 +10788,6 @@
       <c r="D564" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H564" s="3">
-        <v>1</v>
-      </c>
       <c r="I564" s="19"/>
       <c r="J564" s="20"/>
     </row>
@@ -11453,9 +10804,6 @@
       <c r="D565" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H565" s="3">
-        <v>1</v>
-      </c>
       <c r="I565" s="19"/>
       <c r="J565" s="20"/>
     </row>
@@ -11475,9 +10823,7 @@
       <c r="G566" s="4">
         <v>90</v>
       </c>
-      <c r="H566" s="3">
-        <v>1</v>
-      </c>
+      <c r="H566" s="3"/>
       <c r="I566" s="23"/>
       <c r="J566" s="24"/>
     </row>
@@ -11492,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="H567" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I567" s="23"/>
       <c r="J567" s="24"/>
@@ -11508,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="H568" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I568" s="23"/>
       <c r="J568" s="24"/>
@@ -11524,7 +10870,7 @@
         <v>3</v>
       </c>
       <c r="H569" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I569" s="23"/>
       <c r="J569" s="24"/>
@@ -11540,7 +10886,7 @@
         <v>4</v>
       </c>
       <c r="H570" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I570" s="23"/>
       <c r="J570" s="24"/>
@@ -11556,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="H571" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I571" s="23"/>
       <c r="J571" s="24"/>
@@ -11572,7 +10918,7 @@
         <v>6</v>
       </c>
       <c r="H572" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I572" s="23"/>
       <c r="J572" s="24"/>
@@ -11588,7 +10934,7 @@
         <v>7</v>
       </c>
       <c r="H573" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I573" s="23"/>
       <c r="J573" s="24"/>
@@ -11604,7 +10950,7 @@
         <v>8</v>
       </c>
       <c r="H574" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I574" s="23"/>
       <c r="J574" s="24"/>
@@ -11620,7 +10966,7 @@
         <v>9</v>
       </c>
       <c r="H575" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I575" s="23"/>
       <c r="J575" s="24"/>
@@ -11636,7 +10982,7 @@
         <v>10</v>
       </c>
       <c r="H576" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I576" s="23"/>
       <c r="J576" s="24"/>
@@ -11652,7 +10998,7 @@
         <v>11</v>
       </c>
       <c r="H577" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I577" s="23"/>
       <c r="J577" s="24"/>
@@ -11668,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="H578" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I578" s="23"/>
       <c r="J578" s="24"/>
@@ -11686,9 +11032,7 @@
       <c r="D579" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H579" s="3">
-        <v>1</v>
-      </c>
+      <c r="H579" s="3"/>
       <c r="I579" s="23"/>
       <c r="J579" s="24"/>
     </row>
@@ -11705,9 +11049,7 @@
       <c r="D580" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H580" s="3">
-        <v>1</v>
-      </c>
+      <c r="H580" s="3"/>
       <c r="I580" s="23"/>
       <c r="J580" s="24"/>
     </row>
@@ -11722,7 +11064,7 @@
         <v>15</v>
       </c>
       <c r="H581" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I581" s="23"/>
       <c r="J581" s="24"/>
@@ -11738,7 +11080,7 @@
         <v>16</v>
       </c>
       <c r="H582" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I582" s="23"/>
       <c r="J582" s="24"/>
@@ -11754,7 +11096,7 @@
         <v>17</v>
       </c>
       <c r="H583" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I583" s="23"/>
       <c r="J583" s="24"/>
@@ -11770,7 +11112,7 @@
         <v>18</v>
       </c>
       <c r="H584" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I584" s="23"/>
       <c r="J584" s="24"/>
@@ -11786,7 +11128,7 @@
         <v>19</v>
       </c>
       <c r="H585" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I585" s="23"/>
       <c r="J585" s="24"/>
@@ -11802,7 +11144,7 @@
         <v>20</v>
       </c>
       <c r="H586" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I586" s="23"/>
       <c r="J586" s="24"/>
@@ -11818,7 +11160,7 @@
         <v>21</v>
       </c>
       <c r="H587" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I587" s="23"/>
       <c r="J587" s="24"/>
@@ -11834,7 +11176,7 @@
         <v>22</v>
       </c>
       <c r="H588" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I588" s="23"/>
       <c r="J588" s="24"/>
@@ -11850,7 +11192,7 @@
         <v>23</v>
       </c>
       <c r="H589" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I589" s="23"/>
       <c r="J589" s="24"/>
@@ -11866,7 +11208,7 @@
         <v>24</v>
       </c>
       <c r="H590" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I590" s="23"/>
       <c r="J590" s="24"/>
@@ -11882,7 +11224,7 @@
         <v>25</v>
       </c>
       <c r="H591" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I591" s="23"/>
       <c r="J591" s="24"/>
@@ -11898,7 +11240,7 @@
         <v>26</v>
       </c>
       <c r="H592" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I592" s="23"/>
       <c r="J592" s="24"/>
@@ -11919,9 +11261,7 @@
       <c r="G593" s="4">
         <v>-90</v>
       </c>
-      <c r="H593" s="3">
-        <v>1</v>
-      </c>
+      <c r="H593" s="3"/>
       <c r="I593" s="23"/>
       <c r="J593" s="24"/>
     </row>
@@ -11941,9 +11281,7 @@
       <c r="G594" s="3">
         <v>90</v>
       </c>
-      <c r="H594" s="3">
-        <v>1</v>
-      </c>
+      <c r="H594" s="3"/>
       <c r="I594" s="19"/>
       <c r="J594" s="20"/>
     </row>
@@ -11958,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="H595" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I595" s="19"/>
       <c r="J595" s="20"/>
@@ -11979,9 +11317,7 @@
       <c r="G596" s="3">
         <v>90</v>
       </c>
-      <c r="H596" s="3">
-        <v>1</v>
-      </c>
+      <c r="H596" s="3"/>
       <c r="I596" s="19"/>
       <c r="J596" s="20"/>
     </row>
@@ -12001,9 +11337,7 @@
       <c r="G597" s="3">
         <v>90</v>
       </c>
-      <c r="H597" s="3">
-        <v>1</v>
-      </c>
+      <c r="H597" s="3"/>
       <c r="I597" s="19"/>
       <c r="J597" s="20"/>
     </row>
@@ -12023,9 +11357,7 @@
       <c r="G598" s="3">
         <v>90</v>
       </c>
-      <c r="H598" s="3">
-        <v>1</v>
-      </c>
+      <c r="H598" s="3"/>
       <c r="I598" s="19"/>
       <c r="J598" s="20"/>
     </row>
@@ -12043,7 +11375,7 @@
         <v>25</v>
       </c>
       <c r="H599" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I599" s="19"/>
       <c r="J599" s="20"/>
@@ -12059,7 +11391,7 @@
         <v>6</v>
       </c>
       <c r="H600" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I600" s="19"/>
       <c r="J600" s="20"/>
@@ -12080,9 +11412,7 @@
       <c r="G601" s="3">
         <v>90</v>
       </c>
-      <c r="H601" s="3">
-        <v>1</v>
-      </c>
+      <c r="H601" s="3"/>
       <c r="I601" s="19"/>
       <c r="J601" s="20"/>
     </row>
@@ -12102,9 +11432,7 @@
       <c r="G602" s="3">
         <v>90</v>
       </c>
-      <c r="H602" s="3">
-        <v>1</v>
-      </c>
+      <c r="H602" s="3"/>
       <c r="I602" s="19"/>
       <c r="J602" s="20"/>
     </row>
@@ -12124,9 +11452,7 @@
       <c r="G603" s="3">
         <v>90</v>
       </c>
-      <c r="H603" s="3">
-        <v>1</v>
-      </c>
+      <c r="H603" s="3"/>
       <c r="I603" s="19"/>
       <c r="J603" s="20"/>
     </row>
@@ -12146,9 +11472,7 @@
       <c r="G604" s="3">
         <v>90</v>
       </c>
-      <c r="H604" s="3">
-        <v>1</v>
-      </c>
+      <c r="H604" s="3"/>
       <c r="I604" s="19"/>
       <c r="J604" s="20"/>
     </row>
@@ -12165,9 +11489,6 @@
       <c r="D605" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H605" s="3">
-        <v>1</v>
-      </c>
       <c r="I605" s="19"/>
       <c r="J605" s="20"/>
     </row>
@@ -12182,7 +11503,7 @@
         <v>12</v>
       </c>
       <c r="H606" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I606" s="19"/>
       <c r="J606" s="20"/>
@@ -12200,9 +11521,6 @@
       <c r="D607" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H607" s="3">
-        <v>1</v>
-      </c>
       <c r="I607" s="19"/>
       <c r="J607" s="20"/>
     </row>
@@ -12219,9 +11537,6 @@
       <c r="D608" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H608" s="3">
-        <v>1</v>
-      </c>
       <c r="I608" s="19"/>
       <c r="J608" s="20"/>
     </row>
@@ -12236,7 +11551,7 @@
         <v>15</v>
       </c>
       <c r="H609" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I609" s="19"/>
       <c r="J609" s="20"/>
@@ -12257,9 +11572,7 @@
       <c r="G610" s="3">
         <v>90</v>
       </c>
-      <c r="H610" s="3">
-        <v>1</v>
-      </c>
+      <c r="H610" s="3"/>
       <c r="I610" s="19"/>
       <c r="J610" s="20"/>
     </row>
@@ -12279,9 +11592,7 @@
       <c r="G611" s="3">
         <v>90</v>
       </c>
-      <c r="H611" s="3">
-        <v>1</v>
-      </c>
+      <c r="H611" s="3"/>
       <c r="I611" s="19"/>
       <c r="J611" s="20"/>
     </row>
@@ -12301,9 +11612,7 @@
       <c r="G612" s="3">
         <v>90</v>
       </c>
-      <c r="H612" s="3">
-        <v>1</v>
-      </c>
+      <c r="H612" s="3"/>
       <c r="I612" s="19"/>
       <c r="J612" s="20"/>
     </row>
@@ -12323,9 +11632,7 @@
       <c r="G613" s="3">
         <v>90</v>
       </c>
-      <c r="H613" s="3">
-        <v>1</v>
-      </c>
+      <c r="H613" s="3"/>
       <c r="I613" s="19"/>
       <c r="J613" s="20"/>
     </row>
@@ -12342,9 +11649,6 @@
       <c r="D614" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H614" s="3">
-        <v>1</v>
-      </c>
       <c r="I614" s="19"/>
       <c r="J614" s="20"/>
     </row>
@@ -12359,7 +11663,7 @@
         <v>21</v>
       </c>
       <c r="H615" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I615" s="19"/>
       <c r="J615" s="20"/>
@@ -12380,9 +11684,7 @@
       <c r="G616" s="3">
         <v>90</v>
       </c>
-      <c r="H616" s="3">
-        <v>1</v>
-      </c>
+      <c r="H616" s="3"/>
       <c r="I616" s="19"/>
       <c r="J616" s="20"/>
     </row>
@@ -12402,9 +11704,7 @@
       <c r="G617" s="3">
         <v>90</v>
       </c>
-      <c r="H617" s="3">
-        <v>1</v>
-      </c>
+      <c r="H617" s="3"/>
       <c r="I617" s="19"/>
       <c r="J617" s="20"/>
     </row>
@@ -12424,9 +11724,7 @@
       <c r="G618" s="3">
         <v>90</v>
       </c>
-      <c r="H618" s="3">
-        <v>1</v>
-      </c>
+      <c r="H618" s="3"/>
       <c r="I618" s="19"/>
       <c r="J618" s="20"/>
     </row>
@@ -12443,9 +11741,6 @@
       <c r="D619" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H619" s="3">
-        <v>1</v>
-      </c>
       <c r="I619" s="19"/>
       <c r="J619" s="20"/>
     </row>
@@ -12460,7 +11755,7 @@
         <v>26</v>
       </c>
       <c r="H620" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I620" s="19"/>
       <c r="J620" s="20"/>
@@ -12481,9 +11776,7 @@
       <c r="G621" s="3">
         <v>-90</v>
       </c>
-      <c r="H621" s="3">
-        <v>1</v>
-      </c>
+      <c r="H621" s="3"/>
       <c r="I621" s="19"/>
       <c r="J621" s="20"/>
     </row>
@@ -12503,9 +11796,7 @@
       <c r="G622" s="4">
         <v>90</v>
       </c>
-      <c r="H622" s="3">
-        <v>1</v>
-      </c>
+      <c r="H622" s="3"/>
       <c r="I622" s="23"/>
       <c r="J622" s="24"/>
     </row>
@@ -12520,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="H623" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I623" s="23"/>
       <c r="J623" s="24"/>
@@ -12541,9 +11832,7 @@
       <c r="G624" s="4">
         <v>-180</v>
       </c>
-      <c r="H624" s="3">
-        <v>1</v>
-      </c>
+      <c r="H624" s="3"/>
       <c r="I624" s="23"/>
       <c r="J624" s="24"/>
     </row>
@@ -12563,9 +11852,7 @@
       <c r="G625" s="4">
         <v>90</v>
       </c>
-      <c r="H625" s="3">
-        <v>1</v>
-      </c>
+      <c r="H625" s="3"/>
       <c r="I625" s="23"/>
       <c r="J625" s="24"/>
     </row>
@@ -12582,9 +11869,7 @@
       <c r="D626" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H626" s="3">
-        <v>1</v>
-      </c>
+      <c r="H626" s="3"/>
       <c r="I626" s="23"/>
       <c r="J626" s="24"/>
     </row>
@@ -12601,9 +11886,7 @@
       <c r="D627" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H627" s="3">
-        <v>1</v>
-      </c>
+      <c r="H627" s="3"/>
       <c r="I627" s="23"/>
       <c r="J627" s="24"/>
     </row>
@@ -12618,7 +11901,7 @@
         <v>6</v>
       </c>
       <c r="H628" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I628" s="23"/>
       <c r="J628" s="24"/>
@@ -12639,9 +11922,7 @@
       <c r="G629" s="4">
         <v>-180</v>
       </c>
-      <c r="H629" s="3">
-        <v>1</v>
-      </c>
+      <c r="H629" s="3"/>
       <c r="I629" s="23"/>
       <c r="J629" s="24"/>
     </row>
@@ -12661,9 +11942,7 @@
       <c r="G630" s="4">
         <v>90</v>
       </c>
-      <c r="H630" s="3">
-        <v>1</v>
-      </c>
+      <c r="H630" s="3"/>
       <c r="I630" s="23"/>
       <c r="J630" s="24"/>
     </row>
@@ -12683,9 +11962,7 @@
       <c r="G631" s="4">
         <v>90</v>
       </c>
-      <c r="H631" s="3">
-        <v>1</v>
-      </c>
+      <c r="H631" s="3"/>
       <c r="I631" s="23"/>
       <c r="J631" s="24"/>
     </row>
@@ -12705,9 +11982,7 @@
       <c r="G632" s="4">
         <v>90</v>
       </c>
-      <c r="H632" s="3">
-        <v>1</v>
-      </c>
+      <c r="H632" s="3"/>
       <c r="I632" s="23"/>
       <c r="J632" s="24"/>
     </row>
@@ -12727,9 +12002,7 @@
       <c r="G633" s="4">
         <v>-90</v>
       </c>
-      <c r="H633" s="3">
-        <v>1</v>
-      </c>
+      <c r="H633" s="3"/>
       <c r="I633" s="23"/>
       <c r="J633" s="24"/>
     </row>
@@ -12744,7 +12017,7 @@
         <v>12</v>
       </c>
       <c r="H634" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I634" s="23"/>
       <c r="J634" s="24"/>
@@ -12765,9 +12038,7 @@
       <c r="G635" s="4">
         <v>-180</v>
       </c>
-      <c r="H635" s="3">
-        <v>1</v>
-      </c>
+      <c r="H635" s="3"/>
       <c r="I635" s="23"/>
       <c r="J635" s="24"/>
     </row>
@@ -12787,9 +12058,7 @@
       <c r="G636" s="4">
         <v>-90</v>
       </c>
-      <c r="H636" s="3">
-        <v>1</v>
-      </c>
+      <c r="H636" s="3"/>
       <c r="I636" s="23"/>
       <c r="J636" s="24"/>
     </row>
@@ -12804,7 +12073,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I637" s="23"/>
       <c r="J637" s="24"/>
@@ -12825,9 +12094,7 @@
       <c r="G638" s="4">
         <v>-180</v>
       </c>
-      <c r="H638" s="3">
-        <v>1</v>
-      </c>
+      <c r="H638" s="3"/>
       <c r="I638" s="23"/>
       <c r="J638" s="24"/>
     </row>
@@ -12847,9 +12114,7 @@
       <c r="G639" s="4">
         <v>90</v>
       </c>
-      <c r="H639" s="3">
-        <v>1</v>
-      </c>
+      <c r="H639" s="3"/>
       <c r="I639" s="23"/>
       <c r="J639" s="24"/>
     </row>
@@ -12869,9 +12134,7 @@
       <c r="G640" s="4">
         <v>90</v>
       </c>
-      <c r="H640" s="3">
-        <v>1</v>
-      </c>
+      <c r="H640" s="3"/>
       <c r="I640" s="23"/>
       <c r="J640" s="24"/>
     </row>
@@ -12891,9 +12154,7 @@
       <c r="G641" s="4">
         <v>90</v>
       </c>
-      <c r="H641" s="3">
-        <v>1</v>
-      </c>
+      <c r="H641" s="3"/>
       <c r="I641" s="23"/>
       <c r="J641" s="24"/>
     </row>
@@ -12913,9 +12174,7 @@
       <c r="G642" s="4">
         <v>-90</v>
       </c>
-      <c r="H642" s="3">
-        <v>1</v>
-      </c>
+      <c r="H642" s="3"/>
       <c r="I642" s="23"/>
       <c r="J642" s="24"/>
     </row>
@@ -12930,7 +12189,7 @@
         <v>21</v>
       </c>
       <c r="H643" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I643" s="23"/>
       <c r="J643" s="24"/>
@@ -12948,9 +12207,7 @@
       <c r="D644" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H644" s="3">
-        <v>1</v>
-      </c>
+      <c r="H644" s="3"/>
       <c r="I644" s="23"/>
       <c r="J644" s="24"/>
     </row>
@@ -12970,9 +12227,7 @@
       <c r="G645" s="4">
         <v>90</v>
       </c>
-      <c r="H645" s="3">
-        <v>1</v>
-      </c>
+      <c r="H645" s="3"/>
       <c r="I645" s="23"/>
       <c r="J645" s="24"/>
     </row>
@@ -12992,9 +12247,7 @@
       <c r="G646" s="4">
         <v>90</v>
       </c>
-      <c r="H646" s="3">
-        <v>1</v>
-      </c>
+      <c r="H646" s="3"/>
       <c r="I646" s="23"/>
       <c r="J646" s="24"/>
     </row>
@@ -13014,9 +12267,7 @@
       <c r="G647" s="4">
         <v>-90</v>
       </c>
-      <c r="H647" s="3">
-        <v>1</v>
-      </c>
+      <c r="H647" s="3"/>
       <c r="I647" s="23"/>
       <c r="J647" s="24"/>
     </row>
@@ -13031,7 +12282,7 @@
         <v>26</v>
       </c>
       <c r="H648" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I648" s="23"/>
       <c r="J648" s="24"/>
@@ -13052,9 +12303,7 @@
       <c r="G649" s="4">
         <v>-90</v>
       </c>
-      <c r="H649" s="3">
-        <v>1</v>
-      </c>
+      <c r="H649" s="3"/>
       <c r="I649" s="23"/>
       <c r="J649" s="24"/>
     </row>
@@ -13074,9 +12323,7 @@
       <c r="G650" s="3">
         <v>90</v>
       </c>
-      <c r="H650" s="3">
-        <v>1</v>
-      </c>
+      <c r="H650" s="3"/>
       <c r="I650" s="19"/>
       <c r="J650" s="20"/>
     </row>
@@ -13091,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="H651" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I651" s="19"/>
       <c r="J651" s="20"/>
@@ -13107,7 +12354,7 @@
         <v>2</v>
       </c>
       <c r="H652" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I652" s="19"/>
       <c r="J652" s="20"/>
@@ -13123,7 +12370,7 @@
         <v>3</v>
       </c>
       <c r="H653" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I653" s="19"/>
       <c r="J653" s="20"/>
@@ -13141,9 +12388,6 @@
       <c r="D654" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H654" s="3">
-        <v>1</v>
-      </c>
       <c r="I654" s="19"/>
       <c r="J654" s="20"/>
     </row>
@@ -13160,9 +12404,6 @@
       <c r="D655" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H655" s="3">
-        <v>1</v>
-      </c>
       <c r="I655" s="19"/>
       <c r="J655" s="20"/>
     </row>
@@ -13177,7 +12418,7 @@
         <v>6</v>
       </c>
       <c r="H656" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I656" s="19"/>
       <c r="J656" s="20"/>
@@ -13193,7 +12434,7 @@
         <v>7</v>
       </c>
       <c r="H657" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I657" s="19"/>
       <c r="J657" s="20"/>
@@ -13209,7 +12450,7 @@
         <v>8</v>
       </c>
       <c r="H658" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I658" s="19"/>
       <c r="J658" s="20"/>
@@ -13225,7 +12466,7 @@
         <v>9</v>
       </c>
       <c r="H659" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I659" s="19"/>
       <c r="J659" s="20"/>
@@ -13241,7 +12482,7 @@
         <v>10</v>
       </c>
       <c r="H660" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I660" s="19"/>
       <c r="J660" s="20"/>
@@ -13257,7 +12498,7 @@
         <v>11</v>
       </c>
       <c r="H661" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I661" s="19"/>
       <c r="J661" s="20"/>
@@ -13273,7 +12514,7 @@
         <v>12</v>
       </c>
       <c r="H662" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I662" s="19"/>
       <c r="J662" s="20"/>
@@ -13289,7 +12530,7 @@
         <v>13</v>
       </c>
       <c r="H663" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I663" s="19"/>
       <c r="J663" s="20"/>
@@ -13305,7 +12546,7 @@
         <v>14</v>
       </c>
       <c r="H664" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I664" s="19"/>
       <c r="J664" s="20"/>
@@ -13321,7 +12562,7 @@
         <v>15</v>
       </c>
       <c r="H665" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I665" s="19"/>
       <c r="J665" s="20"/>
@@ -13337,7 +12578,7 @@
         <v>16</v>
       </c>
       <c r="H666" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I666" s="19"/>
       <c r="J666" s="20"/>
@@ -13353,7 +12594,7 @@
         <v>17</v>
       </c>
       <c r="H667" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I667" s="19"/>
       <c r="J667" s="20"/>
@@ -13369,7 +12610,7 @@
         <v>18</v>
       </c>
       <c r="H668" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I668" s="19"/>
       <c r="J668" s="20"/>
@@ -13385,7 +12626,7 @@
         <v>19</v>
       </c>
       <c r="H669" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I669" s="19"/>
       <c r="J669" s="20"/>
@@ -13401,7 +12642,7 @@
         <v>20</v>
       </c>
       <c r="H670" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I670" s="19"/>
       <c r="J670" s="20"/>
@@ -13417,7 +12658,7 @@
         <v>21</v>
       </c>
       <c r="H671" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I671" s="19"/>
       <c r="J671" s="20"/>
@@ -13435,9 +12676,6 @@
       <c r="D672" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H672" s="3">
-        <v>1</v>
-      </c>
       <c r="I672" s="19"/>
       <c r="J672" s="20"/>
     </row>
@@ -13454,9 +12692,6 @@
       <c r="D673" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H673" s="3">
-        <v>1</v>
-      </c>
       <c r="I673" s="19"/>
       <c r="J673" s="20"/>
     </row>
@@ -13471,7 +12706,7 @@
         <v>24</v>
       </c>
       <c r="H674" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I674" s="19"/>
       <c r="J674" s="20"/>
@@ -13487,7 +12722,7 @@
         <v>25</v>
       </c>
       <c r="H675" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I675" s="19"/>
       <c r="J675" s="20"/>
@@ -13503,7 +12738,7 @@
         <v>26</v>
       </c>
       <c r="H676" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I676" s="19"/>
       <c r="J676" s="20"/>
@@ -13524,9 +12759,7 @@
       <c r="G677" s="3">
         <v>-90</v>
       </c>
-      <c r="H677" s="3">
-        <v>1</v>
-      </c>
+      <c r="H677" s="3"/>
       <c r="I677" s="19"/>
       <c r="J677" s="20"/>
     </row>
@@ -13546,9 +12779,7 @@
       <c r="G678" s="4">
         <v>180</v>
       </c>
-      <c r="H678" s="3">
-        <v>1</v>
-      </c>
+      <c r="H678" s="3"/>
       <c r="I678" s="23"/>
       <c r="J678" s="24"/>
     </row>
@@ -13568,9 +12799,7 @@
       <c r="G679" s="4">
         <v>90</v>
       </c>
-      <c r="H679" s="3">
-        <v>1</v>
-      </c>
+      <c r="H679" s="3"/>
       <c r="I679" s="23"/>
       <c r="J679" s="24"/>
     </row>
@@ -13587,9 +12816,7 @@
       <c r="D680" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H680" s="3">
-        <v>1</v>
-      </c>
+      <c r="H680" s="3"/>
       <c r="I680" s="23"/>
       <c r="J680" s="24"/>
     </row>
@@ -13604,7 +12831,7 @@
         <v>3</v>
       </c>
       <c r="H681" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I681" s="23"/>
       <c r="J681" s="24"/>
@@ -13622,9 +12849,7 @@
       <c r="D682" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H682" s="3">
-        <v>1</v>
-      </c>
+      <c r="H682" s="3"/>
       <c r="I682" s="23"/>
       <c r="J682" s="24"/>
     </row>
@@ -13641,9 +12866,7 @@
       <c r="D683" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H683" s="3">
-        <v>1</v>
-      </c>
+      <c r="H683" s="3"/>
       <c r="I683" s="23"/>
       <c r="J683" s="24"/>
     </row>
@@ -13658,7 +12881,7 @@
         <v>6</v>
       </c>
       <c r="H684" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I684" s="23"/>
       <c r="J684" s="24"/>
@@ -13679,9 +12902,7 @@
       <c r="G685" s="4">
         <v>90</v>
       </c>
-      <c r="H685" s="3">
-        <v>1</v>
-      </c>
+      <c r="H685" s="3"/>
       <c r="I685" s="23"/>
       <c r="J685" s="24"/>
     </row>
@@ -13698,9 +12919,7 @@
       <c r="D686" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H686" s="3">
-        <v>1</v>
-      </c>
+      <c r="H686" s="3"/>
       <c r="I686" s="23"/>
       <c r="J686" s="24"/>
     </row>
@@ -13715,7 +12934,7 @@
         <v>9</v>
       </c>
       <c r="H687" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I687" s="23"/>
       <c r="J687" s="24"/>
@@ -13736,9 +12955,7 @@
       <c r="G688" s="4">
         <v>90</v>
       </c>
-      <c r="H688" s="3">
-        <v>1</v>
-      </c>
+      <c r="H688" s="3"/>
       <c r="I688" s="23"/>
       <c r="J688" s="24"/>
     </row>
@@ -13758,9 +12975,7 @@
       <c r="G689" s="4">
         <v>90</v>
       </c>
-      <c r="H689" s="3">
-        <v>1</v>
-      </c>
+      <c r="H689" s="3"/>
       <c r="I689" s="23"/>
       <c r="J689" s="24"/>
     </row>
@@ -13780,9 +12995,7 @@
       <c r="G690" s="4">
         <v>90</v>
       </c>
-      <c r="H690" s="3">
-        <v>1</v>
-      </c>
+      <c r="H690" s="3"/>
       <c r="I690" s="23"/>
       <c r="J690" s="24"/>
     </row>
@@ -13802,9 +13015,7 @@
       <c r="G691" s="4">
         <v>90</v>
       </c>
-      <c r="H691" s="3">
-        <v>1</v>
-      </c>
+      <c r="H691" s="3"/>
       <c r="I691" s="23"/>
       <c r="J691" s="24"/>
     </row>
@@ -13824,9 +13035,7 @@
       <c r="G692" s="4">
         <v>90</v>
       </c>
-      <c r="H692" s="3">
-        <v>1</v>
-      </c>
+      <c r="H692" s="3"/>
       <c r="I692" s="23"/>
       <c r="J692" s="24"/>
     </row>
@@ -13846,9 +13055,7 @@
       <c r="G693" s="4">
         <v>90</v>
       </c>
-      <c r="H693" s="3">
-        <v>1</v>
-      </c>
+      <c r="H693" s="3"/>
       <c r="I693" s="23"/>
       <c r="J693" s="24"/>
     </row>
@@ -13868,9 +13075,7 @@
       <c r="G694" s="4">
         <v>90</v>
       </c>
-      <c r="H694" s="3">
-        <v>1</v>
-      </c>
+      <c r="H694" s="3"/>
       <c r="I694" s="23"/>
       <c r="J694" s="24"/>
     </row>
@@ -13887,9 +13092,7 @@
       <c r="D695" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H695" s="3">
-        <v>1</v>
-      </c>
+      <c r="H695" s="3"/>
       <c r="I695" s="23"/>
       <c r="J695" s="24"/>
     </row>
@@ -13904,7 +13107,7 @@
         <v>18</v>
       </c>
       <c r="H696" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I696" s="23"/>
       <c r="J696" s="24"/>
@@ -13925,9 +13128,7 @@
       <c r="G697" s="4">
         <v>90</v>
       </c>
-      <c r="H697" s="3">
-        <v>1</v>
-      </c>
+      <c r="H697" s="3"/>
       <c r="I697" s="23"/>
       <c r="J697" s="24"/>
     </row>
@@ -13944,9 +13145,7 @@
       <c r="D698" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H698" s="3">
-        <v>1</v>
-      </c>
+      <c r="H698" s="3"/>
       <c r="I698" s="23"/>
       <c r="J698" s="24"/>
     </row>
@@ -13961,7 +13160,7 @@
         <v>21</v>
       </c>
       <c r="H699" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I699" s="23"/>
       <c r="J699" s="24"/>
@@ -13979,9 +13178,7 @@
       <c r="D700" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H700" s="3">
-        <v>1</v>
-      </c>
+      <c r="H700" s="3"/>
       <c r="I700" s="23"/>
       <c r="J700" s="24"/>
     </row>
@@ -13998,9 +13195,7 @@
       <c r="D701" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H701" s="3">
-        <v>1</v>
-      </c>
+      <c r="H701" s="3"/>
       <c r="I701" s="23"/>
       <c r="J701" s="24"/>
     </row>
@@ -14015,7 +13210,7 @@
         <v>24</v>
       </c>
       <c r="H702" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I702" s="23"/>
       <c r="J702" s="24"/>
@@ -14036,9 +13231,7 @@
       <c r="G703" s="4">
         <v>90</v>
       </c>
-      <c r="H703" s="3">
-        <v>1</v>
-      </c>
+      <c r="H703" s="3"/>
       <c r="I703" s="23"/>
       <c r="J703" s="24"/>
     </row>
@@ -14058,9 +13251,7 @@
       <c r="G704" s="4">
         <v>90</v>
       </c>
-      <c r="H704" s="3">
-        <v>1</v>
-      </c>
+      <c r="H704" s="3"/>
       <c r="I704" s="23"/>
       <c r="J704" s="24"/>
     </row>
@@ -14083,9 +13274,7 @@
       <c r="G705" s="4">
         <v>180</v>
       </c>
-      <c r="H705" s="3">
-        <v>1</v>
-      </c>
+      <c r="H705" s="3"/>
       <c r="I705" s="23"/>
       <c r="J705" s="24"/>
     </row>
@@ -14105,9 +13294,6 @@
       <c r="F706" s="3">
         <v>180</v>
       </c>
-      <c r="H706" s="3">
-        <v>1</v>
-      </c>
       <c r="I706" s="19"/>
       <c r="J706" s="20"/>
     </row>
@@ -14127,9 +13313,7 @@
       <c r="G707" s="3">
         <v>90</v>
       </c>
-      <c r="H707" s="3">
-        <v>1</v>
-      </c>
+      <c r="H707" s="3"/>
       <c r="I707" s="19"/>
       <c r="J707" s="20"/>
     </row>
@@ -14149,9 +13333,7 @@
       <c r="G708" s="3">
         <v>-90</v>
       </c>
-      <c r="H708" s="3">
-        <v>1</v>
-      </c>
+      <c r="H708" s="3"/>
       <c r="I708" s="19"/>
       <c r="J708" s="20"/>
     </row>
@@ -14166,7 +13348,7 @@
         <v>3</v>
       </c>
       <c r="H709" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I709" s="19"/>
       <c r="J709" s="20"/>
@@ -14187,9 +13369,7 @@
       <c r="G710" s="3">
         <v>-180</v>
       </c>
-      <c r="H710" s="3">
-        <v>1</v>
-      </c>
+      <c r="H710" s="3"/>
       <c r="I710" s="19"/>
       <c r="J710" s="20"/>
     </row>
@@ -14209,9 +13389,7 @@
       <c r="G711" s="3">
         <v>-90</v>
       </c>
-      <c r="H711" s="3">
-        <v>1</v>
-      </c>
+      <c r="H711" s="3"/>
       <c r="I711" s="19"/>
       <c r="J711" s="20"/>
     </row>
@@ -14226,7 +13404,7 @@
         <v>6</v>
       </c>
       <c r="H712" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I712" s="19"/>
       <c r="J712" s="20"/>
@@ -14244,9 +13422,6 @@
       <c r="D713" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H713" s="3">
-        <v>1</v>
-      </c>
       <c r="I713" s="19"/>
       <c r="J713" s="20"/>
     </row>
@@ -14263,9 +13438,6 @@
       <c r="D714" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H714" s="3">
-        <v>1</v>
-      </c>
       <c r="I714" s="19"/>
       <c r="J714" s="20"/>
     </row>
@@ -14280,7 +13452,7 @@
         <v>9</v>
       </c>
       <c r="H715" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I715" s="19"/>
       <c r="J715" s="20"/>
@@ -14301,9 +13473,7 @@
       <c r="G716" s="3">
         <v>-180</v>
       </c>
-      <c r="H716" s="3">
-        <v>1</v>
-      </c>
+      <c r="H716" s="3"/>
       <c r="I716" s="19"/>
       <c r="J716" s="20"/>
     </row>
@@ -14323,9 +13493,7 @@
       <c r="G717" s="3">
         <v>90</v>
       </c>
-      <c r="H717" s="3">
-        <v>1</v>
-      </c>
+      <c r="H717" s="3"/>
       <c r="I717" s="19"/>
       <c r="J717" s="20"/>
     </row>
@@ -14345,9 +13513,7 @@
       <c r="G718" s="3">
         <v>90</v>
       </c>
-      <c r="H718" s="3">
-        <v>1</v>
-      </c>
+      <c r="H718" s="3"/>
       <c r="I718" s="19"/>
       <c r="J718" s="20"/>
     </row>
@@ -14364,9 +13530,6 @@
       <c r="D719" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H719" s="3">
-        <v>1</v>
-      </c>
       <c r="I719" s="19"/>
       <c r="J719" s="20"/>
     </row>
@@ -14386,9 +13549,7 @@
       <c r="G720" s="3">
         <v>90</v>
       </c>
-      <c r="H720" s="3">
-        <v>1</v>
-      </c>
+      <c r="H720" s="3"/>
       <c r="I720" s="19"/>
       <c r="J720" s="20"/>
     </row>
@@ -14408,9 +13569,7 @@
       <c r="G721" s="3">
         <v>90</v>
       </c>
-      <c r="H721" s="3">
-        <v>1</v>
-      </c>
+      <c r="H721" s="3"/>
       <c r="I721" s="19"/>
       <c r="J721" s="20"/>
     </row>
@@ -14430,9 +13589,7 @@
       <c r="G722" s="3">
         <v>90</v>
       </c>
-      <c r="H722" s="3">
-        <v>1</v>
-      </c>
+      <c r="H722" s="3"/>
       <c r="I722" s="19"/>
       <c r="J722" s="20"/>
     </row>
@@ -14452,9 +13609,7 @@
       <c r="G723" s="3">
         <v>-90</v>
       </c>
-      <c r="H723" s="3">
-        <v>1</v>
-      </c>
+      <c r="H723" s="3"/>
       <c r="I723" s="19"/>
       <c r="J723" s="20"/>
     </row>
@@ -14469,7 +13624,7 @@
         <v>18</v>
       </c>
       <c r="H724" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I724" s="19"/>
       <c r="J724" s="20"/>
@@ -14487,9 +13642,6 @@
       <c r="D725" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H725" s="3">
-        <v>1</v>
-      </c>
       <c r="I725" s="19"/>
       <c r="J725" s="20"/>
     </row>
@@ -14506,9 +13658,6 @@
       <c r="D726" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H726" s="3">
-        <v>1</v>
-      </c>
       <c r="I726" s="19"/>
       <c r="J726" s="20"/>
     </row>
@@ -14523,7 +13672,7 @@
         <v>21</v>
       </c>
       <c r="H727" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I727" s="19"/>
       <c r="J727" s="20"/>
@@ -14544,9 +13693,7 @@
       <c r="G728" s="3">
         <v>-180</v>
       </c>
-      <c r="H728" s="3">
-        <v>1</v>
-      </c>
+      <c r="H728" s="3"/>
       <c r="I728" s="19"/>
       <c r="J728" s="20"/>
     </row>
@@ -14566,9 +13713,7 @@
       <c r="G729" s="3">
         <v>-90</v>
       </c>
-      <c r="H729" s="3">
-        <v>1</v>
-      </c>
+      <c r="H729" s="3"/>
       <c r="I729" s="19"/>
       <c r="J729" s="20"/>
     </row>
@@ -14583,7 +13728,7 @@
         <v>24</v>
       </c>
       <c r="H730" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I730" s="19"/>
       <c r="J730" s="20"/>
@@ -14604,9 +13749,7 @@
       <c r="G731" s="3">
         <v>-180</v>
       </c>
-      <c r="H731" s="3">
-        <v>1</v>
-      </c>
+      <c r="H731" s="3"/>
       <c r="I731" s="19"/>
       <c r="J731" s="20"/>
     </row>
@@ -14626,9 +13769,7 @@
       <c r="G732" s="3">
         <v>90</v>
       </c>
-      <c r="H732" s="3">
-        <v>1</v>
-      </c>
+      <c r="H732" s="3"/>
       <c r="I732" s="19"/>
       <c r="J732" s="20"/>
     </row>
@@ -14646,7 +13787,7 @@
         <v>23</v>
       </c>
       <c r="H733" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I733" s="19"/>
       <c r="J733" s="20"/>
@@ -14667,9 +13808,7 @@
       <c r="G734" s="4">
         <v>90</v>
       </c>
-      <c r="H734" s="3">
-        <v>1</v>
-      </c>
+      <c r="H734" s="3"/>
       <c r="I734" s="23"/>
       <c r="J734" s="24"/>
     </row>
@@ -14684,7 +13823,7 @@
         <v>1</v>
       </c>
       <c r="H735" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I735" s="23"/>
       <c r="J735" s="24"/>
@@ -14700,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="H736" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I736" s="23"/>
       <c r="J736" s="24"/>
@@ -14716,7 +13855,7 @@
         <v>3</v>
       </c>
       <c r="H737" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I737" s="23"/>
       <c r="J737" s="24"/>
@@ -14732,7 +13871,7 @@
         <v>4</v>
       </c>
       <c r="H738" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I738" s="23"/>
       <c r="J738" s="24"/>
@@ -14748,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="H739" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I739" s="23"/>
       <c r="J739" s="24"/>
@@ -14764,7 +13903,7 @@
         <v>6</v>
       </c>
       <c r="H740" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I740" s="23"/>
       <c r="J740" s="24"/>
@@ -14782,9 +13921,7 @@
       <c r="D741" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H741" s="3">
-        <v>1</v>
-      </c>
+      <c r="H741" s="3"/>
       <c r="I741" s="23"/>
       <c r="J741" s="24"/>
     </row>
@@ -14801,9 +13938,7 @@
       <c r="D742" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H742" s="3">
-        <v>1</v>
-      </c>
+      <c r="H742" s="3"/>
       <c r="I742" s="23"/>
       <c r="J742" s="24"/>
     </row>
@@ -14818,7 +13953,7 @@
         <v>9</v>
       </c>
       <c r="H743" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I743" s="23"/>
       <c r="J743" s="24"/>
@@ -14834,7 +13969,7 @@
         <v>10</v>
       </c>
       <c r="H744" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I744" s="23"/>
       <c r="J744" s="24"/>
@@ -14850,7 +13985,7 @@
         <v>11</v>
       </c>
       <c r="H745" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I745" s="23"/>
       <c r="J745" s="24"/>
@@ -14866,7 +14001,7 @@
         <v>12</v>
       </c>
       <c r="H746" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I746" s="23"/>
       <c r="J746" s="24"/>
@@ -14884,9 +14019,7 @@
       <c r="D747" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H747" s="3">
-        <v>1</v>
-      </c>
+      <c r="H747" s="3"/>
       <c r="I747" s="23"/>
       <c r="J747" s="24"/>
     </row>
@@ -14903,9 +14036,7 @@
       <c r="D748" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H748" s="3">
-        <v>1</v>
-      </c>
+      <c r="H748" s="3"/>
       <c r="I748" s="23"/>
       <c r="J748" s="24"/>
     </row>
@@ -14920,7 +14051,7 @@
         <v>15</v>
       </c>
       <c r="H749" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I749" s="23"/>
       <c r="J749" s="24"/>
@@ -14936,7 +14067,7 @@
         <v>16</v>
       </c>
       <c r="H750" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I750" s="23"/>
       <c r="J750" s="24"/>
@@ -14952,7 +14083,7 @@
         <v>17</v>
       </c>
       <c r="H751" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I751" s="23"/>
       <c r="J751" s="24"/>
@@ -14968,7 +14099,7 @@
         <v>18</v>
       </c>
       <c r="H752" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I752" s="23"/>
       <c r="J752" s="24"/>
@@ -14986,9 +14117,7 @@
       <c r="D753" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H753" s="3">
-        <v>1</v>
-      </c>
+      <c r="H753" s="3"/>
       <c r="I753" s="23"/>
       <c r="J753" s="24"/>
     </row>
@@ -15005,9 +14134,7 @@
       <c r="D754" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H754" s="3">
-        <v>1</v>
-      </c>
+      <c r="H754" s="3"/>
       <c r="I754" s="23"/>
       <c r="J754" s="24"/>
     </row>
@@ -15022,7 +14149,7 @@
         <v>21</v>
       </c>
       <c r="H755" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I755" s="23"/>
       <c r="J755" s="24"/>
@@ -15038,7 +14165,7 @@
         <v>22</v>
       </c>
       <c r="H756" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I756" s="23"/>
       <c r="J756" s="24"/>
@@ -15054,7 +14181,7 @@
         <v>23</v>
       </c>
       <c r="H757" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I757" s="23"/>
       <c r="J757" s="24"/>
@@ -15070,7 +14197,7 @@
         <v>24</v>
       </c>
       <c r="H758" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I758" s="23"/>
       <c r="J758" s="24"/>
@@ -15086,7 +14213,7 @@
         <v>25</v>
       </c>
       <c r="H759" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I759" s="23"/>
       <c r="J759" s="24"/>
@@ -15102,7 +14229,7 @@
         <v>26</v>
       </c>
       <c r="H760" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I760" s="23"/>
       <c r="J760" s="24"/>
@@ -15123,9 +14250,7 @@
       <c r="G761" s="4">
         <v>-90</v>
       </c>
-      <c r="H761" s="3">
-        <v>1</v>
-      </c>
+      <c r="H761" s="3"/>
       <c r="I761" s="23"/>
       <c r="J761" s="24"/>
     </row>
@@ -15145,9 +14270,7 @@
       <c r="G762" s="3">
         <v>90</v>
       </c>
-      <c r="H762" s="3">
-        <v>1</v>
-      </c>
+      <c r="H762" s="3"/>
       <c r="I762" s="19"/>
       <c r="J762" s="20"/>
     </row>
@@ -15162,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="H763" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I763" s="19"/>
       <c r="J763" s="20"/>
@@ -15183,9 +14306,7 @@
       <c r="G764" s="3">
         <v>90</v>
       </c>
-      <c r="H764" s="3">
-        <v>1</v>
-      </c>
+      <c r="H764" s="3"/>
       <c r="I764" s="19"/>
       <c r="J764" s="20"/>
     </row>
@@ -15205,9 +14326,7 @@
       <c r="G765" s="3">
         <v>90</v>
       </c>
-      <c r="H765" s="3">
-        <v>1</v>
-      </c>
+      <c r="H765" s="3"/>
       <c r="I765" s="19"/>
       <c r="J765" s="20"/>
     </row>
@@ -15227,9 +14346,7 @@
       <c r="G766" s="3">
         <v>90</v>
       </c>
-      <c r="H766" s="3">
-        <v>1</v>
-      </c>
+      <c r="H766" s="3"/>
       <c r="I766" s="19"/>
       <c r="J766" s="20"/>
     </row>
@@ -15249,9 +14366,7 @@
       <c r="G767" s="3">
         <v>90</v>
       </c>
-      <c r="H767" s="3">
-        <v>1</v>
-      </c>
+      <c r="H767" s="3"/>
       <c r="I767" s="19"/>
       <c r="J767" s="20"/>
     </row>
@@ -15271,9 +14386,7 @@
       <c r="G768" s="3">
         <v>90</v>
       </c>
-      <c r="H768" s="3">
-        <v>1</v>
-      </c>
+      <c r="H768" s="3"/>
       <c r="I768" s="19"/>
       <c r="J768" s="20"/>
     </row>
@@ -15293,9 +14406,7 @@
       <c r="G769" s="3">
         <v>-90</v>
       </c>
-      <c r="H769" s="3">
-        <v>1</v>
-      </c>
+      <c r="H769" s="3"/>
       <c r="I769" s="19"/>
       <c r="J769" s="20"/>
     </row>
@@ -15315,9 +14426,7 @@
       <c r="G770" s="3">
         <v>-180</v>
       </c>
-      <c r="H770" s="3">
-        <v>1</v>
-      </c>
+      <c r="H770" s="3"/>
       <c r="I770" s="19"/>
       <c r="J770" s="20"/>
     </row>
@@ -15337,9 +14446,7 @@
       <c r="G771" s="3">
         <v>90</v>
       </c>
-      <c r="H771" s="3">
-        <v>1</v>
-      </c>
+      <c r="H771" s="3"/>
       <c r="I771" s="19"/>
       <c r="J771" s="20"/>
     </row>
@@ -15359,9 +14466,7 @@
       <c r="G772" s="3">
         <v>90</v>
       </c>
-      <c r="H772" s="3">
-        <v>1</v>
-      </c>
+      <c r="H772" s="3"/>
       <c r="I772" s="19"/>
       <c r="J772" s="20"/>
     </row>
@@ -15378,9 +14483,6 @@
       <c r="D773" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H773" s="3">
-        <v>1</v>
-      </c>
       <c r="I773" s="19"/>
       <c r="J773" s="20"/>
     </row>
@@ -15395,7 +14497,7 @@
         <v>12</v>
       </c>
       <c r="H774" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I774" s="19"/>
       <c r="J774" s="20"/>
@@ -15413,9 +14515,6 @@
       <c r="D775" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H775" s="3">
-        <v>1</v>
-      </c>
       <c r="I775" s="19"/>
       <c r="J775" s="20"/>
     </row>
@@ -15432,9 +14531,6 @@
       <c r="D776" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H776" s="3">
-        <v>1</v>
-      </c>
       <c r="I776" s="19"/>
       <c r="J776" s="20"/>
     </row>
@@ -15449,7 +14545,7 @@
         <v>15</v>
       </c>
       <c r="H777" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I777" s="19"/>
       <c r="J777" s="20"/>
@@ -15470,9 +14566,7 @@
       <c r="G778" s="3">
         <v>90</v>
       </c>
-      <c r="H778" s="3">
-        <v>1</v>
-      </c>
+      <c r="H778" s="3"/>
       <c r="I778" s="19"/>
       <c r="J778" s="20"/>
     </row>
@@ -15492,9 +14586,7 @@
       <c r="G779" s="3">
         <v>90</v>
       </c>
-      <c r="H779" s="3">
-        <v>1</v>
-      </c>
+      <c r="H779" s="3"/>
       <c r="I779" s="19"/>
       <c r="J779" s="20"/>
     </row>
@@ -15514,9 +14606,7 @@
       <c r="G780" s="3">
         <v>90</v>
       </c>
-      <c r="H780" s="3">
-        <v>1</v>
-      </c>
+      <c r="H780" s="3"/>
       <c r="I780" s="19"/>
       <c r="J780" s="20"/>
     </row>
@@ -15536,9 +14626,7 @@
       <c r="G781" s="3">
         <v>-90</v>
       </c>
-      <c r="H781" s="3">
-        <v>1</v>
-      </c>
+      <c r="H781" s="3"/>
       <c r="I781" s="19"/>
       <c r="J781" s="20"/>
     </row>
@@ -15558,9 +14646,7 @@
       <c r="G782" s="3">
         <v>-180</v>
       </c>
-      <c r="H782" s="3">
-        <v>1</v>
-      </c>
+      <c r="H782" s="3"/>
       <c r="I782" s="19"/>
       <c r="J782" s="20"/>
     </row>
@@ -15580,9 +14666,7 @@
       <c r="G783" s="3">
         <v>90</v>
       </c>
-      <c r="H783" s="3">
-        <v>1</v>
-      </c>
+      <c r="H783" s="3"/>
       <c r="I783" s="19"/>
       <c r="J783" s="20"/>
     </row>
@@ -15602,9 +14686,7 @@
       <c r="G784" s="3">
         <v>90</v>
       </c>
-      <c r="H784" s="3">
-        <v>1</v>
-      </c>
+      <c r="H784" s="3"/>
       <c r="I784" s="19"/>
       <c r="J784" s="20"/>
     </row>
@@ -15624,9 +14706,7 @@
       <c r="G785" s="3">
         <v>90</v>
       </c>
-      <c r="H785" s="3">
-        <v>1</v>
-      </c>
+      <c r="H785" s="3"/>
       <c r="I785" s="19"/>
       <c r="J785" s="20"/>
     </row>
@@ -15646,9 +14726,7 @@
       <c r="G786" s="3">
         <v>90</v>
       </c>
-      <c r="H786" s="3">
-        <v>1</v>
-      </c>
+      <c r="H786" s="3"/>
       <c r="I786" s="19"/>
       <c r="J786" s="20"/>
     </row>
@@ -15665,9 +14743,6 @@
       <c r="D787" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H787" s="3">
-        <v>1</v>
-      </c>
       <c r="I787" s="19"/>
       <c r="J787" s="20"/>
     </row>
@@ -15682,7 +14757,7 @@
         <v>26</v>
       </c>
       <c r="H788" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I788" s="19"/>
       <c r="J788" s="20"/>
@@ -15703,9 +14778,7 @@
       <c r="G789" s="3">
         <v>-90</v>
       </c>
-      <c r="H789" s="3">
-        <v>1</v>
-      </c>
+      <c r="H789" s="3"/>
       <c r="I789" s="19"/>
       <c r="J789" s="20"/>
     </row>
@@ -15725,9 +14798,7 @@
       <c r="G790" s="4">
         <v>90</v>
       </c>
-      <c r="H790" s="3">
-        <v>1</v>
-      </c>
+      <c r="H790" s="3"/>
       <c r="I790" s="23"/>
       <c r="J790" s="24"/>
     </row>
@@ -15742,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="H791" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I791" s="23"/>
       <c r="J791" s="24"/>
@@ -15763,9 +14834,7 @@
       <c r="G792" s="4">
         <v>180</v>
       </c>
-      <c r="H792" s="3">
-        <v>1</v>
-      </c>
+      <c r="H792" s="3"/>
       <c r="I792" s="23"/>
       <c r="J792" s="24"/>
     </row>
@@ -15785,9 +14854,7 @@
       <c r="G793" s="4">
         <v>90</v>
       </c>
-      <c r="H793" s="3">
-        <v>1</v>
-      </c>
+      <c r="H793" s="3"/>
       <c r="I793" s="23"/>
       <c r="J793" s="24"/>
     </row>
@@ -15807,9 +14874,7 @@
       <c r="G794" s="4">
         <v>90</v>
       </c>
-      <c r="H794" s="3">
-        <v>1</v>
-      </c>
+      <c r="H794" s="3"/>
       <c r="I794" s="23"/>
       <c r="J794" s="24"/>
     </row>
@@ -15829,9 +14894,7 @@
       <c r="G795" s="4">
         <v>90</v>
       </c>
-      <c r="H795" s="3">
-        <v>1</v>
-      </c>
+      <c r="H795" s="3"/>
       <c r="I795" s="23"/>
       <c r="J795" s="24"/>
     </row>
@@ -15851,9 +14914,7 @@
       <c r="G796" s="4">
         <v>90</v>
       </c>
-      <c r="H796" s="3">
-        <v>1</v>
-      </c>
+      <c r="H796" s="3"/>
       <c r="I796" s="23"/>
       <c r="J796" s="24"/>
     </row>
@@ -15873,9 +14934,7 @@
       <c r="G797" s="4">
         <v>90</v>
       </c>
-      <c r="H797" s="3">
-        <v>1</v>
-      </c>
+      <c r="H797" s="3"/>
       <c r="I797" s="23"/>
       <c r="J797" s="24"/>
     </row>
@@ -15895,9 +14954,7 @@
       <c r="G798" s="4">
         <v>90</v>
       </c>
-      <c r="H798" s="3">
-        <v>1</v>
-      </c>
+      <c r="H798" s="3"/>
       <c r="I798" s="23"/>
       <c r="J798" s="24"/>
     </row>
@@ -15917,9 +14974,7 @@
       <c r="G799" s="4">
         <v>90</v>
       </c>
-      <c r="H799" s="3">
-        <v>1</v>
-      </c>
+      <c r="H799" s="3"/>
       <c r="I799" s="23"/>
       <c r="J799" s="24"/>
     </row>
@@ -15939,9 +14994,7 @@
       <c r="G800" s="4">
         <v>90</v>
       </c>
-      <c r="H800" s="3">
-        <v>1</v>
-      </c>
+      <c r="H800" s="3"/>
       <c r="I800" s="23"/>
       <c r="J800" s="24"/>
     </row>
@@ -15961,9 +15014,7 @@
       <c r="G801" s="4">
         <v>-90</v>
       </c>
-      <c r="H801" s="3">
-        <v>1</v>
-      </c>
+      <c r="H801" s="3"/>
       <c r="I801" s="23"/>
       <c r="J801" s="24"/>
     </row>
@@ -15978,7 +15029,7 @@
         <v>12</v>
       </c>
       <c r="H802" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I802" s="23"/>
       <c r="J802" s="24"/>
@@ -15999,9 +15050,7 @@
       <c r="G803" s="4">
         <v>180</v>
       </c>
-      <c r="H803" s="3">
-        <v>1</v>
-      </c>
+      <c r="H803" s="3"/>
       <c r="I803" s="23"/>
       <c r="J803" s="24"/>
     </row>
@@ -16021,9 +15070,7 @@
       <c r="G804" s="4">
         <v>-90</v>
       </c>
-      <c r="H804" s="3">
-        <v>1</v>
-      </c>
+      <c r="H804" s="3"/>
       <c r="I804" s="23"/>
       <c r="J804" s="24"/>
     </row>
@@ -16038,7 +15085,7 @@
         <v>15</v>
       </c>
       <c r="H805" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I805" s="23"/>
       <c r="J805" s="24"/>
@@ -16059,9 +15106,7 @@
       <c r="G806" s="4">
         <v>180</v>
       </c>
-      <c r="H806" s="3">
-        <v>1</v>
-      </c>
+      <c r="H806" s="3"/>
       <c r="I806" s="23"/>
       <c r="J806" s="24"/>
     </row>
@@ -16081,9 +15126,7 @@
       <c r="G807" s="4">
         <v>90</v>
       </c>
-      <c r="H807" s="3">
-        <v>1</v>
-      </c>
+      <c r="H807" s="3"/>
       <c r="I807" s="23"/>
       <c r="J807" s="24"/>
     </row>
@@ -16103,9 +15146,7 @@
       <c r="G808" s="4">
         <v>90</v>
       </c>
-      <c r="H808" s="3">
-        <v>1</v>
-      </c>
+      <c r="H808" s="3"/>
       <c r="I808" s="23"/>
       <c r="J808" s="24"/>
     </row>
@@ -16125,9 +15166,7 @@
       <c r="G809" s="4">
         <v>90</v>
       </c>
-      <c r="H809" s="3">
-        <v>1</v>
-      </c>
+      <c r="H809" s="3"/>
       <c r="I809" s="23"/>
       <c r="J809" s="24"/>
     </row>
@@ -16147,9 +15186,7 @@
       <c r="G810" s="4">
         <v>90</v>
       </c>
-      <c r="H810" s="3">
-        <v>1</v>
-      </c>
+      <c r="H810" s="3"/>
       <c r="I810" s="23"/>
       <c r="J810" s="24"/>
     </row>
@@ -16169,9 +15206,7 @@
       <c r="G811" s="4">
         <v>90</v>
       </c>
-      <c r="H811" s="3">
-        <v>1</v>
-      </c>
+      <c r="H811" s="3"/>
       <c r="I811" s="23"/>
       <c r="J811" s="24"/>
     </row>
@@ -16191,9 +15226,7 @@
       <c r="G812" s="4">
         <v>90</v>
       </c>
-      <c r="H812" s="3">
-        <v>1</v>
-      </c>
+      <c r="H812" s="3"/>
       <c r="I812" s="23"/>
       <c r="J812" s="24"/>
     </row>
@@ -16213,9 +15246,7 @@
       <c r="G813" s="4">
         <v>90</v>
       </c>
-      <c r="H813" s="3">
-        <v>1</v>
-      </c>
+      <c r="H813" s="3"/>
       <c r="I813" s="23"/>
       <c r="J813" s="24"/>
     </row>
@@ -16235,9 +15266,7 @@
       <c r="G814" s="4">
         <v>90</v>
       </c>
-      <c r="H814" s="3">
-        <v>1</v>
-      </c>
+      <c r="H814" s="3"/>
       <c r="I814" s="23"/>
       <c r="J814" s="24"/>
     </row>
@@ -16257,9 +15286,7 @@
       <c r="G815" s="4">
         <v>-90</v>
       </c>
-      <c r="H815" s="3">
-        <v>1</v>
-      </c>
+      <c r="H815" s="3"/>
       <c r="I815" s="23"/>
       <c r="J815" s="24"/>
     </row>
@@ -16274,7 +15301,7 @@
         <v>26</v>
       </c>
       <c r="H816" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I816" s="23"/>
       <c r="J816" s="24"/>
@@ -16295,9 +15322,7 @@
       <c r="G817" s="4">
         <v>-90</v>
       </c>
-      <c r="H817" s="3">
-        <v>1</v>
-      </c>
+      <c r="H817" s="3"/>
       <c r="I817" s="23"/>
       <c r="J817" s="24"/>
     </row>
@@ -16317,9 +15342,7 @@
       <c r="G818" s="5">
         <v>90</v>
       </c>
-      <c r="H818" s="3">
-        <v>1</v>
-      </c>
+      <c r="H818" s="3"/>
       <c r="I818" s="25"/>
       <c r="J818" s="26"/>
     </row>
@@ -16334,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="H819" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I819" s="25"/>
       <c r="J819" s="26"/>
@@ -16350,7 +15373,7 @@
         <v>2</v>
       </c>
       <c r="H820" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I820" s="25"/>
       <c r="J820" s="26"/>
@@ -16366,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="H821" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I821" s="25"/>
       <c r="J821" s="26"/>
@@ -16382,7 +15405,7 @@
         <v>4</v>
       </c>
       <c r="H822" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I822" s="25"/>
       <c r="J822" s="26"/>
@@ -16398,7 +15421,7 @@
         <v>5</v>
       </c>
       <c r="H823" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I823" s="25"/>
       <c r="J823" s="26"/>
@@ -16414,7 +15437,7 @@
         <v>6</v>
       </c>
       <c r="H824" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I824" s="25"/>
       <c r="J824" s="26"/>
@@ -16430,7 +15453,7 @@
         <v>7</v>
       </c>
       <c r="H825" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I825" s="25"/>
       <c r="J825" s="26"/>
@@ -16446,7 +15469,7 @@
         <v>8</v>
       </c>
       <c r="H826" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I826" s="25"/>
       <c r="J826" s="26"/>
@@ -16462,7 +15485,7 @@
         <v>9</v>
       </c>
       <c r="H827" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I827" s="25"/>
       <c r="J827" s="26"/>
@@ -16478,7 +15501,7 @@
         <v>10</v>
       </c>
       <c r="H828" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I828" s="25"/>
       <c r="J828" s="26"/>
@@ -16494,7 +15517,7 @@
         <v>11</v>
       </c>
       <c r="H829" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I829" s="25"/>
       <c r="J829" s="26"/>
@@ -16510,7 +15533,7 @@
         <v>12</v>
       </c>
       <c r="H830" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I830" s="25"/>
       <c r="J830" s="26"/>
@@ -16526,7 +15549,7 @@
         <v>13</v>
       </c>
       <c r="H831" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I831" s="25"/>
       <c r="J831" s="26"/>
@@ -16542,7 +15565,7 @@
         <v>14</v>
       </c>
       <c r="H832" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I832" s="25"/>
       <c r="J832" s="26"/>
@@ -16558,7 +15581,7 @@
         <v>15</v>
       </c>
       <c r="H833" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I833" s="25"/>
       <c r="J833" s="26"/>
@@ -16574,7 +15597,7 @@
         <v>16</v>
       </c>
       <c r="H834" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I834" s="25"/>
       <c r="J834" s="26"/>
@@ -16590,7 +15613,7 @@
         <v>17</v>
       </c>
       <c r="H835" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I835" s="25"/>
       <c r="J835" s="26"/>
@@ -16606,7 +15629,7 @@
         <v>18</v>
       </c>
       <c r="H836" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I836" s="25"/>
       <c r="J836" s="26"/>
@@ -16622,7 +15645,7 @@
         <v>19</v>
       </c>
       <c r="H837" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I837" s="25"/>
       <c r="J837" s="26"/>
@@ -16638,7 +15661,7 @@
         <v>20</v>
       </c>
       <c r="H838" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I838" s="25"/>
       <c r="J838" s="26"/>
@@ -16654,7 +15677,7 @@
         <v>21</v>
       </c>
       <c r="H839" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I839" s="25"/>
       <c r="J839" s="26"/>
@@ -16670,7 +15693,7 @@
         <v>22</v>
       </c>
       <c r="H840" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I840" s="25"/>
       <c r="J840" s="26"/>
@@ -16686,7 +15709,7 @@
         <v>23</v>
       </c>
       <c r="H841" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I841" s="25"/>
       <c r="J841" s="26"/>
@@ -16702,7 +15725,7 @@
         <v>24</v>
       </c>
       <c r="H842" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I842" s="25"/>
       <c r="J842" s="26"/>
@@ -16718,7 +15741,7 @@
         <v>25</v>
       </c>
       <c r="H843" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I843" s="25"/>
       <c r="J843" s="26"/>
@@ -16734,7 +15757,7 @@
         <v>26</v>
       </c>
       <c r="H844" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I844" s="25"/>
       <c r="J844" s="26"/>
@@ -16755,9 +15778,7 @@
       <c r="G845" s="5">
         <v>-90</v>
       </c>
-      <c r="H845" s="3">
-        <v>1</v>
-      </c>
+      <c r="H845" s="3"/>
       <c r="I845" s="25"/>
       <c r="J845" s="26"/>
     </row>
@@ -16777,9 +15798,7 @@
       <c r="G846" s="4">
         <v>180</v>
       </c>
-      <c r="H846" s="3">
-        <v>1</v>
-      </c>
+      <c r="H846" s="3"/>
       <c r="I846" s="23"/>
       <c r="J846" s="24"/>
     </row>
@@ -16799,9 +15818,7 @@
       <c r="G847" s="4">
         <v>180</v>
       </c>
-      <c r="H847" s="3">
-        <v>1</v>
-      </c>
+      <c r="H847" s="3"/>
       <c r="I847" s="23"/>
       <c r="J847" s="24"/>
     </row>
@@ -16821,9 +15838,7 @@
       <c r="G848" s="4">
         <v>180</v>
       </c>
-      <c r="H848" s="3">
-        <v>1</v>
-      </c>
+      <c r="H848" s="3"/>
       <c r="I848" s="23"/>
       <c r="J848" s="24"/>
     </row>
@@ -16843,9 +15858,7 @@
       <c r="G849" s="4">
         <v>180</v>
       </c>
-      <c r="H849" s="3">
-        <v>1</v>
-      </c>
+      <c r="H849" s="3"/>
       <c r="I849" s="23"/>
       <c r="J849" s="24"/>
     </row>
@@ -16865,9 +15878,7 @@
       <c r="G850" s="4">
         <v>180</v>
       </c>
-      <c r="H850" s="3">
-        <v>1</v>
-      </c>
+      <c r="H850" s="3"/>
       <c r="I850" s="23"/>
       <c r="J850" s="24"/>
     </row>
@@ -16887,9 +15898,7 @@
       <c r="G851" s="4">
         <v>180</v>
       </c>
-      <c r="H851" s="3">
-        <v>1</v>
-      </c>
+      <c r="H851" s="3"/>
       <c r="I851" s="23"/>
       <c r="J851" s="24"/>
     </row>
@@ -16909,9 +15918,7 @@
       <c r="G852" s="4">
         <v>180</v>
       </c>
-      <c r="H852" s="3">
-        <v>1</v>
-      </c>
+      <c r="H852" s="3"/>
       <c r="I852" s="23"/>
       <c r="J852" s="24"/>
     </row>
@@ -16931,9 +15938,7 @@
       <c r="G853" s="4">
         <v>180</v>
       </c>
-      <c r="H853" s="3">
-        <v>1</v>
-      </c>
+      <c r="H853" s="3"/>
       <c r="I853" s="23"/>
       <c r="J853" s="24"/>
     </row>
@@ -16953,9 +15958,7 @@
       <c r="G854" s="4">
         <v>180</v>
       </c>
-      <c r="H854" s="3">
-        <v>1</v>
-      </c>
+      <c r="H854" s="3"/>
       <c r="I854" s="23"/>
       <c r="J854" s="24"/>
     </row>
@@ -16975,9 +15978,7 @@
       <c r="G855" s="4">
         <v>180</v>
       </c>
-      <c r="H855" s="3">
-        <v>1</v>
-      </c>
+      <c r="H855" s="3"/>
       <c r="I855" s="23"/>
       <c r="J855" s="24"/>
     </row>
@@ -16997,9 +15998,7 @@
       <c r="G856" s="4">
         <v>180</v>
       </c>
-      <c r="H856" s="3">
-        <v>1</v>
-      </c>
+      <c r="H856" s="3"/>
       <c r="I856" s="23"/>
       <c r="J856" s="24"/>
     </row>
@@ -17019,9 +16018,7 @@
       <c r="G857" s="4">
         <v>180</v>
       </c>
-      <c r="H857" s="3">
-        <v>1</v>
-      </c>
+      <c r="H857" s="3"/>
       <c r="I857" s="23"/>
       <c r="J857" s="24"/>
     </row>
@@ -17041,9 +16038,7 @@
       <c r="G858" s="4">
         <v>180</v>
       </c>
-      <c r="H858" s="3">
-        <v>1</v>
-      </c>
+      <c r="H858" s="3"/>
       <c r="I858" s="23"/>
       <c r="J858" s="24"/>
     </row>
@@ -17063,9 +16058,7 @@
       <c r="G859" s="4">
         <v>180</v>
       </c>
-      <c r="H859" s="3">
-        <v>1</v>
-      </c>
+      <c r="H859" s="3"/>
       <c r="I859" s="23"/>
       <c r="J859" s="24"/>
     </row>
@@ -17085,9 +16078,7 @@
       <c r="G860" s="4">
         <v>180</v>
       </c>
-      <c r="H860" s="3">
-        <v>1</v>
-      </c>
+      <c r="H860" s="3"/>
       <c r="I860" s="23"/>
       <c r="J860" s="24"/>
     </row>
@@ -17107,9 +16098,7 @@
       <c r="G861" s="4">
         <v>180</v>
       </c>
-      <c r="H861" s="3">
-        <v>1</v>
-      </c>
+      <c r="H861" s="3"/>
       <c r="I861" s="23"/>
       <c r="J861" s="24"/>
     </row>
@@ -17129,9 +16118,7 @@
       <c r="G862" s="4">
         <v>180</v>
       </c>
-      <c r="H862" s="3">
-        <v>1</v>
-      </c>
+      <c r="H862" s="3"/>
       <c r="I862" s="23"/>
       <c r="J862" s="24"/>
     </row>
@@ -17151,9 +16138,7 @@
       <c r="G863" s="4">
         <v>180</v>
       </c>
-      <c r="H863" s="3">
-        <v>1</v>
-      </c>
+      <c r="H863" s="3"/>
       <c r="I863" s="23"/>
       <c r="J863" s="24"/>
     </row>
@@ -17173,9 +16158,7 @@
       <c r="G864" s="4">
         <v>180</v>
       </c>
-      <c r="H864" s="3">
-        <v>1</v>
-      </c>
+      <c r="H864" s="3"/>
       <c r="I864" s="23"/>
       <c r="J864" s="24"/>
     </row>
@@ -17195,9 +16178,7 @@
       <c r="G865" s="4">
         <v>180</v>
       </c>
-      <c r="H865" s="3">
-        <v>1</v>
-      </c>
+      <c r="H865" s="3"/>
       <c r="I865" s="23"/>
       <c r="J865" s="24"/>
     </row>
@@ -17217,9 +16198,7 @@
       <c r="G866" s="4">
         <v>180</v>
       </c>
-      <c r="H866" s="3">
-        <v>1</v>
-      </c>
+      <c r="H866" s="3"/>
       <c r="I866" s="23"/>
       <c r="J866" s="24"/>
     </row>
@@ -17239,9 +16218,7 @@
       <c r="G867" s="4">
         <v>180</v>
       </c>
-      <c r="H867" s="3">
-        <v>1</v>
-      </c>
+      <c r="H867" s="3"/>
       <c r="I867" s="23"/>
       <c r="J867" s="24"/>
     </row>
@@ -17261,9 +16238,7 @@
       <c r="G868" s="4">
         <v>180</v>
       </c>
-      <c r="H868" s="3">
-        <v>1</v>
-      </c>
+      <c r="H868" s="3"/>
       <c r="I868" s="23"/>
       <c r="J868" s="24"/>
     </row>
@@ -17283,9 +16258,7 @@
       <c r="G869" s="4">
         <v>180</v>
       </c>
-      <c r="H869" s="3">
-        <v>1</v>
-      </c>
+      <c r="H869" s="3"/>
       <c r="I869" s="23"/>
       <c r="J869" s="24"/>
     </row>
@@ -17305,9 +16278,7 @@
       <c r="G870" s="4">
         <v>180</v>
       </c>
-      <c r="H870" s="3">
-        <v>1</v>
-      </c>
+      <c r="H870" s="3"/>
       <c r="I870" s="23"/>
       <c r="J870" s="24"/>
     </row>
@@ -17327,9 +16298,7 @@
       <c r="G871" s="4">
         <v>180</v>
       </c>
-      <c r="H871" s="3">
-        <v>1</v>
-      </c>
+      <c r="H871" s="3"/>
       <c r="I871" s="23"/>
       <c r="J871" s="24"/>
     </row>
@@ -17349,9 +16318,7 @@
       <c r="G872" s="4">
         <v>180</v>
       </c>
-      <c r="H872" s="3">
-        <v>1</v>
-      </c>
+      <c r="H872" s="3"/>
       <c r="I872" s="23"/>
       <c r="J872" s="24"/>
     </row>
@@ -17371,9 +16338,7 @@
       <c r="G873" s="4">
         <v>-90</v>
       </c>
-      <c r="H873" s="3">
-        <v>1</v>
-      </c>
+      <c r="H873" s="3"/>
       <c r="I873" s="23"/>
       <c r="J873" s="24"/>
     </row>

--- a/config/PacManMap【吃豆人地图配置】.xlsx
+++ b/config/PacManMap【吃豆人地图配置】.xlsx
@@ -1177,9 +1177,9 @@
   <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H836" sqref="H836"/>
+      <selection pane="bottomLeft" activeCell="H411" sqref="H411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1341,7 +1341,6 @@
       <c r="G6" s="1">
         <v>90</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
     </row>
@@ -1556,7 +1555,6 @@
       <c r="G19" s="1">
         <v>90</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
     </row>
@@ -1576,7 +1574,6 @@
       <c r="G20" s="1">
         <v>90</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
     </row>
@@ -2872,7 +2869,6 @@
       <c r="G95" s="4">
         <v>-180</v>
       </c>
-      <c r="H95" s="4"/>
       <c r="I95" s="23"/>
       <c r="J95" s="24"/>
     </row>
@@ -2908,7 +2904,6 @@
       <c r="G97" s="4">
         <v>0</v>
       </c>
-      <c r="H97" s="4"/>
       <c r="I97" s="23"/>
       <c r="J97" s="24"/>
     </row>
@@ -2970,7 +2965,6 @@
       <c r="G101" s="4">
         <v>-180</v>
       </c>
-      <c r="H101" s="4"/>
       <c r="I101" s="23"/>
       <c r="J101" s="24"/>
     </row>
@@ -3006,7 +3000,6 @@
       <c r="G103" s="4">
         <v>0</v>
       </c>
-      <c r="H103" s="4"/>
       <c r="I103" s="23"/>
       <c r="J103" s="24"/>
     </row>
@@ -3026,7 +3019,6 @@
       <c r="G104" s="4">
         <v>180</v>
       </c>
-      <c r="H104" s="4"/>
       <c r="I104" s="23"/>
       <c r="J104" s="24"/>
     </row>
@@ -3062,7 +3054,6 @@
       <c r="G106" s="4">
         <v>180</v>
       </c>
-      <c r="H106" s="4"/>
       <c r="I106" s="23"/>
       <c r="J106" s="24"/>
     </row>
@@ -3124,7 +3115,6 @@
       <c r="G110" s="4">
         <v>0</v>
       </c>
-      <c r="H110" s="4"/>
       <c r="I110" s="23"/>
       <c r="J110" s="24"/>
     </row>
@@ -3204,7 +3194,6 @@
       <c r="G115" s="4">
         <v>-180</v>
       </c>
-      <c r="H115" s="4"/>
       <c r="I115" s="23"/>
       <c r="J115" s="24"/>
     </row>
@@ -3240,7 +3229,6 @@
       <c r="G117" s="4">
         <v>270</v>
       </c>
-      <c r="H117" s="4"/>
       <c r="I117" s="23"/>
       <c r="J117" s="24"/>
     </row>
@@ -3776,7 +3764,6 @@
       <c r="G145" s="2">
         <v>270</v>
       </c>
-      <c r="H145" s="3"/>
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
@@ -4236,7 +4223,6 @@
       <c r="G173" s="2">
         <v>270</v>
       </c>
-      <c r="H173" s="4"/>
       <c r="I173" s="23"/>
       <c r="J173" s="24"/>
     </row>
@@ -5998,7 +5984,9 @@
       <c r="C270" s="2">
         <v>12</v>
       </c>
-      <c r="H270" s="3"/>
+      <c r="H270" s="3">
+        <v>1</v>
+      </c>
       <c r="I270" s="17"/>
       <c r="J270" s="18"/>
     </row>
@@ -6046,7 +6034,9 @@
       <c r="C273" s="2">
         <v>15</v>
       </c>
-      <c r="H273" s="3"/>
+      <c r="H273" s="3">
+        <v>1</v>
+      </c>
       <c r="I273" s="17"/>
       <c r="J273" s="18"/>
     </row>
@@ -6066,7 +6056,6 @@
       <c r="G274" s="2">
         <v>90</v>
       </c>
-      <c r="H274" s="2"/>
       <c r="I274" s="17"/>
       <c r="J274" s="18"/>
     </row>
@@ -6086,7 +6075,6 @@
       <c r="G275" s="2">
         <v>90</v>
       </c>
-      <c r="H275" s="2"/>
       <c r="I275" s="17"/>
       <c r="J275" s="18"/>
     </row>
@@ -6106,7 +6094,6 @@
       <c r="G276" s="2">
         <v>90</v>
       </c>
-      <c r="H276" s="2"/>
       <c r="I276" s="17"/>
       <c r="J276" s="18"/>
     </row>
@@ -6126,7 +6113,6 @@
       <c r="G277" s="2">
         <v>-90</v>
       </c>
-      <c r="H277" s="2"/>
       <c r="I277" s="17"/>
       <c r="J277" s="18"/>
     </row>
@@ -6194,7 +6180,6 @@
       <c r="G281" s="2">
         <v>180</v>
       </c>
-      <c r="H281" s="2"/>
       <c r="I281" s="17"/>
       <c r="J281" s="18"/>
     </row>
@@ -6214,7 +6199,6 @@
       <c r="G282" s="2">
         <v>180</v>
       </c>
-      <c r="H282" s="2"/>
       <c r="I282" s="17"/>
       <c r="J282" s="18"/>
     </row>
@@ -6234,7 +6218,6 @@
       <c r="G283" s="2">
         <v>180</v>
       </c>
-      <c r="H283" s="2"/>
       <c r="I283" s="17"/>
       <c r="J283" s="18"/>
     </row>
@@ -6254,7 +6237,6 @@
       <c r="G284" s="2">
         <v>180</v>
       </c>
-      <c r="H284" s="2"/>
       <c r="I284" s="17"/>
       <c r="J284" s="18"/>
     </row>
@@ -6274,7 +6256,6 @@
       <c r="G285" s="2">
         <v>-90</v>
       </c>
-      <c r="H285" s="2"/>
       <c r="I285" s="17"/>
       <c r="J285" s="18"/>
     </row>
@@ -6359,7 +6340,6 @@
       <c r="G291" s="3">
         <v>90</v>
       </c>
-      <c r="H291" s="3"/>
       <c r="I291" s="19"/>
       <c r="J291" s="20"/>
     </row>
@@ -6411,7 +6391,6 @@
       <c r="G294" s="3">
         <v>90</v>
       </c>
-      <c r="H294" s="3"/>
       <c r="I294" s="19"/>
       <c r="J294" s="20"/>
     </row>
@@ -6431,7 +6410,6 @@
       <c r="G295" s="3">
         <v>90</v>
       </c>
-      <c r="H295" s="3"/>
       <c r="I295" s="19"/>
       <c r="J295" s="20"/>
     </row>
@@ -6451,7 +6429,6 @@
       <c r="G296" s="3">
         <v>90</v>
       </c>
-      <c r="H296" s="3"/>
       <c r="I296" s="19"/>
       <c r="J296" s="20"/>
     </row>
@@ -6471,7 +6448,6 @@
       <c r="G297" s="3">
         <v>-90</v>
       </c>
-      <c r="H297" s="3"/>
       <c r="I297" s="19"/>
       <c r="J297" s="20"/>
     </row>
@@ -6485,6 +6461,9 @@
       <c r="C298" s="3">
         <v>12</v>
       </c>
+      <c r="H298" s="3">
+        <v>1</v>
+      </c>
       <c r="I298" s="19"/>
       <c r="J298" s="20"/>
     </row>
@@ -6504,7 +6483,6 @@
       <c r="G299" s="3">
         <v>-180</v>
       </c>
-      <c r="H299" s="3"/>
       <c r="I299" s="19"/>
       <c r="J299" s="20"/>
     </row>
@@ -6524,7 +6502,6 @@
       <c r="G300" s="3">
         <v>-90</v>
       </c>
-      <c r="H300" s="3"/>
       <c r="I300" s="19"/>
       <c r="J300" s="20"/>
     </row>
@@ -6538,6 +6515,9 @@
       <c r="C301" s="3">
         <v>15</v>
       </c>
+      <c r="H301" s="3">
+        <v>1</v>
+      </c>
       <c r="I301" s="19"/>
       <c r="J301" s="20"/>
     </row>
@@ -6557,7 +6537,6 @@
       <c r="G302" s="3">
         <v>180</v>
       </c>
-      <c r="H302" s="3"/>
       <c r="I302" s="19"/>
       <c r="J302" s="20"/>
     </row>
@@ -6577,7 +6556,6 @@
       <c r="G303" s="3">
         <v>90</v>
       </c>
-      <c r="H303" s="3"/>
       <c r="I303" s="19"/>
       <c r="J303" s="20"/>
     </row>
@@ -6597,7 +6575,6 @@
       <c r="G304" s="3">
         <v>90</v>
       </c>
-      <c r="H304" s="3"/>
       <c r="I304" s="19"/>
       <c r="J304" s="20"/>
     </row>
@@ -6665,7 +6642,6 @@
       <c r="G308" s="3">
         <v>-90</v>
       </c>
-      <c r="H308" s="3"/>
       <c r="I308" s="19"/>
       <c r="J308" s="20"/>
     </row>
@@ -6820,7 +6796,6 @@
       <c r="G319" s="4">
         <v>90</v>
       </c>
-      <c r="H319" s="4"/>
       <c r="I319" s="23"/>
       <c r="J319" s="24"/>
     </row>
@@ -6882,7 +6857,9 @@
       <c r="C323" s="4">
         <v>9</v>
       </c>
-      <c r="H323" s="22"/>
+      <c r="H323" s="22">
+        <v>1</v>
+      </c>
       <c r="I323" s="23"/>
       <c r="J323" s="24"/>
     </row>
@@ -6896,7 +6873,9 @@
       <c r="C324" s="4">
         <v>10</v>
       </c>
-      <c r="H324" s="22"/>
+      <c r="H324" s="22">
+        <v>1</v>
+      </c>
       <c r="I324" s="23"/>
       <c r="J324" s="24"/>
     </row>
@@ -6910,7 +6889,9 @@
       <c r="C325" s="4">
         <v>11</v>
       </c>
-      <c r="H325" s="22"/>
+      <c r="H325" s="22">
+        <v>1</v>
+      </c>
       <c r="I325" s="23"/>
       <c r="J325" s="24"/>
     </row>
@@ -6924,7 +6905,9 @@
       <c r="C326" s="4">
         <v>12</v>
       </c>
-      <c r="H326" s="22"/>
+      <c r="H326" s="22">
+        <v>1</v>
+      </c>
       <c r="I326" s="23"/>
       <c r="J326" s="24"/>
     </row>
@@ -6938,6 +6921,9 @@
       <c r="C327" s="4">
         <v>13</v>
       </c>
+      <c r="H327" s="4">
+        <v>1</v>
+      </c>
       <c r="I327" s="23"/>
       <c r="J327" s="24"/>
     </row>
@@ -6951,7 +6937,9 @@
       <c r="C328" s="4">
         <v>14</v>
       </c>
-      <c r="H328" s="22"/>
+      <c r="H328" s="22">
+        <v>1</v>
+      </c>
       <c r="I328" s="23"/>
       <c r="J328" s="24"/>
     </row>
@@ -6965,7 +6953,9 @@
       <c r="C329" s="4">
         <v>15</v>
       </c>
-      <c r="H329" s="22"/>
+      <c r="H329" s="22">
+        <v>1</v>
+      </c>
       <c r="I329" s="23"/>
       <c r="J329" s="24"/>
     </row>
@@ -6979,7 +6969,9 @@
       <c r="C330" s="4">
         <v>16</v>
       </c>
-      <c r="H330" s="22"/>
+      <c r="H330" s="22">
+        <v>1</v>
+      </c>
       <c r="I330" s="23"/>
       <c r="J330" s="24"/>
     </row>
@@ -6993,7 +6985,9 @@
       <c r="C331" s="4">
         <v>17</v>
       </c>
-      <c r="H331" s="22"/>
+      <c r="H331" s="22">
+        <v>1</v>
+      </c>
       <c r="I331" s="23"/>
       <c r="J331" s="24"/>
     </row>
@@ -7007,7 +7001,9 @@
       <c r="C332" s="4">
         <v>18</v>
       </c>
-      <c r="H332" s="3"/>
+      <c r="H332" s="3">
+        <v>1</v>
+      </c>
       <c r="I332" s="23"/>
       <c r="J332" s="24"/>
     </row>
@@ -7075,7 +7071,6 @@
       <c r="G336" s="4">
         <v>-90</v>
       </c>
-      <c r="H336" s="4"/>
       <c r="I336" s="23"/>
       <c r="J336" s="24"/>
     </row>
@@ -7235,7 +7230,6 @@
       <c r="G347" s="4">
         <v>90</v>
       </c>
-      <c r="H347" s="4"/>
       <c r="I347" s="23"/>
       <c r="J347" s="24"/>
     </row>
@@ -7268,6 +7262,9 @@
       <c r="D349" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H349" s="4">
+        <v>1</v>
+      </c>
       <c r="I349" s="23"/>
       <c r="J349" s="24"/>
     </row>
@@ -7284,6 +7281,9 @@
       <c r="D350" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="H350" s="4">
+        <v>1</v>
+      </c>
       <c r="I350" s="23"/>
       <c r="J350" s="24"/>
     </row>
@@ -7297,7 +7297,9 @@
       <c r="C351" s="4">
         <v>9</v>
       </c>
-      <c r="H351" s="22"/>
+      <c r="H351" s="22">
+        <v>1</v>
+      </c>
       <c r="I351" s="23"/>
       <c r="J351" s="24"/>
     </row>
@@ -7317,7 +7319,6 @@
       <c r="G352" s="4">
         <v>90</v>
       </c>
-      <c r="H352" s="4"/>
       <c r="I352" s="23"/>
       <c r="J352" s="24"/>
     </row>
@@ -7337,7 +7338,6 @@
       <c r="G353" s="4">
         <v>180</v>
       </c>
-      <c r="H353" s="4"/>
       <c r="I353" s="23"/>
       <c r="J353" s="24"/>
     </row>
@@ -7357,7 +7357,6 @@
       <c r="G354" s="4">
         <v>180</v>
       </c>
-      <c r="H354" s="4"/>
       <c r="I354" s="23"/>
       <c r="J354" s="24"/>
     </row>
@@ -7377,7 +7376,6 @@
       <c r="G355" s="4">
         <v>90</v>
       </c>
-      <c r="H355" s="4"/>
       <c r="I355" s="23"/>
       <c r="J355" s="24"/>
     </row>
@@ -7397,7 +7395,6 @@
       <c r="G356" s="4">
         <v>90</v>
       </c>
-      <c r="H356" s="4"/>
       <c r="I356" s="23"/>
       <c r="J356" s="24"/>
     </row>
@@ -7417,7 +7414,6 @@
       <c r="G357" s="4">
         <v>180</v>
       </c>
-      <c r="H357" s="4"/>
       <c r="I357" s="23"/>
       <c r="J357" s="24"/>
     </row>
@@ -7437,7 +7433,6 @@
       <c r="G358" s="4">
         <v>180</v>
       </c>
-      <c r="H358" s="4"/>
       <c r="I358" s="23"/>
       <c r="J358" s="24"/>
     </row>
@@ -7467,7 +7462,9 @@
       <c r="C360" s="4">
         <v>18</v>
       </c>
-      <c r="H360" s="22"/>
+      <c r="H360" s="22">
+        <v>1</v>
+      </c>
       <c r="I360" s="23"/>
       <c r="J360" s="24"/>
     </row>
@@ -7535,7 +7532,6 @@
       <c r="G364" s="4">
         <v>-90</v>
       </c>
-      <c r="H364" s="4"/>
       <c r="I364" s="23"/>
       <c r="J364" s="24"/>
     </row>
@@ -7710,7 +7706,6 @@
       <c r="G375" s="3">
         <v>180</v>
       </c>
-      <c r="H375" s="3"/>
       <c r="I375" s="19"/>
       <c r="J375" s="20"/>
     </row>
@@ -7746,7 +7741,6 @@
       <c r="G377" s="3">
         <v>180</v>
       </c>
-      <c r="H377" s="3"/>
       <c r="I377" s="19"/>
       <c r="J377" s="20"/>
     </row>
@@ -7766,7 +7760,6 @@
       <c r="G378" s="3">
         <v>-90</v>
       </c>
-      <c r="H378" s="3"/>
       <c r="I378" s="19"/>
       <c r="J378" s="20"/>
     </row>
@@ -7780,7 +7773,9 @@
       <c r="C379" s="3">
         <v>9</v>
       </c>
-      <c r="H379" s="4"/>
+      <c r="H379" s="4">
+        <v>1</v>
+      </c>
       <c r="I379" s="19"/>
       <c r="J379" s="20"/>
     </row>
@@ -7800,7 +7795,6 @@
       <c r="G380" s="3">
         <v>-90</v>
       </c>
-      <c r="H380" s="3"/>
       <c r="I380" s="19"/>
       <c r="J380" s="20"/>
     </row>
@@ -7898,7 +7892,6 @@
       <c r="G387" s="3">
         <v>90</v>
       </c>
-      <c r="H387" s="3"/>
       <c r="I387" s="19"/>
       <c r="J387" s="20"/>
     </row>
@@ -7912,7 +7905,9 @@
       <c r="C388" s="3">
         <v>18</v>
       </c>
-      <c r="H388" s="22"/>
+      <c r="H388" s="22">
+        <v>1</v>
+      </c>
       <c r="I388" s="19"/>
       <c r="J388" s="20"/>
     </row>
@@ -7932,7 +7927,6 @@
       <c r="G389" s="3">
         <v>180</v>
       </c>
-      <c r="H389" s="3"/>
       <c r="I389" s="19"/>
       <c r="J389" s="20"/>
     </row>
@@ -7952,7 +7946,6 @@
       <c r="G390" s="3">
         <v>-90</v>
       </c>
-      <c r="H390" s="3"/>
       <c r="I390" s="19"/>
       <c r="J390" s="20"/>
     </row>
@@ -7988,7 +7981,6 @@
       <c r="G392" s="3">
         <v>90</v>
       </c>
-      <c r="H392" s="3"/>
       <c r="I392" s="19"/>
       <c r="J392" s="20"/>
     </row>
@@ -8194,7 +8186,9 @@
       <c r="C405" s="4">
         <v>7</v>
       </c>
-      <c r="H405" s="3"/>
+      <c r="H405" s="3">
+        <v>1</v>
+      </c>
       <c r="I405" s="23"/>
       <c r="J405" s="24"/>
     </row>
@@ -8208,7 +8202,9 @@
       <c r="C406" s="4">
         <v>8</v>
       </c>
-      <c r="H406" s="3"/>
+      <c r="H406" s="3">
+        <v>1</v>
+      </c>
       <c r="I406" s="23"/>
       <c r="J406" s="24"/>
     </row>
@@ -8221,6 +8217,9 @@
       </c>
       <c r="C407" s="4">
         <v>9</v>
+      </c>
+      <c r="H407" s="4">
+        <v>1</v>
       </c>
       <c r="I407" s="23"/>
       <c r="J407" s="24"/>
@@ -8359,6 +8358,9 @@
       <c r="C416" s="4">
         <v>18</v>
       </c>
+      <c r="H416" s="4">
+        <v>1</v>
+      </c>
       <c r="I416" s="23"/>
       <c r="J416" s="24"/>
     </row>
@@ -8372,7 +8374,9 @@
       <c r="C417" s="4">
         <v>19</v>
       </c>
-      <c r="H417" s="3"/>
+      <c r="H417" s="3">
+        <v>1</v>
+      </c>
       <c r="I417" s="23"/>
       <c r="J417" s="24"/>
     </row>
@@ -8386,7 +8390,9 @@
       <c r="C418" s="4">
         <v>20</v>
       </c>
-      <c r="H418" s="3"/>
+      <c r="H418" s="3">
+        <v>1</v>
+      </c>
       <c r="I418" s="23"/>
       <c r="J418" s="24"/>
     </row>
@@ -8518,7 +8524,6 @@
       <c r="G426" s="3">
         <v>180</v>
       </c>
-      <c r="H426" s="3"/>
       <c r="I426" s="19"/>
       <c r="J426" s="20"/>
     </row>
@@ -8538,7 +8543,6 @@
       <c r="G427" s="3">
         <v>180</v>
       </c>
-      <c r="H427" s="3"/>
       <c r="I427" s="19"/>
       <c r="J427" s="20"/>
     </row>
@@ -8558,7 +8562,6 @@
       <c r="G428" s="3">
         <v>180</v>
       </c>
-      <c r="H428" s="3"/>
       <c r="I428" s="19"/>
       <c r="J428" s="20"/>
     </row>
@@ -8578,7 +8581,6 @@
       <c r="G429" s="3">
         <v>180</v>
       </c>
-      <c r="H429" s="3"/>
       <c r="I429" s="19"/>
       <c r="J429" s="20"/>
     </row>
@@ -8598,7 +8600,6 @@
       <c r="G430" s="3">
         <v>180</v>
       </c>
-      <c r="H430" s="3"/>
       <c r="I430" s="19"/>
       <c r="J430" s="20"/>
     </row>
@@ -8618,7 +8619,6 @@
       <c r="G431" s="3">
         <v>-90</v>
       </c>
-      <c r="H431" s="3"/>
       <c r="I431" s="19"/>
       <c r="J431" s="20"/>
     </row>
@@ -8654,7 +8654,6 @@
       <c r="G433" s="3">
         <v>90</v>
       </c>
-      <c r="H433" s="3"/>
       <c r="I433" s="19"/>
       <c r="J433" s="20"/>
     </row>
@@ -8684,7 +8683,9 @@
       <c r="C435" s="3">
         <v>9</v>
       </c>
-      <c r="H435" s="4"/>
+      <c r="H435" s="4">
+        <v>1</v>
+      </c>
       <c r="I435" s="19"/>
       <c r="J435" s="20"/>
     </row>
@@ -8801,7 +8802,6 @@
       <c r="G443" s="3">
         <v>90</v>
       </c>
-      <c r="H443" s="3"/>
       <c r="I443" s="19"/>
       <c r="J443" s="20"/>
     </row>
@@ -8815,7 +8815,9 @@
       <c r="C444" s="3">
         <v>18</v>
       </c>
-      <c r="H444" s="4"/>
+      <c r="H444" s="4">
+        <v>1</v>
+      </c>
       <c r="I444" s="19"/>
       <c r="J444" s="20"/>
     </row>
@@ -8835,7 +8837,6 @@
       <c r="G445" s="3">
         <v>90</v>
       </c>
-      <c r="H445" s="3"/>
       <c r="I445" s="19"/>
       <c r="J445" s="20"/>
     </row>
@@ -8903,7 +8904,6 @@
       <c r="G449" s="3">
         <v>180</v>
       </c>
-      <c r="H449" s="3"/>
       <c r="I449" s="19"/>
       <c r="J449" s="20"/>
     </row>
@@ -8923,7 +8923,6 @@
       <c r="G450" s="3">
         <v>180</v>
       </c>
-      <c r="H450" s="3"/>
       <c r="I450" s="19"/>
       <c r="J450" s="20"/>
     </row>
@@ -8943,7 +8942,6 @@
       <c r="G451" s="3">
         <v>180</v>
       </c>
-      <c r="H451" s="3"/>
       <c r="I451" s="19"/>
       <c r="J451" s="20"/>
     </row>
@@ -8963,7 +8961,6 @@
       <c r="G452" s="3">
         <v>180</v>
       </c>
-      <c r="H452" s="3"/>
       <c r="I452" s="19"/>
       <c r="J452" s="20"/>
     </row>
@@ -8983,7 +8980,6 @@
       <c r="G453" s="3">
         <v>180</v>
       </c>
-      <c r="H453" s="3"/>
       <c r="I453" s="19"/>
       <c r="J453" s="20"/>
     </row>
@@ -9137,6 +9133,9 @@
       <c r="C463" s="4">
         <v>9</v>
       </c>
+      <c r="H463" s="4">
+        <v>1</v>
+      </c>
       <c r="I463" s="23"/>
       <c r="J463" s="24"/>
     </row>
@@ -9292,6 +9291,9 @@
       <c r="C472" s="4">
         <v>18</v>
       </c>
+      <c r="H472" s="4">
+        <v>1</v>
+      </c>
       <c r="I472" s="23"/>
       <c r="J472" s="24"/>
     </row>
@@ -9516,7 +9518,6 @@
       <c r="G487" s="3">
         <v>90</v>
       </c>
-      <c r="H487" s="3"/>
       <c r="I487" s="19"/>
       <c r="J487" s="20"/>
     </row>
@@ -9578,7 +9579,9 @@
       <c r="C491" s="3">
         <v>9</v>
       </c>
-      <c r="H491" s="4"/>
+      <c r="H491" s="4">
+        <v>1</v>
+      </c>
       <c r="I491" s="19"/>
       <c r="J491" s="20"/>
     </row>
@@ -9592,7 +9595,9 @@
       <c r="C492" s="3">
         <v>10</v>
       </c>
-      <c r="H492" s="4"/>
+      <c r="H492" s="4">
+        <v>1</v>
+      </c>
       <c r="I492" s="19"/>
       <c r="J492" s="20"/>
     </row>
@@ -9606,7 +9611,9 @@
       <c r="C493" s="3">
         <v>11</v>
       </c>
-      <c r="H493" s="4"/>
+      <c r="H493" s="4">
+        <v>1</v>
+      </c>
       <c r="I493" s="19"/>
       <c r="J493" s="20"/>
     </row>
@@ -9620,7 +9627,9 @@
       <c r="C494" s="3">
         <v>12</v>
       </c>
-      <c r="H494" s="4"/>
+      <c r="H494" s="4">
+        <v>1</v>
+      </c>
       <c r="I494" s="19"/>
       <c r="J494" s="20"/>
     </row>
@@ -9634,7 +9643,9 @@
       <c r="C495" s="3">
         <v>13</v>
       </c>
-      <c r="H495" s="4"/>
+      <c r="H495" s="4">
+        <v>1</v>
+      </c>
       <c r="I495" s="19"/>
       <c r="J495" s="20"/>
     </row>
@@ -9648,7 +9659,9 @@
       <c r="C496" s="3">
         <v>14</v>
       </c>
-      <c r="H496" s="4"/>
+      <c r="H496" s="4">
+        <v>1</v>
+      </c>
       <c r="I496" s="19"/>
       <c r="J496" s="20"/>
     </row>
@@ -9662,7 +9675,9 @@
       <c r="C497" s="3">
         <v>15</v>
       </c>
-      <c r="H497" s="4"/>
+      <c r="H497" s="4">
+        <v>1</v>
+      </c>
       <c r="I497" s="19"/>
       <c r="J497" s="20"/>
     </row>
@@ -9676,7 +9691,9 @@
       <c r="C498" s="3">
         <v>16</v>
       </c>
-      <c r="H498" s="4"/>
+      <c r="H498" s="4">
+        <v>1</v>
+      </c>
       <c r="I498" s="19"/>
       <c r="J498" s="20"/>
     </row>
@@ -9690,7 +9707,9 @@
       <c r="C499" s="3">
         <v>17</v>
       </c>
-      <c r="H499" s="4"/>
+      <c r="H499" s="4">
+        <v>1</v>
+      </c>
       <c r="I499" s="19"/>
       <c r="J499" s="20"/>
     </row>
@@ -9704,7 +9723,9 @@
       <c r="C500" s="3">
         <v>18</v>
       </c>
-      <c r="H500" s="4"/>
+      <c r="H500" s="4">
+        <v>1</v>
+      </c>
       <c r="I500" s="19"/>
       <c r="J500" s="20"/>
     </row>
@@ -9772,7 +9793,6 @@
       <c r="G504" s="3">
         <v>-90</v>
       </c>
-      <c r="H504" s="3"/>
       <c r="I504" s="19"/>
       <c r="J504" s="20"/>
     </row>
@@ -9991,7 +10011,9 @@
       <c r="C519" s="4">
         <v>9</v>
       </c>
-      <c r="H519" s="3"/>
+      <c r="H519" s="3">
+        <v>1</v>
+      </c>
       <c r="I519" s="23"/>
       <c r="J519" s="24"/>
     </row>
@@ -10162,7 +10184,9 @@
       <c r="C528" s="4">
         <v>18</v>
       </c>
-      <c r="H528" s="3"/>
+      <c r="H528" s="3">
+        <v>1</v>
+      </c>
       <c r="I528" s="23"/>
       <c r="J528" s="24"/>
     </row>
@@ -10322,7 +10346,6 @@
       <c r="G538" s="3">
         <v>90</v>
       </c>
-      <c r="H538" s="3"/>
       <c r="I538" s="19"/>
       <c r="J538" s="20"/>
     </row>
@@ -10406,7 +10429,6 @@
       <c r="G543" s="3">
         <v>-180</v>
       </c>
-      <c r="H543" s="3"/>
       <c r="I543" s="19"/>
       <c r="J543" s="20"/>
     </row>
@@ -10442,7 +10464,6 @@
       <c r="G545" s="3">
         <v>180</v>
       </c>
-      <c r="H545" s="3"/>
       <c r="I545" s="19"/>
       <c r="J545" s="20"/>
     </row>
@@ -10462,7 +10483,6 @@
       <c r="G546" s="3">
         <v>-90</v>
       </c>
-      <c r="H546" s="3"/>
       <c r="I546" s="19"/>
       <c r="J546" s="20"/>
     </row>
@@ -10476,6 +10496,9 @@
       <c r="C547" s="3">
         <v>9</v>
       </c>
+      <c r="H547" s="3">
+        <v>1</v>
+      </c>
       <c r="I547" s="19"/>
       <c r="J547" s="20"/>
     </row>
@@ -10495,7 +10518,6 @@
       <c r="G548" s="3">
         <v>-180</v>
       </c>
-      <c r="H548" s="3"/>
       <c r="I548" s="19"/>
       <c r="J548" s="20"/>
     </row>
@@ -10515,7 +10537,6 @@
       <c r="G549" s="3">
         <v>90</v>
       </c>
-      <c r="H549" s="3"/>
       <c r="I549" s="19"/>
       <c r="J549" s="20"/>
     </row>
@@ -10535,7 +10556,6 @@
       <c r="G550" s="3">
         <v>90</v>
       </c>
-      <c r="H550" s="3"/>
       <c r="I550" s="19"/>
       <c r="J550" s="20"/>
     </row>
@@ -10574,7 +10594,6 @@
       <c r="G552" s="3">
         <v>90</v>
       </c>
-      <c r="H552" s="3"/>
       <c r="I552" s="19"/>
       <c r="J552" s="20"/>
     </row>
@@ -10594,7 +10613,6 @@
       <c r="G553" s="3">
         <v>90</v>
       </c>
-      <c r="H553" s="3"/>
       <c r="I553" s="19"/>
       <c r="J553" s="20"/>
     </row>
@@ -10614,7 +10632,6 @@
       <c r="G554" s="3">
         <v>90</v>
       </c>
-      <c r="H554" s="3"/>
       <c r="I554" s="19"/>
       <c r="J554" s="20"/>
     </row>
@@ -10634,7 +10651,6 @@
       <c r="G555" s="3">
         <v>-90</v>
       </c>
-      <c r="H555" s="3"/>
       <c r="I555" s="19"/>
       <c r="J555" s="20"/>
     </row>
@@ -10648,6 +10664,9 @@
       <c r="C556" s="3">
         <v>18</v>
       </c>
+      <c r="H556" s="3">
+        <v>1</v>
+      </c>
       <c r="I556" s="19"/>
       <c r="J556" s="20"/>
     </row>
@@ -10667,7 +10686,6 @@
       <c r="G557" s="3">
         <v>180</v>
       </c>
-      <c r="H557" s="3"/>
       <c r="I557" s="19"/>
       <c r="J557" s="20"/>
     </row>
@@ -10687,7 +10705,6 @@
       <c r="G558" s="3">
         <v>-90</v>
       </c>
-      <c r="H558" s="3"/>
       <c r="I558" s="19"/>
       <c r="J558" s="20"/>
     </row>
@@ -10723,7 +10740,6 @@
       <c r="G560" s="3">
         <v>90</v>
       </c>
-      <c r="H560" s="3"/>
       <c r="I560" s="19"/>
       <c r="J560" s="20"/>
     </row>
@@ -11281,7 +11297,6 @@
       <c r="G594" s="3">
         <v>90</v>
       </c>
-      <c r="H594" s="3"/>
       <c r="I594" s="19"/>
       <c r="J594" s="20"/>
     </row>
@@ -11317,7 +11332,6 @@
       <c r="G596" s="3">
         <v>90</v>
       </c>
-      <c r="H596" s="3"/>
       <c r="I596" s="19"/>
       <c r="J596" s="20"/>
     </row>
@@ -11337,7 +11351,6 @@
       <c r="G597" s="3">
         <v>90</v>
       </c>
-      <c r="H597" s="3"/>
       <c r="I597" s="19"/>
       <c r="J597" s="20"/>
     </row>
@@ -11357,7 +11370,6 @@
       <c r="G598" s="3">
         <v>90</v>
       </c>
-      <c r="H598" s="3"/>
       <c r="I598" s="19"/>
       <c r="J598" s="20"/>
     </row>
@@ -11412,7 +11424,6 @@
       <c r="G601" s="3">
         <v>90</v>
       </c>
-      <c r="H601" s="3"/>
       <c r="I601" s="19"/>
       <c r="J601" s="20"/>
     </row>
@@ -11432,7 +11443,6 @@
       <c r="G602" s="3">
         <v>90</v>
       </c>
-      <c r="H602" s="3"/>
       <c r="I602" s="19"/>
       <c r="J602" s="20"/>
     </row>
@@ -11452,7 +11462,6 @@
       <c r="G603" s="3">
         <v>90</v>
       </c>
-      <c r="H603" s="3"/>
       <c r="I603" s="19"/>
       <c r="J603" s="20"/>
     </row>
@@ -11472,7 +11481,6 @@
       <c r="G604" s="3">
         <v>90</v>
       </c>
-      <c r="H604" s="3"/>
       <c r="I604" s="19"/>
       <c r="J604" s="20"/>
     </row>
@@ -11572,7 +11580,6 @@
       <c r="G610" s="3">
         <v>90</v>
       </c>
-      <c r="H610" s="3"/>
       <c r="I610" s="19"/>
       <c r="J610" s="20"/>
     </row>
@@ -11592,7 +11599,6 @@
       <c r="G611" s="3">
         <v>90</v>
       </c>
-      <c r="H611" s="3"/>
       <c r="I611" s="19"/>
       <c r="J611" s="20"/>
     </row>
@@ -11612,7 +11618,6 @@
       <c r="G612" s="3">
         <v>90</v>
       </c>
-      <c r="H612" s="3"/>
       <c r="I612" s="19"/>
       <c r="J612" s="20"/>
     </row>
@@ -11632,7 +11637,6 @@
       <c r="G613" s="3">
         <v>90</v>
       </c>
-      <c r="H613" s="3"/>
       <c r="I613" s="19"/>
       <c r="J613" s="20"/>
     </row>
@@ -11684,7 +11688,6 @@
       <c r="G616" s="3">
         <v>90</v>
       </c>
-      <c r="H616" s="3"/>
       <c r="I616" s="19"/>
       <c r="J616" s="20"/>
     </row>
@@ -11704,7 +11707,6 @@
       <c r="G617" s="3">
         <v>90</v>
       </c>
-      <c r="H617" s="3"/>
       <c r="I617" s="19"/>
       <c r="J617" s="20"/>
     </row>
@@ -11724,7 +11726,6 @@
       <c r="G618" s="3">
         <v>90</v>
       </c>
-      <c r="H618" s="3"/>
       <c r="I618" s="19"/>
       <c r="J618" s="20"/>
     </row>
@@ -11776,7 +11777,6 @@
       <c r="G621" s="3">
         <v>-90</v>
       </c>
-      <c r="H621" s="3"/>
       <c r="I621" s="19"/>
       <c r="J621" s="20"/>
     </row>
@@ -12323,7 +12323,6 @@
       <c r="G650" s="3">
         <v>90</v>
       </c>
-      <c r="H650" s="3"/>
       <c r="I650" s="19"/>
       <c r="J650" s="20"/>
     </row>
@@ -12759,7 +12758,6 @@
       <c r="G677" s="3">
         <v>-90</v>
       </c>
-      <c r="H677" s="3"/>
       <c r="I677" s="19"/>
       <c r="J677" s="20"/>
     </row>
@@ -13313,7 +13311,6 @@
       <c r="G707" s="3">
         <v>90</v>
       </c>
-      <c r="H707" s="3"/>
       <c r="I707" s="19"/>
       <c r="J707" s="20"/>
     </row>
@@ -13333,7 +13330,6 @@
       <c r="G708" s="3">
         <v>-90</v>
       </c>
-      <c r="H708" s="3"/>
       <c r="I708" s="19"/>
       <c r="J708" s="20"/>
     </row>
@@ -13369,7 +13365,6 @@
       <c r="G710" s="3">
         <v>-180</v>
       </c>
-      <c r="H710" s="3"/>
       <c r="I710" s="19"/>
       <c r="J710" s="20"/>
     </row>
@@ -13389,7 +13384,6 @@
       <c r="G711" s="3">
         <v>-90</v>
       </c>
-      <c r="H711" s="3"/>
       <c r="I711" s="19"/>
       <c r="J711" s="20"/>
     </row>
@@ -13473,7 +13467,6 @@
       <c r="G716" s="3">
         <v>-180</v>
       </c>
-      <c r="H716" s="3"/>
       <c r="I716" s="19"/>
       <c r="J716" s="20"/>
     </row>
@@ -13493,7 +13486,6 @@
       <c r="G717" s="3">
         <v>90</v>
       </c>
-      <c r="H717" s="3"/>
       <c r="I717" s="19"/>
       <c r="J717" s="20"/>
     </row>
@@ -13513,7 +13505,6 @@
       <c r="G718" s="3">
         <v>90</v>
       </c>
-      <c r="H718" s="3"/>
       <c r="I718" s="19"/>
       <c r="J718" s="20"/>
     </row>
@@ -13549,7 +13540,6 @@
       <c r="G720" s="3">
         <v>90</v>
       </c>
-      <c r="H720" s="3"/>
       <c r="I720" s="19"/>
       <c r="J720" s="20"/>
     </row>
@@ -13569,7 +13559,6 @@
       <c r="G721" s="3">
         <v>90</v>
       </c>
-      <c r="H721" s="3"/>
       <c r="I721" s="19"/>
       <c r="J721" s="20"/>
     </row>
@@ -13589,7 +13578,6 @@
       <c r="G722" s="3">
         <v>90</v>
       </c>
-      <c r="H722" s="3"/>
       <c r="I722" s="19"/>
       <c r="J722" s="20"/>
     </row>
@@ -13609,7 +13597,6 @@
       <c r="G723" s="3">
         <v>-90</v>
       </c>
-      <c r="H723" s="3"/>
       <c r="I723" s="19"/>
       <c r="J723" s="20"/>
     </row>
@@ -13693,7 +13680,6 @@
       <c r="G728" s="3">
         <v>-180</v>
       </c>
-      <c r="H728" s="3"/>
       <c r="I728" s="19"/>
       <c r="J728" s="20"/>
     </row>
@@ -13713,7 +13699,6 @@
       <c r="G729" s="3">
         <v>-90</v>
       </c>
-      <c r="H729" s="3"/>
       <c r="I729" s="19"/>
       <c r="J729" s="20"/>
     </row>
@@ -13749,7 +13734,6 @@
       <c r="G731" s="3">
         <v>-180</v>
       </c>
-      <c r="H731" s="3"/>
       <c r="I731" s="19"/>
       <c r="J731" s="20"/>
     </row>
@@ -13769,7 +13753,6 @@
       <c r="G732" s="3">
         <v>90</v>
       </c>
-      <c r="H732" s="3"/>
       <c r="I732" s="19"/>
       <c r="J732" s="20"/>
     </row>
@@ -14270,7 +14253,6 @@
       <c r="G762" s="3">
         <v>90</v>
       </c>
-      <c r="H762" s="3"/>
       <c r="I762" s="19"/>
       <c r="J762" s="20"/>
     </row>
@@ -14306,7 +14288,6 @@
       <c r="G764" s="3">
         <v>90</v>
       </c>
-      <c r="H764" s="3"/>
       <c r="I764" s="19"/>
       <c r="J764" s="20"/>
     </row>
@@ -14326,7 +14307,6 @@
       <c r="G765" s="3">
         <v>90</v>
       </c>
-      <c r="H765" s="3"/>
       <c r="I765" s="19"/>
       <c r="J765" s="20"/>
     </row>
@@ -14346,7 +14326,6 @@
       <c r="G766" s="3">
         <v>90</v>
       </c>
-      <c r="H766" s="3"/>
       <c r="I766" s="19"/>
       <c r="J766" s="20"/>
     </row>
@@ -14366,7 +14345,6 @@
       <c r="G767" s="3">
         <v>90</v>
       </c>
-      <c r="H767" s="3"/>
       <c r="I767" s="19"/>
       <c r="J767" s="20"/>
     </row>
@@ -14386,7 +14364,6 @@
       <c r="G768" s="3">
         <v>90</v>
       </c>
-      <c r="H768" s="3"/>
       <c r="I768" s="19"/>
       <c r="J768" s="20"/>
     </row>
@@ -14406,7 +14383,6 @@
       <c r="G769" s="3">
         <v>-90</v>
       </c>
-      <c r="H769" s="3"/>
       <c r="I769" s="19"/>
       <c r="J769" s="20"/>
     </row>
@@ -14426,7 +14402,6 @@
       <c r="G770" s="3">
         <v>-180</v>
       </c>
-      <c r="H770" s="3"/>
       <c r="I770" s="19"/>
       <c r="J770" s="20"/>
     </row>
@@ -14446,7 +14421,6 @@
       <c r="G771" s="3">
         <v>90</v>
       </c>
-      <c r="H771" s="3"/>
       <c r="I771" s="19"/>
       <c r="J771" s="20"/>
     </row>
@@ -14466,7 +14440,6 @@
       <c r="G772" s="3">
         <v>90</v>
       </c>
-      <c r="H772" s="3"/>
       <c r="I772" s="19"/>
       <c r="J772" s="20"/>
     </row>
@@ -14566,7 +14539,6 @@
       <c r="G778" s="3">
         <v>90</v>
       </c>
-      <c r="H778" s="3"/>
       <c r="I778" s="19"/>
       <c r="J778" s="20"/>
     </row>
@@ -14586,7 +14558,6 @@
       <c r="G779" s="3">
         <v>90</v>
       </c>
-      <c r="H779" s="3"/>
       <c r="I779" s="19"/>
       <c r="J779" s="20"/>
     </row>
@@ -14606,7 +14577,6 @@
       <c r="G780" s="3">
         <v>90</v>
       </c>
-      <c r="H780" s="3"/>
       <c r="I780" s="19"/>
       <c r="J780" s="20"/>
     </row>
@@ -14626,7 +14596,6 @@
       <c r="G781" s="3">
         <v>-90</v>
       </c>
-      <c r="H781" s="3"/>
       <c r="I781" s="19"/>
       <c r="J781" s="20"/>
     </row>
@@ -14646,7 +14615,6 @@
       <c r="G782" s="3">
         <v>-180</v>
       </c>
-      <c r="H782" s="3"/>
       <c r="I782" s="19"/>
       <c r="J782" s="20"/>
     </row>
@@ -14666,7 +14634,6 @@
       <c r="G783" s="3">
         <v>90</v>
       </c>
-      <c r="H783" s="3"/>
       <c r="I783" s="19"/>
       <c r="J783" s="20"/>
     </row>
@@ -14686,7 +14653,6 @@
       <c r="G784" s="3">
         <v>90</v>
       </c>
-      <c r="H784" s="3"/>
       <c r="I784" s="19"/>
       <c r="J784" s="20"/>
     </row>
@@ -14706,7 +14672,6 @@
       <c r="G785" s="3">
         <v>90</v>
       </c>
-      <c r="H785" s="3"/>
       <c r="I785" s="19"/>
       <c r="J785" s="20"/>
     </row>
@@ -14726,7 +14691,6 @@
       <c r="G786" s="3">
         <v>90</v>
       </c>
-      <c r="H786" s="3"/>
       <c r="I786" s="19"/>
       <c r="J786" s="20"/>
     </row>
@@ -14778,7 +14742,6 @@
       <c r="G789" s="3">
         <v>-90</v>
       </c>
-      <c r="H789" s="3"/>
       <c r="I789" s="19"/>
       <c r="J789" s="20"/>
     </row>

--- a/config/PacManMap【吃豆人地图配置】.xlsx
+++ b/config/PacManMap【吃豆人地图配置】.xlsx
@@ -1177,9 +1177,9 @@
   <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H411" sqref="H411"/>
+      <selection pane="bottomLeft" activeCell="H733" sqref="H733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -7262,9 +7262,6 @@
       <c r="D349" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H349" s="4">
-        <v>1</v>
-      </c>
       <c r="I349" s="23"/>
       <c r="J349" s="24"/>
     </row>
@@ -7281,9 +7278,6 @@
       <c r="D350" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H350" s="4">
-        <v>1</v>
-      </c>
       <c r="I350" s="23"/>
       <c r="J350" s="24"/>
     </row>
@@ -7462,9 +7456,7 @@
       <c r="C360" s="4">
         <v>18</v>
       </c>
-      <c r="H360" s="22">
-        <v>1</v>
-      </c>
+      <c r="H360" s="22"/>
       <c r="I360" s="23"/>
       <c r="J360" s="24"/>
     </row>
@@ -11386,9 +11378,6 @@
       <c r="D599" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H599" s="3">
-        <v>3</v>
-      </c>
       <c r="I599" s="19"/>
       <c r="J599" s="20"/>
     </row>
@@ -13768,9 +13757,6 @@
       </c>
       <c r="D733" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H733" s="3">
-        <v>3</v>
       </c>
       <c r="I733" s="19"/>
       <c r="J733" s="20"/>

--- a/config/PacManMap【吃豆人地图配置】.xlsx
+++ b/config/PacManMap【吃豆人地图配置】.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1177,9 +1177,9 @@
   <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H733" sqref="H733"/>
+      <selection pane="bottomLeft" activeCell="H354" sqref="H354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -7456,7 +7456,9 @@
       <c r="C360" s="4">
         <v>18</v>
       </c>
-      <c r="H360" s="22"/>
+      <c r="H360" s="22">
+        <v>1</v>
+      </c>
       <c r="I360" s="23"/>
       <c r="J360" s="24"/>
     </row>

--- a/config/PacManMap【吃豆人地图配置】.xlsx
+++ b/config/PacManMap【吃豆人地图配置】.xlsx
@@ -1177,9 +1177,9 @@
   <dimension ref="A1:J873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H354" sqref="H354"/>
+      <selection pane="bottomLeft" activeCell="K550" sqref="K550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5005,9 +5005,7 @@
       <c r="D215" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H215" s="4">
-        <v>3</v>
-      </c>
+      <c r="H215" s="4"/>
       <c r="I215" s="17"/>
       <c r="J215" s="18"/>
     </row>
@@ -10565,9 +10563,6 @@
       </c>
       <c r="D551" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H551" s="3">
-        <v>3</v>
       </c>
       <c r="I551" s="19"/>
       <c r="J551" s="20"/>
